--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -1676,20 +1676,14 @@
         <v>579.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>579</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,20 +1711,14 @@
         <v>580</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>580</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1766,12 +1754,10 @@
       <c r="J39" t="n">
         <v>580</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="n">
+        <v>580</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1805,12 +1791,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>588</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="K40" t="n">
+        <v>580</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1846,12 +1834,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>578</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="K41" t="n">
+        <v>580</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1881,20 +1871,14 @@
         <v>583</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>588</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1922,20 +1906,14 @@
         <v>588</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>588</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1963,20 +1941,14 @@
         <v>588.5</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>589</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2004,20 +1976,14 @@
         <v>589.5</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>589</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2045,20 +2011,14 @@
         <v>589.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>589</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2086,20 +2046,14 @@
         <v>591</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>589</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2127,20 +2081,14 @@
         <v>592</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>591</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2123,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2158,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2193,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2292,11 +2228,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2263,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2298,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2333,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2448,11 +2368,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2403,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2526,11 +2438,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2565,11 +2473,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2508,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2643,11 +2543,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2578,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2613,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2648,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +2683,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2838,11 +2718,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2877,11 +2753,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2916,11 +2788,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2955,11 +2823,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +2858,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3033,11 +2893,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3072,11 +2928,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +2963,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3150,11 +2998,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3189,11 +3033,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +3068,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3103,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +3138,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3173,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3208,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3243,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3278,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3501,12 +3313,10 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3639,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3744,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3779,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4339,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4409,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4444,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4479,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4514,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>589</v>
       </c>
       <c r="F2" t="n">
-        <v>1588.6934</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
-        <v>590</v>
+        <v>593.65</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,32 +468,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E3" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>1588.6934</v>
       </c>
       <c r="G3" t="n">
-        <v>590.5</v>
+        <v>593.55</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>590</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -503,32 +509,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C4" t="n">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="D4" t="n">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E4" t="n">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.83</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>599</v>
+        <v>593.4666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>590</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="C5" t="n">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="D5" t="n">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="E5" t="n">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F5" t="n">
-        <v>63.6638</v>
+        <v>0.83</v>
       </c>
       <c r="G5" t="n">
-        <v>600.5</v>
+        <v>593.7333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,7 +575,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C6" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D6" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E6" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.84</v>
+        <v>63.6638</v>
       </c>
       <c r="G6" t="n">
-        <v>595</v>
+        <v>593.6833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +614,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C7" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D7" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="E7" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F7" t="n">
-        <v>62.8239</v>
+        <v>0.84</v>
       </c>
       <c r="G7" t="n">
-        <v>593.5</v>
+        <v>593.7833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +653,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C8" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D8" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E8" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.85</v>
+        <v>62.8239</v>
       </c>
       <c r="G8" t="n">
-        <v>592</v>
+        <v>593.7833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +692,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +706,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C9" t="n">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D9" t="n">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E9" t="n">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G9" t="n">
-        <v>598</v>
+        <v>593.8333333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +731,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +745,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C10" t="n">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D10" t="n">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="E10" t="n">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F10" t="n">
-        <v>81.355</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>597.5</v>
+        <v>594.0333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +770,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +784,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C11" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D11" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E11" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>81.355</v>
       </c>
       <c r="G11" t="n">
-        <v>589.5</v>
+        <v>594.0333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +809,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,10 +835,10 @@
         <v>587</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>587</v>
+        <v>593.9666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +848,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +862,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F13" t="n">
-        <v>79</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>585.5</v>
+        <v>593.8833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +887,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -856,19 +904,19 @@
         <v>584</v>
       </c>
       <c r="C14" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D14" t="n">
         <v>584</v>
       </c>
       <c r="E14" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F14" t="n">
-        <v>1234.9289</v>
+        <v>79</v>
       </c>
       <c r="G14" t="n">
-        <v>583.5</v>
+        <v>593.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +926,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,32 +940,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D15" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E15" t="n">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F15" t="n">
-        <v>14543.1128</v>
+        <v>1234.9289</v>
       </c>
       <c r="G15" t="n">
-        <v>580</v>
+        <v>593.6333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>584</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,29 +984,35 @@
         <v>577</v>
       </c>
       <c r="C16" t="n">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D16" t="n">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E16" t="n">
         <v>577</v>
       </c>
       <c r="F16" t="n">
-        <v>2591</v>
+        <v>14543.1128</v>
       </c>
       <c r="G16" t="n">
-        <v>579.5</v>
+        <v>593.4833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>583</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1022,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C17" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D17" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E17" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F17" t="n">
-        <v>334</v>
+        <v>2591</v>
       </c>
       <c r="G17" t="n">
-        <v>582.5</v>
+        <v>593.4333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1047,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1061,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C18" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D18" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E18" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G18" t="n">
-        <v>584</v>
+        <v>593.4333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1086,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,32 +1100,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C19" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D19" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E19" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F19" t="n">
-        <v>666</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>585.5</v>
+        <v>593.45</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>583</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1141,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C20" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D20" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E20" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F20" t="n">
-        <v>10.85</v>
+        <v>666</v>
       </c>
       <c r="G20" t="n">
-        <v>587.5</v>
+        <v>593.3833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1166,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C21" t="n">
         <v>589</v>
@@ -1107,13 +1189,13 @@
         <v>589</v>
       </c>
       <c r="E21" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F21" t="n">
-        <v>1609.457</v>
+        <v>10.85</v>
       </c>
       <c r="G21" t="n">
-        <v>589</v>
+        <v>593.3666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1205,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,32 +1219,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C22" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D22" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E22" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F22" t="n">
-        <v>553.0598</v>
+        <v>1609.457</v>
       </c>
       <c r="G22" t="n">
-        <v>591</v>
+        <v>593.3166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>589</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,7 +1260,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C23" t="n">
         <v>593</v>
@@ -1177,13 +1269,13 @@
         <v>593</v>
       </c>
       <c r="E23" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F23" t="n">
-        <v>277.3425</v>
+        <v>553.0598</v>
       </c>
       <c r="G23" t="n">
-        <v>593</v>
+        <v>593.3333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1285,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,19 +1302,19 @@
         <v>593</v>
       </c>
       <c r="C24" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D24" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E24" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F24" t="n">
-        <v>12678.998</v>
+        <v>277.3425</v>
       </c>
       <c r="G24" t="n">
-        <v>592.5</v>
+        <v>593.3333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1324,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1338,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C25" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D25" t="n">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E25" t="n">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F25" t="n">
-        <v>274.9392</v>
+        <v>12678.998</v>
       </c>
       <c r="G25" t="n">
-        <v>588</v>
+        <v>593.4166666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1363,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1389,10 @@
         <v>584</v>
       </c>
       <c r="F26" t="n">
-        <v>115.4125</v>
+        <v>274.9392</v>
       </c>
       <c r="G26" t="n">
-        <v>584</v>
+        <v>593.2666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1402,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C27" t="n">
         <v>584</v>
@@ -1317,13 +1425,13 @@
         <v>584</v>
       </c>
       <c r="E27" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F27" t="n">
-        <v>786.5211</v>
+        <v>115.4125</v>
       </c>
       <c r="G27" t="n">
-        <v>584</v>
+        <v>593.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1441,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1455,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C28" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D28" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E28" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>786.5211</v>
       </c>
       <c r="G28" t="n">
-        <v>587</v>
+        <v>593.0166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1480,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1494,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C29" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D29" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E29" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>592.5</v>
+        <v>592.9166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1519,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1533,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D30" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E30" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F30" t="n">
-        <v>1057.081</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>591.5</v>
+        <v>592.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1558,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1572,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C31" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D31" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E31" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F31" t="n">
-        <v>68.40000000000001</v>
+        <v>1057.081</v>
       </c>
       <c r="G31" t="n">
-        <v>586.5</v>
+        <v>592.75</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1597,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1489,16 +1617,16 @@
         <v>585</v>
       </c>
       <c r="D32" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E32" t="n">
         <v>585</v>
       </c>
       <c r="F32" t="n">
-        <v>1463.4308</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>585</v>
+        <v>592.5166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1636,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1650,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C33" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D33" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E33" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F33" t="n">
-        <v>36</v>
+        <v>1463.4308</v>
       </c>
       <c r="G33" t="n">
-        <v>583.5</v>
+        <v>592.2833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1675,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1689,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C34" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D34" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E34" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F34" t="n">
-        <v>0.86</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>583.5</v>
+        <v>591.9666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1714,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1728,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C35" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D35" t="n">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E35" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F35" t="n">
-        <v>439.8045</v>
+        <v>0.86</v>
       </c>
       <c r="G35" t="n">
-        <v>581</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1753,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1767,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D36" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E36" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F36" t="n">
-        <v>89</v>
+        <v>439.8045</v>
       </c>
       <c r="G36" t="n">
-        <v>578</v>
+        <v>591.2333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1792,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1809,19 @@
         <v>579</v>
       </c>
       <c r="C37" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D37" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E37" t="n">
         <v>579</v>
       </c>
       <c r="F37" t="n">
-        <v>1718.0419</v>
+        <v>89</v>
       </c>
       <c r="G37" t="n">
-        <v>579.5</v>
+        <v>590.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1831,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,7 +1845,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C38" t="n">
         <v>580</v>
@@ -1702,13 +1854,13 @@
         <v>580</v>
       </c>
       <c r="E38" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F38" t="n">
-        <v>7.3229</v>
+        <v>1718.0419</v>
       </c>
       <c r="G38" t="n">
-        <v>580</v>
+        <v>590.4666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1870,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,24 +1896,24 @@
         <v>580</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>7.3229</v>
       </c>
       <c r="G39" t="n">
-        <v>580</v>
+        <v>590.0333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>580</v>
-      </c>
-      <c r="K39" t="n">
-        <v>580</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1767,38 +1923,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C40" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D40" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E40" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F40" t="n">
-        <v>0.86</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>584</v>
+        <v>589.6333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>580</v>
-      </c>
-      <c r="K40" t="n">
-        <v>580</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1810,38 +1962,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C41" t="n">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="D41" t="n">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E41" t="n">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F41" t="n">
-        <v>9.742000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G41" t="n">
-        <v>583</v>
+        <v>589.3</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>588</v>
-      </c>
-      <c r="K41" t="n">
-        <v>580</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1853,22 +2001,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C42" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D42" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E42" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.86</v>
+        <v>9.742000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>583</v>
+        <v>588.9833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,7 +2026,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1900,10 +2052,10 @@
         <v>588</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>0.86</v>
       </c>
       <c r="G43" t="n">
-        <v>588</v>
+        <v>588.8166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,7 +2065,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1923,22 +2079,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C44" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D44" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E44" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F44" t="n">
-        <v>0.85</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>588.5</v>
+        <v>588.6333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,7 +2104,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1961,19 +2121,19 @@
         <v>589</v>
       </c>
       <c r="C45" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D45" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E45" t="n">
         <v>589</v>
       </c>
       <c r="F45" t="n">
-        <v>1555.7063</v>
+        <v>0.85</v>
       </c>
       <c r="G45" t="n">
-        <v>589.5</v>
+        <v>588.5333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,7 +2143,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1996,19 +2160,19 @@
         <v>589</v>
       </c>
       <c r="C46" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D46" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E46" t="n">
         <v>589</v>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>1555.7063</v>
       </c>
       <c r="G46" t="n">
-        <v>589.5</v>
+        <v>588.45</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,7 +2182,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2031,10 +2199,10 @@
         <v>589</v>
       </c>
       <c r="C47" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D47" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E47" t="n">
         <v>589</v>
@@ -2043,7 +2211,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>591</v>
+        <v>588.2166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,7 +2221,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2063,22 +2235,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C48" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D48" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E48" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F48" t="n">
-        <v>203.6543</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>592</v>
+        <v>588.1833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,7 +2260,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2274,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C49" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D49" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E49" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F49" t="n">
-        <v>1405.8731</v>
+        <v>203.6543</v>
       </c>
       <c r="G49" t="n">
-        <v>590</v>
+        <v>588.1333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,7 +2299,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2136,19 +2316,19 @@
         <v>589</v>
       </c>
       <c r="C50" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D50" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E50" t="n">
         <v>589</v>
       </c>
       <c r="F50" t="n">
-        <v>10.85</v>
+        <v>1405.8731</v>
       </c>
       <c r="G50" t="n">
-        <v>591</v>
+        <v>588.05</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,7 +2338,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2168,22 +2352,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C51" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D51" t="n">
+        <v>593</v>
+      </c>
+      <c r="E51" t="n">
         <v>589</v>
       </c>
-      <c r="E51" t="n">
-        <v>588</v>
-      </c>
       <c r="F51" t="n">
-        <v>1974.0337</v>
+        <v>10.85</v>
       </c>
       <c r="G51" t="n">
-        <v>590.5</v>
+        <v>588.0166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,7 +2377,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2203,7 +2391,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C52" t="n">
         <v>588</v>
@@ -2215,10 +2403,10 @@
         <v>588</v>
       </c>
       <c r="F52" t="n">
-        <v>819.5886</v>
+        <v>1974.0337</v>
       </c>
       <c r="G52" t="n">
-        <v>588</v>
+        <v>587.9833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,7 +2416,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2430,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C53" t="n">
         <v>588</v>
       </c>
       <c r="D53" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E53" t="n">
         <v>588</v>
       </c>
       <c r="F53" t="n">
-        <v>22.9707</v>
+        <v>819.5886</v>
       </c>
       <c r="G53" t="n">
-        <v>588</v>
+        <v>587.8666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,7 +2455,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2273,22 +2469,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C54" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D54" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E54" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F54" t="n">
-        <v>206.0932</v>
+        <v>22.9707</v>
       </c>
       <c r="G54" t="n">
-        <v>587</v>
+        <v>587.8333333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,7 +2494,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2508,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C55" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D55" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E55" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.85</v>
+        <v>206.0932</v>
       </c>
       <c r="G55" t="n">
-        <v>589.5</v>
+        <v>587.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,7 +2533,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2343,22 +2547,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C56" t="n">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D56" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E56" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F56" t="n">
-        <v>1993.6399</v>
+        <v>0.85</v>
       </c>
       <c r="G56" t="n">
-        <v>590</v>
+        <v>587.8333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,7 +2572,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2378,22 +2586,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C57" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D57" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E57" t="n">
         <v>586</v>
       </c>
       <c r="F57" t="n">
-        <v>137.5243</v>
+        <v>1993.6399</v>
       </c>
       <c r="G57" t="n">
-        <v>586.5</v>
+        <v>587.8166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2403,7 +2611,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2416,19 +2628,19 @@
         <v>586</v>
       </c>
       <c r="C58" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D58" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E58" t="n">
         <v>586</v>
       </c>
       <c r="F58" t="n">
-        <v>782.1546</v>
+        <v>137.5243</v>
       </c>
       <c r="G58" t="n">
-        <v>586.5</v>
+        <v>587.7666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,7 +2650,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2448,7 +2664,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C59" t="n">
         <v>587</v>
@@ -2457,13 +2673,13 @@
         <v>587</v>
       </c>
       <c r="E59" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F59" t="n">
-        <v>214.312</v>
+        <v>782.1546</v>
       </c>
       <c r="G59" t="n">
-        <v>587</v>
+        <v>587.85</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,7 +2689,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2483,22 +2703,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C60" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D60" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E60" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F60" t="n">
-        <v>0.85</v>
+        <v>214.312</v>
       </c>
       <c r="G60" t="n">
-        <v>587.5</v>
+        <v>587.8333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,7 +2728,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2518,22 +2742,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C61" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D61" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E61" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="G61" t="n">
-        <v>589</v>
+        <v>587.8166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,7 +2767,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2565,10 +2793,10 @@
         <v>590</v>
       </c>
       <c r="F62" t="n">
-        <v>2807.9735</v>
+        <v>0.88</v>
       </c>
       <c r="G62" t="n">
-        <v>590</v>
+        <v>587.8166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,7 +2806,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2820,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C63" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D63" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E63" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F63" t="n">
-        <v>275.2036</v>
+        <v>2807.9735</v>
       </c>
       <c r="G63" t="n">
-        <v>590.5</v>
+        <v>587.8166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,7 +2845,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2623,22 +2859,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C64" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D64" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E64" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.85</v>
+        <v>275.2036</v>
       </c>
       <c r="G64" t="n">
-        <v>592</v>
+        <v>587.8166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,7 +2884,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2898,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C65" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D65" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E65" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F65" t="n">
         <v>0.85</v>
       </c>
       <c r="G65" t="n">
-        <v>593.5</v>
+        <v>587.5833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,7 +2923,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2696,19 +2940,19 @@
         <v>594</v>
       </c>
       <c r="C66" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D66" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E66" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F66" t="n">
-        <v>7555.5099</v>
+        <v>0.85</v>
       </c>
       <c r="G66" t="n">
-        <v>592</v>
+        <v>587.5833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,7 +2962,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2976,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C67" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D67" t="n">
         <v>598</v>
       </c>
       <c r="E67" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F67" t="n">
-        <v>0.84</v>
+        <v>7555.5099</v>
       </c>
       <c r="G67" t="n">
-        <v>594</v>
+        <v>587.4833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,7 +3001,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2769,16 +3021,16 @@
         <v>598</v>
       </c>
       <c r="D68" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E68" t="n">
         <v>598</v>
       </c>
       <c r="F68" t="n">
-        <v>1705.8011</v>
+        <v>0.84</v>
       </c>
       <c r="G68" t="n">
-        <v>598</v>
+        <v>587.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,7 +3040,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2801,19 +3057,19 @@
         <v>598</v>
       </c>
       <c r="C69" t="n">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D69" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E69" t="n">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="F69" t="n">
-        <v>351.84</v>
+        <v>1705.8011</v>
       </c>
       <c r="G69" t="n">
-        <v>599</v>
+        <v>587.6833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,7 +3079,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2833,10 +3093,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>598</v>
+      </c>
+      <c r="C70" t="n">
         <v>600</v>
-      </c>
-      <c r="C70" t="n">
-        <v>591</v>
       </c>
       <c r="D70" t="n">
         <v>600</v>
@@ -2845,10 +3105,10 @@
         <v>591</v>
       </c>
       <c r="F70" t="n">
-        <v>1597.5051</v>
+        <v>351.84</v>
       </c>
       <c r="G70" t="n">
-        <v>595.5</v>
+        <v>587.6333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,7 +3118,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +3132,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C71" t="n">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D71" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E71" t="n">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F71" t="n">
-        <v>0.83</v>
+        <v>1597.5051</v>
       </c>
       <c r="G71" t="n">
-        <v>597</v>
+        <v>587.6166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,7 +3157,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2903,22 +3171,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C72" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D72" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E72" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F72" t="n">
-        <v>1688.0793</v>
+        <v>0.83</v>
       </c>
       <c r="G72" t="n">
-        <v>602.5</v>
+        <v>587.8833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,7 +3196,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2941,19 +3213,19 @@
         <v>602</v>
       </c>
       <c r="C73" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D73" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E73" t="n">
         <v>602</v>
       </c>
       <c r="F73" t="n">
-        <v>2856.3029</v>
+        <v>1688.0793</v>
       </c>
       <c r="G73" t="n">
-        <v>602.5</v>
+        <v>588.1333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,7 +3235,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2973,22 +3249,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C74" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D74" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E74" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F74" t="n">
-        <v>645.3156</v>
+        <v>2856.3029</v>
       </c>
       <c r="G74" t="n">
-        <v>601.5</v>
+        <v>588.45</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,7 +3274,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3011,19 +3291,19 @@
         <v>604</v>
       </c>
       <c r="C75" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D75" t="n">
         <v>604</v>
       </c>
       <c r="E75" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F75" t="n">
-        <v>0.84</v>
+        <v>645.3156</v>
       </c>
       <c r="G75" t="n">
-        <v>602</v>
+        <v>588.7333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,7 +3313,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3043,22 +3327,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C76" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D76" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E76" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F76" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="G76" t="n">
-        <v>604.5</v>
+        <v>589.1833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,7 +3352,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3090,10 +3378,10 @@
         <v>605</v>
       </c>
       <c r="F77" t="n">
-        <v>870.1761</v>
+        <v>0.83</v>
       </c>
       <c r="G77" t="n">
-        <v>605</v>
+        <v>589.5666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,7 +3391,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +3405,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D78" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E78" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>870.1761</v>
       </c>
       <c r="G78" t="n">
-        <v>605.5</v>
+        <v>589.9333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,7 +3430,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3160,23 +3456,25 @@
         <v>606</v>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>606</v>
+        <v>590.2833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3195,10 +3493,10 @@
         <v>606</v>
       </c>
       <c r="F80" t="n">
-        <v>487.9254</v>
+        <v>200</v>
       </c>
       <c r="G80" t="n">
-        <v>606</v>
+        <v>590.6166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,28 +3516,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C81" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D81" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E81" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F81" t="n">
-        <v>1.82</v>
+        <v>487.9254</v>
       </c>
       <c r="G81" t="n">
-        <v>610</v>
+        <v>590.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3253,22 +3551,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="C82" t="n">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D82" t="n">
         <v>614</v>
       </c>
       <c r="E82" t="n">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="F82" t="n">
-        <v>4.82</v>
+        <v>1.82</v>
       </c>
       <c r="G82" t="n">
-        <v>606.5</v>
+        <v>591.3166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3288,22 +3586,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C83" t="n">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="D83" t="n">
         <v>614</v>
       </c>
       <c r="E83" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F83" t="n">
-        <v>2.64</v>
+        <v>4.82</v>
       </c>
       <c r="G83" t="n">
-        <v>606.5</v>
+        <v>591.4166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3332,19 +3630,19 @@
         <v>614</v>
       </c>
       <c r="E84" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F84" t="n">
-        <v>77.63460000000001</v>
+        <v>2.64</v>
       </c>
       <c r="G84" t="n">
-        <v>614</v>
+        <v>591.7666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3358,28 +3656,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C85" t="n">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D85" t="n">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E85" t="n">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="F85" t="n">
-        <v>83.193</v>
+        <v>77.63460000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>608.5</v>
+        <v>592.1333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3393,28 +3691,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C86" t="n">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D86" t="n">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E86" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F86" t="n">
-        <v>831.5014</v>
+        <v>83.193</v>
       </c>
       <c r="G86" t="n">
-        <v>605.5</v>
+        <v>592.45</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3428,22 +3726,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C87" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D87" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E87" t="n">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F87" t="n">
-        <v>0.82</v>
+        <v>831.5014</v>
       </c>
       <c r="G87" t="n">
-        <v>609</v>
+        <v>592.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3463,22 +3761,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C88" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D88" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E88" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F88" t="n">
-        <v>82.193</v>
+        <v>0.82</v>
       </c>
       <c r="G88" t="n">
-        <v>607</v>
+        <v>593.2833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3498,22 +3796,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C89" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D89" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E89" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F89" t="n">
-        <v>90.9999</v>
+        <v>82.193</v>
       </c>
       <c r="G89" t="n">
-        <v>607</v>
+        <v>593.5166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3545,10 +3843,10 @@
         <v>610</v>
       </c>
       <c r="F90" t="n">
-        <v>409</v>
+        <v>90.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>610</v>
+        <v>593.7666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3571,19 +3869,19 @@
         <v>610</v>
       </c>
       <c r="C91" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D91" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E91" t="n">
         <v>610</v>
       </c>
       <c r="F91" t="n">
-        <v>0.82</v>
+        <v>409</v>
       </c>
       <c r="G91" t="n">
-        <v>612</v>
+        <v>594.1333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3603,22 +3901,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C92" t="n">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D92" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E92" t="n">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F92" t="n">
-        <v>302.8777</v>
+        <v>0.82</v>
       </c>
       <c r="G92" t="n">
-        <v>607.5</v>
+        <v>594.6166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3638,22 +3936,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C93" t="n">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D93" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E93" t="n">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F93" t="n">
-        <v>753</v>
+        <v>302.8777</v>
       </c>
       <c r="G93" t="n">
-        <v>604.5</v>
+        <v>594.8833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3673,22 +3971,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C94" t="n">
         <v>608</v>
       </c>
       <c r="D94" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E94" t="n">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F94" t="n">
-        <v>66.14879999999999</v>
+        <v>753</v>
       </c>
       <c r="G94" t="n">
-        <v>608</v>
+        <v>595.3166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3708,22 +4006,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C95" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D95" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E95" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F95" t="n">
-        <v>499.9999</v>
+        <v>66.14879999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>609</v>
+        <v>595.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3743,22 +4041,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C96" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D96" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E96" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F96" t="n">
-        <v>770.3203999999999</v>
+        <v>499.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>611</v>
+        <v>596.25</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3790,10 +4088,10 @@
         <v>612</v>
       </c>
       <c r="F97" t="n">
-        <v>1.921</v>
+        <v>770.3203999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>612</v>
+        <v>596.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3813,22 +4111,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C98" t="n">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D98" t="n">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E98" t="n">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="F98" t="n">
-        <v>105</v>
+        <v>1.921</v>
       </c>
       <c r="G98" t="n">
-        <v>608</v>
+        <v>597.3333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3848,22 +4146,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C99" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D99" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E99" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F99" t="n">
-        <v>317.1447</v>
+        <v>105</v>
       </c>
       <c r="G99" t="n">
-        <v>605</v>
+        <v>597.7333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3895,10 +4193,10 @@
         <v>606</v>
       </c>
       <c r="F100" t="n">
-        <v>521</v>
+        <v>317.1447</v>
       </c>
       <c r="G100" t="n">
-        <v>606</v>
+        <v>598.1666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3930,10 +4228,10 @@
         <v>606</v>
       </c>
       <c r="F101" t="n">
-        <v>1076.4411</v>
+        <v>521</v>
       </c>
       <c r="G101" t="n">
-        <v>606</v>
+        <v>598.4666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3953,22 +4251,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C102" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D102" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E102" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>1076.4411</v>
       </c>
       <c r="G102" t="n">
-        <v>609.5</v>
+        <v>598.9333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,7 +4286,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C103" t="n">
         <v>613</v>
@@ -3997,13 +4295,13 @@
         <v>613</v>
       </c>
       <c r="E103" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F103" t="n">
-        <v>118.93539151</v>
+        <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>613</v>
+        <v>599.35</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4023,22 +4321,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C104" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D104" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E104" t="n">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F104" t="n">
-        <v>540.46</v>
+        <v>118.93539151</v>
       </c>
       <c r="G104" t="n">
-        <v>613.5</v>
+        <v>599.7666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4058,22 +4356,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C105" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D105" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E105" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F105" t="n">
-        <v>1537.3314</v>
+        <v>540.46</v>
       </c>
       <c r="G105" t="n">
-        <v>614.5</v>
+        <v>600.1833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4105,10 +4403,10 @@
         <v>615</v>
       </c>
       <c r="F106" t="n">
-        <v>528.2252</v>
+        <v>1537.3314</v>
       </c>
       <c r="G106" t="n">
-        <v>615</v>
+        <v>600.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4131,19 +4429,19 @@
         <v>615</v>
       </c>
       <c r="C107" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D107" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E107" t="n">
         <v>615</v>
       </c>
       <c r="F107" t="n">
-        <v>241.9999</v>
+        <v>528.2252</v>
       </c>
       <c r="G107" t="n">
-        <v>615.5</v>
+        <v>601.0333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4166,19 +4464,19 @@
         <v>615</v>
       </c>
       <c r="C108" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D108" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E108" t="n">
         <v>615</v>
       </c>
       <c r="F108" t="n">
-        <v>153.6043</v>
+        <v>241.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>615.5</v>
+        <v>601.4166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4201,19 +4499,19 @@
         <v>615</v>
       </c>
       <c r="C109" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D109" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E109" t="n">
         <v>615</v>
       </c>
       <c r="F109" t="n">
-        <v>330.5</v>
+        <v>153.6043</v>
       </c>
       <c r="G109" t="n">
-        <v>615.5</v>
+        <v>601.8166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4233,22 +4531,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C110" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D110" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E110" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F110" t="n">
-        <v>66.17700000000001</v>
+        <v>330.5</v>
       </c>
       <c r="G110" t="n">
-        <v>616.5</v>
+        <v>602.2666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4271,19 +4569,19 @@
         <v>617</v>
       </c>
       <c r="C111" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D111" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E111" t="n">
         <v>617</v>
       </c>
       <c r="F111" t="n">
-        <v>85.0814</v>
+        <v>66.17700000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>617.5</v>
+        <v>602.6666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4303,7 +4601,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C112" t="n">
         <v>618</v>
@@ -4312,13 +4610,13 @@
         <v>618</v>
       </c>
       <c r="E112" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F112" t="n">
-        <v>17.7713</v>
+        <v>85.0814</v>
       </c>
       <c r="G112" t="n">
-        <v>618</v>
+        <v>603.1666666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4341,19 +4639,19 @@
         <v>618</v>
       </c>
       <c r="C113" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D113" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E113" t="n">
         <v>618</v>
       </c>
       <c r="F113" t="n">
-        <v>1084.7241</v>
+        <v>17.7713</v>
       </c>
       <c r="G113" t="n">
-        <v>621.5</v>
+        <v>603.6666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4373,22 +4671,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C114" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D114" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E114" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F114" t="n">
-        <v>384.6125</v>
+        <v>1084.7241</v>
       </c>
       <c r="G114" t="n">
-        <v>625.5</v>
+        <v>604.2833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4420,10 +4718,10 @@
         <v>626</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>384.6125</v>
       </c>
       <c r="G115" t="n">
-        <v>626</v>
+        <v>604.95</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,10 +4753,10 @@
         <v>626</v>
       </c>
       <c r="F116" t="n">
-        <v>184.4777</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>626</v>
+        <v>605.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,22 +4776,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C117" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D117" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="E117" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F117" t="n">
-        <v>237.644</v>
+        <v>184.4777</v>
       </c>
       <c r="G117" t="n">
-        <v>622</v>
+        <v>606.15</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4513,22 +4811,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C118" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D118" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E118" t="n">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>237.644</v>
       </c>
       <c r="G118" t="n">
-        <v>622</v>
+        <v>606.6833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4543,6 +4841,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>626</v>
+      </c>
+      <c r="C119" t="n">
+        <v>626</v>
+      </c>
+      <c r="D119" t="n">
+        <v>626</v>
+      </c>
+      <c r="E119" t="n">
+        <v>626</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>607.3333333333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>72</v>
       </c>
       <c r="G2" t="n">
+        <v>590.5333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>593.65</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,24 +491,21 @@
         <v>1588.6934</v>
       </c>
       <c r="G3" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>593.55</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,24 +529,21 @@
         <v>24</v>
       </c>
       <c r="G4" t="n">
+        <v>590</v>
+      </c>
+      <c r="H4" t="n">
         <v>593.4666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,22 +567,21 @@
         <v>0.83</v>
       </c>
       <c r="G5" t="n">
+        <v>590.8666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>593.7333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,22 +605,21 @@
         <v>63.6638</v>
       </c>
       <c r="G6" t="n">
+        <v>590.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>593.6833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,22 +643,21 @@
         <v>0.84</v>
       </c>
       <c r="G7" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>593.7833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,22 +681,21 @@
         <v>62.8239</v>
       </c>
       <c r="G8" t="n">
+        <v>590.9333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>593.7833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,22 +719,21 @@
         <v>0.85</v>
       </c>
       <c r="G9" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>593.8333333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,22 +757,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>592.1333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>594.0333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,22 +795,21 @@
         <v>81.355</v>
       </c>
       <c r="G11" t="n">
+        <v>592.2</v>
+      </c>
+      <c r="H11" t="n">
         <v>594.0333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,22 +833,21 @@
         <v>15</v>
       </c>
       <c r="G12" t="n">
+        <v>592.1333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>593.9666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -877,22 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>592</v>
+      </c>
+      <c r="H13" t="n">
         <v>593.8833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,22 +909,21 @@
         <v>79</v>
       </c>
       <c r="G14" t="n">
+        <v>592.1333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>593.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,24 +947,21 @@
         <v>1234.9289</v>
       </c>
       <c r="G15" t="n">
+        <v>591.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>593.6333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -996,24 +985,21 @@
         <v>14543.1128</v>
       </c>
       <c r="G16" t="n">
+        <v>591</v>
+      </c>
+      <c r="H16" t="n">
         <v>593.4833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1037,22 +1023,21 @@
         <v>2591</v>
       </c>
       <c r="G17" t="n">
+        <v>590.4666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>593.4333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,22 +1061,21 @@
         <v>334</v>
       </c>
       <c r="G18" t="n">
+        <v>590</v>
+      </c>
+      <c r="H18" t="n">
         <v>593.4333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,24 +1099,21 @@
         <v>40</v>
       </c>
       <c r="G19" t="n">
+        <v>589.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>593.45</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1156,22 +1137,21 @@
         <v>666</v>
       </c>
       <c r="G20" t="n">
+        <v>588.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>593.3833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1195,22 +1175,21 @@
         <v>10.85</v>
       </c>
       <c r="G21" t="n">
+        <v>587.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>593.3666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,24 +1213,21 @@
         <v>1609.457</v>
       </c>
       <c r="G22" t="n">
+        <v>587.4</v>
+      </c>
+      <c r="H22" t="n">
         <v>593.3166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1275,22 +1251,21 @@
         <v>553.0598</v>
       </c>
       <c r="G23" t="n">
+        <v>587.5333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>593.3333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,22 +1289,21 @@
         <v>277.3425</v>
       </c>
       <c r="G24" t="n">
+        <v>587.5333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>593.3333333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,22 +1327,21 @@
         <v>12678.998</v>
       </c>
       <c r="G25" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>593.4166666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,22 +1365,21 @@
         <v>274.9392</v>
       </c>
       <c r="G26" t="n">
+        <v>586.2666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>593.2666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1431,22 +1403,21 @@
         <v>115.4125</v>
       </c>
       <c r="G27" t="n">
+        <v>586.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>593.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,22 +1441,21 @@
         <v>786.5211</v>
       </c>
       <c r="G28" t="n">
+        <v>585.8666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>593.0166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1509,22 +1479,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>586.2666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>592.9166666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,22 +1517,21 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
+        <v>587.0666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>592.9</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1587,22 +1555,21 @@
         <v>1057.081</v>
       </c>
       <c r="G31" t="n">
+        <v>587.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>592.75</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,22 +1593,21 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>588</v>
+      </c>
+      <c r="H32" t="n">
         <v>592.5166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1665,22 +1631,21 @@
         <v>1463.4308</v>
       </c>
       <c r="G33" t="n">
+        <v>588.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>592.2833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,22 +1669,21 @@
         <v>36</v>
       </c>
       <c r="G34" t="n">
+        <v>587.9333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>591.9666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,22 +1707,21 @@
         <v>0.86</v>
       </c>
       <c r="G35" t="n">
+        <v>587.8666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>591.6666666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,22 +1745,21 @@
         <v>439.8045</v>
       </c>
       <c r="G36" t="n">
+        <v>587.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>591.2333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1821,22 +1783,21 @@
         <v>89</v>
       </c>
       <c r="G37" t="n">
+        <v>586.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>590.9</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,22 +1821,21 @@
         <v>1718.0419</v>
       </c>
       <c r="G38" t="n">
+        <v>585.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>590.4666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,22 +1859,21 @@
         <v>7.3229</v>
       </c>
       <c r="G39" t="n">
+        <v>584.6666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>590.0333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,22 +1897,21 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
+        <v>583.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>589.6333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1977,22 +1935,21 @@
         <v>0.86</v>
       </c>
       <c r="G41" t="n">
+        <v>584.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>589.3</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,22 +1973,21 @@
         <v>9.742000000000001</v>
       </c>
       <c r="G42" t="n">
+        <v>583.7333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>588.9833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2055,22 +2011,21 @@
         <v>0.86</v>
       </c>
       <c r="G43" t="n">
+        <v>584</v>
+      </c>
+      <c r="H43" t="n">
         <v>588.8166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,22 +2049,21 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
+        <v>583.8666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>588.6333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,22 +2087,21 @@
         <v>0.85</v>
       </c>
       <c r="G45" t="n">
+        <v>583.4666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>588.5333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2172,22 +2125,21 @@
         <v>1555.7063</v>
       </c>
       <c r="G46" t="n">
+        <v>583.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>588.45</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2211,22 +2163,21 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
+        <v>583.8666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>588.2166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,22 +2201,21 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
+        <v>584.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>588.1833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2289,22 +2239,21 @@
         <v>203.6543</v>
       </c>
       <c r="G49" t="n">
+        <v>585</v>
+      </c>
+      <c r="H49" t="n">
         <v>588.1333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,22 +2277,21 @@
         <v>1405.8731</v>
       </c>
       <c r="G50" t="n">
+        <v>585.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>588.05</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,22 +2315,21 @@
         <v>10.85</v>
       </c>
       <c r="G51" t="n">
+        <v>586.3333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>588.0166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,22 +2353,21 @@
         <v>1974.0337</v>
       </c>
       <c r="G52" t="n">
+        <v>586.9333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>587.9833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,22 +2391,21 @@
         <v>819.5886</v>
       </c>
       <c r="G53" t="n">
+        <v>587.4666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>587.8666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,22 +2429,21 @@
         <v>22.9707</v>
       </c>
       <c r="G54" t="n">
+        <v>588</v>
+      </c>
+      <c r="H54" t="n">
         <v>587.8333333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,22 +2467,21 @@
         <v>206.0932</v>
       </c>
       <c r="G55" t="n">
+        <v>588.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>587.8</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2562,22 +2505,21 @@
         <v>0.85</v>
       </c>
       <c r="G56" t="n">
+        <v>588.7333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>587.8333333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,22 +2543,21 @@
         <v>1993.6399</v>
       </c>
       <c r="G57" t="n">
+        <v>589.3333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>587.8166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,22 +2581,21 @@
         <v>137.5243</v>
       </c>
       <c r="G58" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>587.7666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2679,22 +2619,21 @@
         <v>782.1546</v>
       </c>
       <c r="G59" t="n">
+        <v>589.1333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>587.85</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,22 +2657,21 @@
         <v>214.312</v>
       </c>
       <c r="G60" t="n">
+        <v>589</v>
+      </c>
+      <c r="H60" t="n">
         <v>587.8333333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,22 +2695,21 @@
         <v>0.85</v>
       </c>
       <c r="G61" t="n">
+        <v>588.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>587.8166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,22 +2733,25 @@
         <v>0.88</v>
       </c>
       <c r="G62" t="n">
+        <v>588.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>587.8166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>588</v>
+      </c>
+      <c r="L62" t="n">
+        <v>588</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,22 +2775,27 @@
         <v>2807.9735</v>
       </c>
       <c r="G63" t="n">
+        <v>588.7333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>587.8166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="n">
+        <v>588</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,22 +2819,27 @@
         <v>275.2036</v>
       </c>
       <c r="G64" t="n">
+        <v>588.7333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>587.8166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="n">
+        <v>588</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2913,22 +2863,21 @@
         <v>0.85</v>
       </c>
       <c r="G65" t="n">
+        <v>589</v>
+      </c>
+      <c r="H65" t="n">
         <v>587.5833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,22 +2901,21 @@
         <v>0.85</v>
       </c>
       <c r="G66" t="n">
+        <v>589.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>587.5833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2991,22 +2939,21 @@
         <v>7555.5099</v>
       </c>
       <c r="G67" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>587.4833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,22 +2977,21 @@
         <v>0.84</v>
       </c>
       <c r="G68" t="n">
+        <v>589.8666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>587.6</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3069,22 +3015,21 @@
         <v>1705.8011</v>
       </c>
       <c r="G69" t="n">
+        <v>590.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>587.6833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,22 +3053,21 @@
         <v>351.84</v>
       </c>
       <c r="G70" t="n">
+        <v>591.4666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>587.6333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,22 +3091,21 @@
         <v>1597.5051</v>
       </c>
       <c r="G71" t="n">
+        <v>591.3333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>587.6166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,22 +3129,21 @@
         <v>0.83</v>
       </c>
       <c r="G72" t="n">
+        <v>592.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>587.8833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,22 +3167,21 @@
         <v>1688.0793</v>
       </c>
       <c r="G73" t="n">
+        <v>593.4666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>588.1333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,22 +3205,21 @@
         <v>2856.3029</v>
       </c>
       <c r="G74" t="n">
+        <v>594.5333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>588.45</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,22 +3243,21 @@
         <v>645.3156</v>
       </c>
       <c r="G75" t="n">
+        <v>595.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>588.7333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,22 +3281,21 @@
         <v>0.84</v>
       </c>
       <c r="G76" t="n">
+        <v>596.4666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>589.1833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3381,22 +3319,21 @@
         <v>0.83</v>
       </c>
       <c r="G77" t="n">
+        <v>597.4666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>589.5666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,22 +3357,21 @@
         <v>870.1761</v>
       </c>
       <c r="G78" t="n">
+        <v>598.4666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>589.9333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,22 +3395,23 @@
         <v>2</v>
       </c>
       <c r="G79" t="n">
+        <v>599.4666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>590.2833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3496,18 +3433,21 @@
         <v>200</v>
       </c>
       <c r="G80" t="n">
+        <v>600.3333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>590.6166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3531,18 +3471,21 @@
         <v>487.9254</v>
       </c>
       <c r="G81" t="n">
+        <v>601.1333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>590.9</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,18 +3509,21 @@
         <v>1.82</v>
       </c>
       <c r="G82" t="n">
+        <v>602.7333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>591.3166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,18 +3547,21 @@
         <v>4.82</v>
       </c>
       <c r="G83" t="n">
+        <v>602.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>591.4166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,18 +3585,21 @@
         <v>2.64</v>
       </c>
       <c r="G84" t="n">
+        <v>603.8666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>591.7666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,18 +3623,21 @@
         <v>77.63460000000001</v>
       </c>
       <c r="G85" t="n">
+        <v>604.8</v>
+      </c>
+      <c r="H85" t="n">
         <v>592.1333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,18 +3661,21 @@
         <v>83.193</v>
       </c>
       <c r="G86" t="n">
+        <v>605.6</v>
+      </c>
+      <c r="H86" t="n">
         <v>592.45</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,18 +3699,21 @@
         <v>831.5014</v>
       </c>
       <c r="G87" t="n">
+        <v>605.9333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>592.85</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,18 +3737,21 @@
         <v>0.82</v>
       </c>
       <c r="G88" t="n">
+        <v>606.4666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>593.2833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +3775,21 @@
         <v>82.193</v>
       </c>
       <c r="G89" t="n">
+        <v>606.5333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>593.5166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +3813,21 @@
         <v>90.9999</v>
       </c>
       <c r="G90" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="H90" t="n">
         <v>593.7666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +3851,21 @@
         <v>409</v>
       </c>
       <c r="G91" t="n">
+        <v>607.6</v>
+      </c>
+      <c r="H91" t="n">
         <v>594.1333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,18 +3889,21 @@
         <v>0.82</v>
       </c>
       <c r="G92" t="n">
+        <v>608.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>594.6166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3951,18 +3927,21 @@
         <v>302.8777</v>
       </c>
       <c r="G93" t="n">
+        <v>607.9333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>594.8833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +3965,21 @@
         <v>753</v>
       </c>
       <c r="G94" t="n">
+        <v>608.0666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>595.3166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4003,21 @@
         <v>66.14879999999999</v>
       </c>
       <c r="G95" t="n">
+        <v>608.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>595.7</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4041,21 @@
         <v>499.9999</v>
       </c>
       <c r="G96" t="n">
+        <v>608.4666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>596.25</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +4079,21 @@
         <v>770.3203999999999</v>
       </c>
       <c r="G97" t="n">
+        <v>608.3333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>596.8</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +4117,21 @@
         <v>1.921</v>
       </c>
       <c r="G98" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="H98" t="n">
         <v>597.3333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +4155,21 @@
         <v>105</v>
       </c>
       <c r="G99" t="n">
+        <v>608.5333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>597.7333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,18 +4193,21 @@
         <v>317.1447</v>
       </c>
       <c r="G100" t="n">
+        <v>608</v>
+      </c>
+      <c r="H100" t="n">
         <v>598.1666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,18 +4231,21 @@
         <v>521</v>
       </c>
       <c r="G101" t="n">
+        <v>608.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>598.4666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,18 +4269,21 @@
         <v>1076.4411</v>
       </c>
       <c r="G102" t="n">
+        <v>608.0666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>598.9333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,18 +4307,21 @@
         <v>5</v>
       </c>
       <c r="G103" t="n">
+        <v>608.2666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>599.35</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,18 +4345,21 @@
         <v>118.93539151</v>
       </c>
       <c r="G104" t="n">
+        <v>608.8666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>599.7666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,18 +4383,21 @@
         <v>540.46</v>
       </c>
       <c r="G105" t="n">
+        <v>609.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>600.1833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,18 +4421,21 @@
         <v>1537.3314</v>
       </c>
       <c r="G106" t="n">
+        <v>609.4666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>600.6</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,18 +4459,21 @@
         <v>528.2252</v>
       </c>
       <c r="G107" t="n">
+        <v>609.5333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>601.0333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,18 +4497,21 @@
         <v>241.9999</v>
       </c>
       <c r="G108" t="n">
+        <v>610.5333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>601.4166666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,18 +4535,21 @@
         <v>153.6043</v>
       </c>
       <c r="G109" t="n">
+        <v>611</v>
+      </c>
+      <c r="H109" t="n">
         <v>601.8166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,18 +4573,21 @@
         <v>330.5</v>
       </c>
       <c r="G110" t="n">
+        <v>611.5333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>602.2666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,18 +4611,21 @@
         <v>66.17700000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>612</v>
+      </c>
+      <c r="H111" t="n">
         <v>602.6666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,18 +4649,21 @@
         <v>85.0814</v>
       </c>
       <c r="G112" t="n">
+        <v>612.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>603.1666666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,18 +4687,21 @@
         <v>17.7713</v>
       </c>
       <c r="G113" t="n">
+        <v>612.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>603.6666666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,18 +4725,21 @@
         <v>1084.7241</v>
       </c>
       <c r="G114" t="n">
+        <v>614.2</v>
+      </c>
+      <c r="H114" t="n">
         <v>604.2833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,18 +4763,21 @@
         <v>384.6125</v>
       </c>
       <c r="G115" t="n">
+        <v>615.5333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>604.95</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,18 +4801,21 @@
         <v>40</v>
       </c>
       <c r="G116" t="n">
+        <v>616.8666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>605.5</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,18 +4839,21 @@
         <v>184.4777</v>
       </c>
       <c r="G117" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>606.15</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +4877,21 @@
         <v>237.644</v>
       </c>
       <c r="G118" t="n">
+        <v>618.5333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>606.6833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,18 +4915,401 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
+        <v>619.4</v>
+      </c>
+      <c r="H119" t="n">
         <v>607.3333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>624</v>
+      </c>
+      <c r="C120" t="n">
+        <v>620</v>
+      </c>
+      <c r="D120" t="n">
+        <v>624</v>
+      </c>
+      <c r="E120" t="n">
+        <v>620</v>
+      </c>
+      <c r="F120" t="n">
+        <v>829.6878</v>
+      </c>
+      <c r="G120" t="n">
+        <v>619.8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>607.8833333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>626</v>
+      </c>
+      <c r="C121" t="n">
+        <v>626</v>
+      </c>
+      <c r="D121" t="n">
+        <v>626</v>
+      </c>
+      <c r="E121" t="n">
+        <v>626</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>620.5333333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>608.5166666666667</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>626</v>
+      </c>
+      <c r="C122" t="n">
+        <v>629</v>
+      </c>
+      <c r="D122" t="n">
+        <v>629</v>
+      </c>
+      <c r="E122" t="n">
+        <v>626</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1063.76993656</v>
+      </c>
+      <c r="G122" t="n">
+        <v>621.4666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>609.1666666666666</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>629</v>
+      </c>
+      <c r="C123" t="n">
+        <v>629</v>
+      </c>
+      <c r="D123" t="n">
+        <v>629</v>
+      </c>
+      <c r="E123" t="n">
+        <v>622</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1343.6104</v>
+      </c>
+      <c r="G123" t="n">
+        <v>622.3333333333334</v>
+      </c>
+      <c r="H123" t="n">
+        <v>609.8166666666667</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>629</v>
+      </c>
+      <c r="C124" t="n">
+        <v>629</v>
+      </c>
+      <c r="D124" t="n">
+        <v>629</v>
+      </c>
+      <c r="E124" t="n">
+        <v>629</v>
+      </c>
+      <c r="F124" t="n">
+        <v>33.1038</v>
+      </c>
+      <c r="G124" t="n">
+        <v>623.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>610.45</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>622</v>
+      </c>
+      <c r="C125" t="n">
+        <v>629</v>
+      </c>
+      <c r="D125" t="n">
+        <v>629</v>
+      </c>
+      <c r="E125" t="n">
+        <v>622</v>
+      </c>
+      <c r="F125" t="n">
+        <v>212.153</v>
+      </c>
+      <c r="G125" t="n">
+        <v>624.1333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>611.05</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>621</v>
+      </c>
+      <c r="C126" t="n">
+        <v>621</v>
+      </c>
+      <c r="D126" t="n">
+        <v>621</v>
+      </c>
+      <c r="E126" t="n">
+        <v>621</v>
+      </c>
+      <c r="F126" t="n">
+        <v>427</v>
+      </c>
+      <c r="G126" t="n">
+        <v>624.4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>625</v>
+      </c>
+      <c r="C127" t="n">
+        <v>625</v>
+      </c>
+      <c r="D127" t="n">
+        <v>625</v>
+      </c>
+      <c r="E127" t="n">
+        <v>625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>624.8666666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>612.0833333333334</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>626</v>
+      </c>
+      <c r="C128" t="n">
+        <v>626</v>
+      </c>
+      <c r="D128" t="n">
+        <v>626</v>
+      </c>
+      <c r="E128" t="n">
+        <v>626</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G128" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>612.55</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>624</v>
+      </c>
+      <c r="C129" t="n">
+        <v>618</v>
+      </c>
+      <c r="D129" t="n">
+        <v>624</v>
+      </c>
+      <c r="E129" t="n">
+        <v>618</v>
+      </c>
+      <c r="F129" t="n">
+        <v>615</v>
+      </c>
+      <c r="G129" t="n">
+        <v>624.9333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>612.8833333333333</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E2" t="n">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="F2" t="n">
-        <v>72</v>
+        <v>0.778</v>
       </c>
       <c r="G2" t="n">
-        <v>590.5333333333333</v>
+        <v>-22285.74152373</v>
       </c>
       <c r="H2" t="n">
-        <v>593.65</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C3" t="n">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E3" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="F3" t="n">
-        <v>1588.6934</v>
+        <v>542</v>
       </c>
       <c r="G3" t="n">
-        <v>590.2</v>
+        <v>-21743.74152373</v>
       </c>
       <c r="H3" t="n">
-        <v>593.55</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C4" t="n">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D4" t="n">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="E4" t="n">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>590</v>
+        <v>-21742.74152373</v>
       </c>
       <c r="H4" t="n">
-        <v>593.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D5" t="n">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E5" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.83</v>
+        <v>1638.6827</v>
       </c>
       <c r="G5" t="n">
-        <v>590.8666666666667</v>
+        <v>-21742.74152373</v>
       </c>
       <c r="H5" t="n">
-        <v>593.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F6" t="n">
-        <v>63.6638</v>
+        <v>439.0272</v>
       </c>
       <c r="G6" t="n">
-        <v>590.8</v>
+        <v>-22181.76872373001</v>
       </c>
       <c r="H6" t="n">
-        <v>593.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C7" t="n">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D7" t="n">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E7" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F7" t="n">
-        <v>0.84</v>
+        <v>243.1182</v>
       </c>
       <c r="G7" t="n">
-        <v>591.2</v>
+        <v>-21938.65052373</v>
       </c>
       <c r="H7" t="n">
-        <v>593.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="C8" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D8" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="E8" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F8" t="n">
-        <v>62.8239</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>590.9333333333333</v>
+        <v>-21938.65052373</v>
       </c>
       <c r="H8" t="n">
-        <v>593.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C9" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E9" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.85</v>
+        <v>141.6236</v>
       </c>
       <c r="G9" t="n">
-        <v>591.1333333333333</v>
+        <v>-22080.27412373</v>
       </c>
       <c r="H9" t="n">
-        <v>593.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C10" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D10" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E10" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>592.1333333333333</v>
+        <v>-22079.27412373</v>
       </c>
       <c r="H10" t="n">
-        <v>594.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C11" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D11" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E11" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F11" t="n">
-        <v>81.355</v>
+        <v>833.7769</v>
       </c>
       <c r="G11" t="n">
-        <v>592.2</v>
+        <v>-22913.05102373</v>
       </c>
       <c r="H11" t="n">
-        <v>594.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C12" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D12" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E12" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>656</v>
       </c>
       <c r="G12" t="n">
-        <v>592.1333333333333</v>
+        <v>-22257.05102373</v>
       </c>
       <c r="H12" t="n">
-        <v>593.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C13" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D13" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E13" t="n">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>146.4539</v>
       </c>
       <c r="G13" t="n">
-        <v>592</v>
+        <v>-22110.59712373</v>
       </c>
       <c r="H13" t="n">
-        <v>593.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C14" t="n">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D14" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="E14" t="n">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F14" t="n">
-        <v>79</v>
+        <v>135.9978</v>
       </c>
       <c r="G14" t="n">
-        <v>592.1333333333333</v>
+        <v>-22246.59492373</v>
       </c>
       <c r="H14" t="n">
-        <v>593.7</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C15" t="n">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D15" t="n">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E15" t="n">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F15" t="n">
-        <v>1234.9289</v>
+        <v>452.947</v>
       </c>
       <c r="G15" t="n">
-        <v>591.8</v>
+        <v>-22246.59492373</v>
       </c>
       <c r="H15" t="n">
-        <v>593.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="C16" t="n">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="D16" t="n">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="E16" t="n">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="F16" t="n">
-        <v>14543.1128</v>
+        <v>0.9</v>
       </c>
       <c r="G16" t="n">
-        <v>591</v>
+        <v>-22245.69492373</v>
       </c>
       <c r="H16" t="n">
-        <v>593.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C17" t="n">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="D17" t="n">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E17" t="n">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="F17" t="n">
-        <v>2591</v>
+        <v>60.2</v>
       </c>
       <c r="G17" t="n">
-        <v>590.4666666666667</v>
+        <v>-22305.89492373</v>
       </c>
       <c r="H17" t="n">
-        <v>593.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C18" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D18" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E18" t="n">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="F18" t="n">
-        <v>334</v>
+        <v>5318.7347</v>
       </c>
       <c r="G18" t="n">
-        <v>590</v>
+        <v>-27624.62962373</v>
       </c>
       <c r="H18" t="n">
-        <v>593.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C19" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D19" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E19" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>1463.145</v>
       </c>
       <c r="G19" t="n">
-        <v>589.6</v>
+        <v>-27624.62962373</v>
       </c>
       <c r="H19" t="n">
-        <v>593.45</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C20" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D20" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E20" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F20" t="n">
-        <v>666</v>
+        <v>2770.8972</v>
       </c>
       <c r="G20" t="n">
-        <v>588.2</v>
+        <v>-24853.73242373001</v>
       </c>
       <c r="H20" t="n">
-        <v>593.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C21" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D21" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E21" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F21" t="n">
-        <v>10.85</v>
+        <v>3635.5308</v>
       </c>
       <c r="G21" t="n">
-        <v>587.8666666666667</v>
+        <v>-28489.26322373001</v>
       </c>
       <c r="H21" t="n">
-        <v>593.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C22" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D22" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E22" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F22" t="n">
-        <v>1609.457</v>
+        <v>1157.8654</v>
       </c>
       <c r="G22" t="n">
-        <v>587.4</v>
+        <v>-27331.39782373001</v>
       </c>
       <c r="H22" t="n">
-        <v>593.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C23" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D23" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E23" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F23" t="n">
-        <v>553.0598</v>
+        <v>186</v>
       </c>
       <c r="G23" t="n">
-        <v>587.5333333333333</v>
+        <v>-27517.39782373001</v>
       </c>
       <c r="H23" t="n">
-        <v>593.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C24" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D24" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E24" t="n">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F24" t="n">
-        <v>277.3425</v>
+        <v>1617.3564</v>
       </c>
       <c r="G24" t="n">
-        <v>587.5333333333333</v>
+        <v>-29134.75422373001</v>
       </c>
       <c r="H24" t="n">
-        <v>593.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C25" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D25" t="n">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E25" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F25" t="n">
-        <v>12678.998</v>
+        <v>2795.1342</v>
       </c>
       <c r="G25" t="n">
-        <v>586.8</v>
+        <v>-26339.62002373001</v>
       </c>
       <c r="H25" t="n">
-        <v>593.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C26" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D26" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E26" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F26" t="n">
-        <v>274.9392</v>
+        <v>1734.9279</v>
       </c>
       <c r="G26" t="n">
-        <v>586.2666666666667</v>
+        <v>-28074.54792373001</v>
       </c>
       <c r="H26" t="n">
-        <v>593.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C27" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D27" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E27" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F27" t="n">
-        <v>115.4125</v>
+        <v>985.9982</v>
       </c>
       <c r="G27" t="n">
-        <v>586.0666666666667</v>
+        <v>-27088.54972373001</v>
       </c>
       <c r="H27" t="n">
-        <v>593.2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,33 +1346,30 @@
         <v>583</v>
       </c>
       <c r="C28" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D28" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E28" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F28" t="n">
-        <v>786.5211</v>
+        <v>2221.8066</v>
       </c>
       <c r="G28" t="n">
-        <v>585.8666666666667</v>
+        <v>-29310.35632373001</v>
       </c>
       <c r="H28" t="n">
-        <v>593.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C29" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D29" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E29" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>265.4203</v>
       </c>
       <c r="G29" t="n">
-        <v>586.2666666666667</v>
+        <v>-29044.93602373001</v>
       </c>
       <c r="H29" t="n">
-        <v>592.9166666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>582</v>
+      </c>
+      <c r="K29" t="n">
+        <v>582</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1417,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C30" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D30" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E30" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1100.85</v>
       </c>
       <c r="G30" t="n">
-        <v>587.0666666666667</v>
+        <v>-27944.08602373001</v>
       </c>
       <c r="H30" t="n">
-        <v>592.9</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>588</v>
+      </c>
+      <c r="K30" t="n">
+        <v>582</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1460,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C31" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D31" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E31" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F31" t="n">
-        <v>1057.081</v>
+        <v>72</v>
       </c>
       <c r="G31" t="n">
-        <v>587.8</v>
+        <v>-27872.08602373001</v>
       </c>
       <c r="H31" t="n">
-        <v>592.75</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>589</v>
+      </c>
+      <c r="K31" t="n">
+        <v>582</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1503,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C32" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D32" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E32" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F32" t="n">
-        <v>68.40000000000001</v>
+        <v>1588.6934</v>
       </c>
       <c r="G32" t="n">
-        <v>588</v>
+        <v>-27872.08602373001</v>
       </c>
       <c r="H32" t="n">
-        <v>592.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1538,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C33" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D33" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E33" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F33" t="n">
-        <v>1463.4308</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>588.1333333333333</v>
+        <v>-27848.08602373001</v>
       </c>
       <c r="H33" t="n">
-        <v>592.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1573,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C34" t="n">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="D34" t="n">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="E34" t="n">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="F34" t="n">
-        <v>36</v>
+        <v>0.83</v>
       </c>
       <c r="G34" t="n">
-        <v>587.9333333333333</v>
+        <v>-27847.25602373001</v>
       </c>
       <c r="H34" t="n">
-        <v>591.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1608,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C35" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D35" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E35" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.86</v>
+        <v>63.6638</v>
       </c>
       <c r="G35" t="n">
-        <v>587.8666666666667</v>
+        <v>-27910.91982373</v>
       </c>
       <c r="H35" t="n">
-        <v>591.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1643,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="C36" t="n">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="D36" t="n">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="E36" t="n">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="F36" t="n">
-        <v>439.8045</v>
+        <v>0.84</v>
       </c>
       <c r="G36" t="n">
-        <v>587.0666666666667</v>
+        <v>-27910.07982373</v>
       </c>
       <c r="H36" t="n">
-        <v>591.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1678,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C37" t="n">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D37" t="n">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E37" t="n">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="F37" t="n">
-        <v>89</v>
+        <v>62.8239</v>
       </c>
       <c r="G37" t="n">
-        <v>586.4</v>
+        <v>-27972.90372373</v>
       </c>
       <c r="H37" t="n">
-        <v>590.9</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1713,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="C38" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="D38" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="E38" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F38" t="n">
-        <v>1718.0419</v>
+        <v>0.85</v>
       </c>
       <c r="G38" t="n">
-        <v>585.5333333333333</v>
+        <v>-27972.05372373001</v>
       </c>
       <c r="H38" t="n">
-        <v>590.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1748,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C39" t="n">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="D39" t="n">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="E39" t="n">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="F39" t="n">
-        <v>7.3229</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>584.6666666666666</v>
+        <v>-27971.05372373001</v>
       </c>
       <c r="H39" t="n">
-        <v>590.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1783,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C40" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D40" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E40" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>81.355</v>
       </c>
       <c r="G40" t="n">
-        <v>583.8666666666667</v>
+        <v>-28052.40872373</v>
       </c>
       <c r="H40" t="n">
-        <v>589.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1818,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C41" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D41" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E41" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F41" t="n">
-        <v>0.86</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>584.1333333333333</v>
+        <v>-28067.40872373</v>
       </c>
       <c r="H41" t="n">
-        <v>589.3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1853,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C42" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D42" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E42" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F42" t="n">
-        <v>9.742000000000001</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>583.7333333333333</v>
+        <v>-28067.40872373</v>
       </c>
       <c r="H42" t="n">
-        <v>588.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1888,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C43" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D43" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E43" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F43" t="n">
-        <v>0.86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
-        <v>584</v>
+        <v>-28146.40872373</v>
       </c>
       <c r="H43" t="n">
-        <v>588.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1923,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C44" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D44" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E44" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>1234.9289</v>
       </c>
       <c r="G44" t="n">
-        <v>583.8666666666667</v>
+        <v>-29381.33762373</v>
       </c>
       <c r="H44" t="n">
-        <v>588.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1958,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C45" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D45" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E45" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F45" t="n">
-        <v>0.85</v>
+        <v>14543.1128</v>
       </c>
       <c r="G45" t="n">
-        <v>583.4666666666667</v>
+        <v>-43924.45042373001</v>
       </c>
       <c r="H45" t="n">
-        <v>588.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1993,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C46" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D46" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E46" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F46" t="n">
-        <v>1555.7063</v>
+        <v>2591</v>
       </c>
       <c r="G46" t="n">
-        <v>583.6</v>
+        <v>-41333.45042373001</v>
       </c>
       <c r="H46" t="n">
-        <v>588.45</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2028,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C47" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D47" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E47" t="n">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G47" t="n">
-        <v>583.8666666666667</v>
+        <v>-40999.45042373001</v>
       </c>
       <c r="H47" t="n">
-        <v>588.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2063,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C48" t="n">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E48" t="n">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F48" t="n">
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>584.4</v>
+        <v>-40959.45042373001</v>
       </c>
       <c r="H48" t="n">
-        <v>588.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2098,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C49" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D49" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E49" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F49" t="n">
-        <v>203.6543</v>
+        <v>666</v>
       </c>
       <c r="G49" t="n">
-        <v>585</v>
+        <v>-40293.45042373001</v>
       </c>
       <c r="H49" t="n">
-        <v>588.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,7 +2133,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C50" t="n">
         <v>589</v>
@@ -2271,27 +2142,24 @@
         <v>589</v>
       </c>
       <c r="E50" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F50" t="n">
-        <v>1405.8731</v>
+        <v>10.85</v>
       </c>
       <c r="G50" t="n">
-        <v>585.2666666666667</v>
+        <v>-40282.60042373001</v>
       </c>
       <c r="H50" t="n">
-        <v>588.05</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,33 +2171,30 @@
         <v>589</v>
       </c>
       <c r="C51" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D51" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E51" t="n">
         <v>589</v>
       </c>
       <c r="F51" t="n">
-        <v>10.85</v>
+        <v>1609.457</v>
       </c>
       <c r="G51" t="n">
-        <v>586.3333333333334</v>
+        <v>-40282.60042373001</v>
       </c>
       <c r="H51" t="n">
-        <v>588.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,33 +2206,30 @@
         <v>588</v>
       </c>
       <c r="C52" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D52" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E52" t="n">
         <v>588</v>
       </c>
       <c r="F52" t="n">
-        <v>1974.0337</v>
+        <v>553.0598</v>
       </c>
       <c r="G52" t="n">
-        <v>586.9333333333333</v>
+        <v>-39729.54062373</v>
       </c>
       <c r="H52" t="n">
-        <v>587.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2238,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C53" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D53" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E53" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F53" t="n">
-        <v>819.5886</v>
+        <v>277.3425</v>
       </c>
       <c r="G53" t="n">
-        <v>587.4666666666667</v>
+        <v>-39729.54062373</v>
       </c>
       <c r="H53" t="n">
-        <v>587.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2273,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C54" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D54" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E54" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F54" t="n">
-        <v>22.9707</v>
+        <v>12678.998</v>
       </c>
       <c r="G54" t="n">
-        <v>588</v>
+        <v>-52408.53862373</v>
       </c>
       <c r="H54" t="n">
-        <v>587.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2308,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C55" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D55" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E55" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F55" t="n">
-        <v>206.0932</v>
+        <v>274.9392</v>
       </c>
       <c r="G55" t="n">
-        <v>588.4</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H55" t="n">
-        <v>587.8</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2343,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C56" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D56" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E56" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F56" t="n">
-        <v>0.85</v>
+        <v>115.4125</v>
       </c>
       <c r="G56" t="n">
-        <v>588.7333333333333</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H56" t="n">
-        <v>587.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2378,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C57" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D57" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E57" t="n">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F57" t="n">
-        <v>1993.6399</v>
+        <v>786.5211</v>
       </c>
       <c r="G57" t="n">
-        <v>589.3333333333334</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H57" t="n">
-        <v>587.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2413,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C58" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D58" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E58" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F58" t="n">
-        <v>137.5243</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>589.2</v>
+        <v>-52682.47782373001</v>
       </c>
       <c r="H58" t="n">
-        <v>587.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2448,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="C59" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D59" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E59" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F59" t="n">
-        <v>782.1546</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>589.1333333333333</v>
+        <v>-52681.47782373001</v>
       </c>
       <c r="H59" t="n">
-        <v>587.85</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2483,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C60" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D60" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E60" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F60" t="n">
-        <v>214.312</v>
+        <v>1057.081</v>
       </c>
       <c r="G60" t="n">
-        <v>589</v>
+        <v>-53738.55882373</v>
       </c>
       <c r="H60" t="n">
-        <v>587.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2518,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C61" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D61" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E61" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F61" t="n">
-        <v>0.85</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>588.8666666666667</v>
+        <v>-53806.95882373</v>
       </c>
       <c r="H61" t="n">
-        <v>587.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,40 +2553,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C62" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D62" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E62" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F62" t="n">
-        <v>0.88</v>
+        <v>1463.4308</v>
       </c>
       <c r="G62" t="n">
-        <v>588.9333333333333</v>
+        <v>-53806.95882373</v>
       </c>
       <c r="H62" t="n">
-        <v>587.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>588</v>
-      </c>
-      <c r="L62" t="n">
-        <v>588</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,390 +2588,366 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C63" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D63" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E63" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F63" t="n">
-        <v>2807.9735</v>
+        <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>588.7333333333333</v>
+        <v>-53842.95882373</v>
       </c>
       <c r="H63" t="n">
-        <v>587.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>585</v>
+      </c>
+      <c r="C64" t="n">
+        <v>585</v>
+      </c>
+      <c r="D64" t="n">
+        <v>585</v>
+      </c>
+      <c r="E64" t="n">
+        <v>585</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-53842.09882373</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>578</v>
+      </c>
+      <c r="C65" t="n">
+        <v>577</v>
+      </c>
+      <c r="D65" t="n">
+        <v>578</v>
+      </c>
+      <c r="E65" t="n">
+        <v>577</v>
+      </c>
+      <c r="F65" t="n">
+        <v>439.8045</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-54281.90332373</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>579</v>
+      </c>
+      <c r="C66" t="n">
+        <v>579</v>
+      </c>
+      <c r="D66" t="n">
+        <v>579</v>
+      </c>
+      <c r="E66" t="n">
+        <v>579</v>
+      </c>
+      <c r="F66" t="n">
+        <v>89</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-54192.90332373</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>579</v>
+      </c>
+      <c r="C67" t="n">
+        <v>580</v>
+      </c>
+      <c r="D67" t="n">
+        <v>580</v>
+      </c>
+      <c r="E67" t="n">
+        <v>579</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1718.0419</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-52474.86142373001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>580</v>
+      </c>
+      <c r="C68" t="n">
+        <v>580</v>
+      </c>
+      <c r="D68" t="n">
+        <v>580</v>
+      </c>
+      <c r="E68" t="n">
+        <v>580</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.3229</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-52474.86142373001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>580</v>
+      </c>
+      <c r="C69" t="n">
+        <v>580</v>
+      </c>
+      <c r="D69" t="n">
+        <v>580</v>
+      </c>
+      <c r="E69" t="n">
+        <v>580</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-52474.86142373001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>588</v>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="C70" t="n">
+        <v>588</v>
+      </c>
+      <c r="D70" t="n">
+        <v>588</v>
+      </c>
+      <c r="E70" t="n">
+        <v>588</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-52474.00142373001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>580</v>
+      </c>
+      <c r="K70" t="n">
+        <v>580</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>578</v>
+      </c>
+      <c r="C71" t="n">
+        <v>578</v>
+      </c>
+      <c r="D71" t="n">
+        <v>578</v>
+      </c>
+      <c r="E71" t="n">
+        <v>578</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.742000000000001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-52483.74342373</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>580</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>591</v>
-      </c>
-      <c r="C64" t="n">
-        <v>591</v>
-      </c>
-      <c r="D64" t="n">
-        <v>591</v>
-      </c>
-      <c r="E64" t="n">
-        <v>591</v>
-      </c>
-      <c r="F64" t="n">
-        <v>275.2036</v>
-      </c>
-      <c r="G64" t="n">
-        <v>588.7333333333333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>587.8166666666667</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>588</v>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="C72" t="n">
+        <v>588</v>
+      </c>
+      <c r="D72" t="n">
+        <v>588</v>
+      </c>
+      <c r="E72" t="n">
+        <v>588</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-52482.88342373</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>578</v>
+      </c>
+      <c r="K72" t="n">
+        <v>580</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>593</v>
-      </c>
-      <c r="C65" t="n">
-        <v>593</v>
-      </c>
-      <c r="D65" t="n">
-        <v>593</v>
-      </c>
-      <c r="E65" t="n">
-        <v>593</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G65" t="n">
-        <v>589</v>
-      </c>
-      <c r="H65" t="n">
-        <v>587.5833333333334</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>594</v>
-      </c>
-      <c r="C66" t="n">
-        <v>594</v>
-      </c>
-      <c r="D66" t="n">
-        <v>594</v>
-      </c>
-      <c r="E66" t="n">
-        <v>594</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G66" t="n">
-        <v>589.0666666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>587.5833333333334</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>594</v>
-      </c>
-      <c r="C67" t="n">
-        <v>590</v>
-      </c>
-      <c r="D67" t="n">
-        <v>598</v>
-      </c>
-      <c r="E67" t="n">
-        <v>590</v>
-      </c>
-      <c r="F67" t="n">
-        <v>7555.5099</v>
-      </c>
-      <c r="G67" t="n">
-        <v>589.2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>587.4833333333333</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>598</v>
-      </c>
-      <c r="C68" t="n">
-        <v>598</v>
-      </c>
-      <c r="D68" t="n">
-        <v>598</v>
-      </c>
-      <c r="E68" t="n">
-        <v>598</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G68" t="n">
-        <v>589.8666666666667</v>
-      </c>
-      <c r="H68" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>598</v>
-      </c>
-      <c r="C69" t="n">
-        <v>598</v>
-      </c>
-      <c r="D69" t="n">
-        <v>599</v>
-      </c>
-      <c r="E69" t="n">
-        <v>598</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1705.8011</v>
-      </c>
-      <c r="G69" t="n">
-        <v>590.5333333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>587.6833333333333</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>598</v>
-      </c>
-      <c r="C70" t="n">
-        <v>600</v>
-      </c>
-      <c r="D70" t="n">
-        <v>600</v>
-      </c>
-      <c r="E70" t="n">
-        <v>591</v>
-      </c>
-      <c r="F70" t="n">
-        <v>351.84</v>
-      </c>
-      <c r="G70" t="n">
-        <v>591.4666666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>587.6333333333333</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>600</v>
-      </c>
-      <c r="C71" t="n">
-        <v>591</v>
-      </c>
-      <c r="D71" t="n">
-        <v>600</v>
-      </c>
-      <c r="E71" t="n">
-        <v>591</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1597.5051</v>
-      </c>
-      <c r="G71" t="n">
-        <v>591.3333333333334</v>
-      </c>
-      <c r="H71" t="n">
-        <v>587.6166666666667</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>603</v>
-      </c>
-      <c r="C72" t="n">
-        <v>603</v>
-      </c>
-      <c r="D72" t="n">
-        <v>603</v>
-      </c>
-      <c r="E72" t="n">
-        <v>603</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G72" t="n">
-        <v>592.4</v>
-      </c>
-      <c r="H72" t="n">
-        <v>587.8833333333333</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,36 +2956,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="C73" t="n">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D73" t="n">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="E73" t="n">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="F73" t="n">
-        <v>1688.0793</v>
+        <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>593.4666666666667</v>
+        <v>-52482.88342373</v>
       </c>
       <c r="H73" t="n">
-        <v>588.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="K73" t="n">
+        <v>588</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,36 +2995,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C74" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D74" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E74" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F74" t="n">
-        <v>2856.3029</v>
+        <v>0.85</v>
       </c>
       <c r="G74" t="n">
-        <v>594.5333333333333</v>
+        <v>-52482.03342373</v>
       </c>
       <c r="H74" t="n">
-        <v>588.45</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>588</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,36 +3036,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C75" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D75" t="n">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="E75" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F75" t="n">
-        <v>645.3156</v>
+        <v>1555.7063</v>
       </c>
       <c r="G75" t="n">
-        <v>595.4</v>
+        <v>-50926.32712373001</v>
       </c>
       <c r="H75" t="n">
-        <v>588.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>588</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,36 +3077,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C76" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="D76" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="E76" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="F76" t="n">
-        <v>0.84</v>
+        <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>596.4666666666667</v>
+        <v>-50966.32712373001</v>
       </c>
       <c r="H76" t="n">
-        <v>589.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,36 +3112,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C77" t="n">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D77" t="n">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E77" t="n">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F77" t="n">
-        <v>0.83</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>597.4666666666667</v>
+        <v>-50926.32712373001</v>
       </c>
       <c r="H77" t="n">
-        <v>589.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,36 +3147,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="C78" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D78" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="E78" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F78" t="n">
-        <v>870.1761</v>
+        <v>203.6543</v>
       </c>
       <c r="G78" t="n">
-        <v>598.4666666666667</v>
+        <v>-51129.98142373001</v>
       </c>
       <c r="H78" t="n">
-        <v>589.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,36 +3182,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C79" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D79" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="E79" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1405.8731</v>
       </c>
       <c r="G79" t="n">
-        <v>599.4666666666667</v>
+        <v>-52535.85452373001</v>
       </c>
       <c r="H79" t="n">
-        <v>590.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,36 +3217,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C80" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D80" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E80" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>10.85</v>
       </c>
       <c r="G80" t="n">
-        <v>600.3333333333334</v>
+        <v>-52525.00452373001</v>
       </c>
       <c r="H80" t="n">
-        <v>590.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,36 +3252,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C81" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D81" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="E81" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F81" t="n">
-        <v>487.9254</v>
+        <v>1974.0337</v>
       </c>
       <c r="G81" t="n">
-        <v>601.1333333333333</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H81" t="n">
-        <v>590.9</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,36 +3287,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="C82" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="D82" t="n">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="E82" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="F82" t="n">
-        <v>1.82</v>
+        <v>819.5886</v>
       </c>
       <c r="G82" t="n">
-        <v>602.7333333333333</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H82" t="n">
-        <v>591.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,36 +3322,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C83" t="n">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D83" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="E83" t="n">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F83" t="n">
-        <v>4.82</v>
+        <v>22.9707</v>
       </c>
       <c r="G83" t="n">
-        <v>602.8</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H83" t="n">
-        <v>591.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,36 +3357,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="C84" t="n">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="D84" t="n">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="E84" t="n">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="F84" t="n">
-        <v>2.64</v>
+        <v>206.0932</v>
       </c>
       <c r="G84" t="n">
-        <v>603.8666666666667</v>
+        <v>-54705.13142373001</v>
       </c>
       <c r="H84" t="n">
-        <v>591.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,36 +3392,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C85" t="n">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="D85" t="n">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="E85" t="n">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="F85" t="n">
-        <v>77.63460000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G85" t="n">
-        <v>604.8</v>
+        <v>-54704.28142373001</v>
       </c>
       <c r="H85" t="n">
-        <v>592.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,36 +3427,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C86" t="n">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D86" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E86" t="n">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F86" t="n">
-        <v>83.193</v>
+        <v>1993.6399</v>
       </c>
       <c r="G86" t="n">
-        <v>605.6</v>
+        <v>-56697.92132373001</v>
       </c>
       <c r="H86" t="n">
-        <v>592.45</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,36 +3462,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C87" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D87" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="E87" t="n">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F87" t="n">
-        <v>831.5014</v>
+        <v>137.5243</v>
       </c>
       <c r="G87" t="n">
-        <v>605.9333333333333</v>
+        <v>-56835.44562373001</v>
       </c>
       <c r="H87" t="n">
-        <v>592.85</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,36 +3497,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C88" t="n">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="D88" t="n">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="E88" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="F88" t="n">
-        <v>0.82</v>
+        <v>782.1546</v>
       </c>
       <c r="G88" t="n">
-        <v>606.4666666666667</v>
+        <v>-56053.29102373001</v>
       </c>
       <c r="H88" t="n">
-        <v>593.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,36 +3532,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C89" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="D89" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="E89" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="F89" t="n">
-        <v>82.193</v>
+        <v>214.312</v>
       </c>
       <c r="G89" t="n">
-        <v>606.5333333333333</v>
+        <v>-56053.29102373001</v>
       </c>
       <c r="H89" t="n">
-        <v>593.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,36 +3567,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="C90" t="n">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="D90" t="n">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="E90" t="n">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="F90" t="n">
-        <v>90.9999</v>
+        <v>0.85</v>
       </c>
       <c r="G90" t="n">
-        <v>607.2</v>
+        <v>-56052.44102373001</v>
       </c>
       <c r="H90" t="n">
-        <v>593.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,36 +3602,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C91" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D91" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="E91" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F91" t="n">
-        <v>409</v>
+        <v>0.88</v>
       </c>
       <c r="G91" t="n">
-        <v>607.6</v>
+        <v>-56051.56102373001</v>
       </c>
       <c r="H91" t="n">
-        <v>594.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +3637,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C92" t="n">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D92" t="n">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="E92" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F92" t="n">
-        <v>0.82</v>
+        <v>2807.9735</v>
       </c>
       <c r="G92" t="n">
-        <v>608.2</v>
+        <v>-56051.56102373001</v>
       </c>
       <c r="H92" t="n">
-        <v>594.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +3672,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C93" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D93" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="E93" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F93" t="n">
-        <v>302.8777</v>
+        <v>275.2036</v>
       </c>
       <c r="G93" t="n">
-        <v>607.9333333333333</v>
+        <v>-55776.35742373001</v>
       </c>
       <c r="H93" t="n">
-        <v>594.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +3707,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C94" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D94" t="n">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E94" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="F94" t="n">
-        <v>753</v>
+        <v>0.85</v>
       </c>
       <c r="G94" t="n">
-        <v>608.0666666666667</v>
+        <v>-55775.50742373001</v>
       </c>
       <c r="H94" t="n">
-        <v>595.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +3742,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C95" t="n">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D95" t="n">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E95" t="n">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="F95" t="n">
-        <v>66.14879999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G95" t="n">
-        <v>608.2</v>
+        <v>-55774.65742373002</v>
       </c>
       <c r="H95" t="n">
-        <v>595.7</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +3777,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C96" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D96" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E96" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F96" t="n">
-        <v>499.9999</v>
+        <v>7555.5099</v>
       </c>
       <c r="G96" t="n">
-        <v>608.4666666666667</v>
+        <v>-63330.16732373001</v>
       </c>
       <c r="H96" t="n">
-        <v>596.25</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3812,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C97" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D97" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E97" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F97" t="n">
-        <v>770.3203999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G97" t="n">
-        <v>608.3333333333334</v>
+        <v>-63329.32732373002</v>
       </c>
       <c r="H97" t="n">
-        <v>596.8</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3847,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C98" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D98" t="n">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="E98" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F98" t="n">
-        <v>1.921</v>
+        <v>1705.8011</v>
       </c>
       <c r="G98" t="n">
-        <v>609.2</v>
+        <v>-63329.32732373002</v>
       </c>
       <c r="H98" t="n">
-        <v>597.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3882,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C99" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D99" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E99" t="n">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="F99" t="n">
-        <v>105</v>
+        <v>351.84</v>
       </c>
       <c r="G99" t="n">
-        <v>608.5333333333333</v>
+        <v>-62977.48732373002</v>
       </c>
       <c r="H99" t="n">
-        <v>597.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3917,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C100" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="D100" t="n">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E100" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="F100" t="n">
-        <v>317.1447</v>
+        <v>1597.5051</v>
       </c>
       <c r="G100" t="n">
-        <v>608</v>
+        <v>-64574.99242373002</v>
       </c>
       <c r="H100" t="n">
-        <v>598.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +3952,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C101" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D101" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E101" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F101" t="n">
-        <v>521</v>
+        <v>0.83</v>
       </c>
       <c r="G101" t="n">
-        <v>608.2</v>
+        <v>-64574.16242373002</v>
       </c>
       <c r="H101" t="n">
-        <v>598.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +3987,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C102" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D102" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E102" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F102" t="n">
-        <v>1076.4411</v>
+        <v>1688.0793</v>
       </c>
       <c r="G102" t="n">
-        <v>608.0666666666667</v>
+        <v>-66262.24172373003</v>
       </c>
       <c r="H102" t="n">
-        <v>598.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +4022,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C103" t="n">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D103" t="n">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E103" t="n">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>2856.3029</v>
       </c>
       <c r="G103" t="n">
-        <v>608.2666666666667</v>
+        <v>-63405.93882373002</v>
       </c>
       <c r="H103" t="n">
-        <v>599.35</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4057,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C104" t="n">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D104" t="n">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="E104" t="n">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F104" t="n">
-        <v>118.93539151</v>
+        <v>645.3156</v>
       </c>
       <c r="G104" t="n">
-        <v>608.8666666666667</v>
+        <v>-64051.25442373002</v>
       </c>
       <c r="H104" t="n">
-        <v>599.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4092,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C105" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D105" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E105" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F105" t="n">
-        <v>540.46</v>
+        <v>0.84</v>
       </c>
       <c r="G105" t="n">
-        <v>609.1333333333333</v>
+        <v>-64050.41442373003</v>
       </c>
       <c r="H105" t="n">
-        <v>600.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4127,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C106" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D106" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E106" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F106" t="n">
-        <v>1537.3314</v>
+        <v>0.83</v>
       </c>
       <c r="G106" t="n">
-        <v>609.4666666666667</v>
+        <v>-64049.58442373003</v>
       </c>
       <c r="H106" t="n">
-        <v>600.6</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4162,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C107" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D107" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E107" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F107" t="n">
-        <v>528.2252</v>
+        <v>870.1761</v>
       </c>
       <c r="G107" t="n">
-        <v>609.5333333333333</v>
+        <v>-64049.58442373003</v>
       </c>
       <c r="H107" t="n">
-        <v>601.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4197,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C108" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D108" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E108" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F108" t="n">
-        <v>241.9999</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>610.5333333333333</v>
+        <v>-64047.58442373003</v>
       </c>
       <c r="H108" t="n">
-        <v>601.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4232,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C109" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D109" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E109" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F109" t="n">
-        <v>153.6043</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
-        <v>611</v>
+        <v>-64047.58442373003</v>
       </c>
       <c r="H109" t="n">
-        <v>601.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4267,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C110" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D110" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E110" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F110" t="n">
-        <v>330.5</v>
+        <v>487.9254</v>
       </c>
       <c r="G110" t="n">
-        <v>611.5333333333333</v>
+        <v>-64047.58442373003</v>
       </c>
       <c r="H110" t="n">
-        <v>602.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4302,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C111" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D111" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E111" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F111" t="n">
-        <v>66.17700000000001</v>
+        <v>1.82</v>
       </c>
       <c r="G111" t="n">
-        <v>612</v>
+        <v>-64045.76442373003</v>
       </c>
       <c r="H111" t="n">
-        <v>602.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4337,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C112" t="n">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="D112" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E112" t="n">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F112" t="n">
-        <v>85.0814</v>
+        <v>4.82</v>
       </c>
       <c r="G112" t="n">
-        <v>612.4</v>
+        <v>-64050.58442373003</v>
       </c>
       <c r="H112" t="n">
-        <v>603.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4372,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C113" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D113" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E113" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="F113" t="n">
-        <v>17.7713</v>
+        <v>2.64</v>
       </c>
       <c r="G113" t="n">
-        <v>612.8</v>
+        <v>-64047.94442373003</v>
       </c>
       <c r="H113" t="n">
-        <v>603.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4407,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C114" t="n">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D114" t="n">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E114" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F114" t="n">
-        <v>1084.7241</v>
+        <v>77.63460000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>614.2</v>
+        <v>-64047.94442373003</v>
       </c>
       <c r="H114" t="n">
-        <v>604.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4442,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="C115" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="D115" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="E115" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F115" t="n">
-        <v>384.6125</v>
+        <v>83.193</v>
       </c>
       <c r="G115" t="n">
-        <v>615.5333333333333</v>
+        <v>-64131.13742373003</v>
       </c>
       <c r="H115" t="n">
-        <v>604.95</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,36 +4477,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="C116" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="D116" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="E116" t="n">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>831.5014</v>
       </c>
       <c r="G116" t="n">
-        <v>616.8666666666667</v>
+        <v>-63299.63602373003</v>
       </c>
       <c r="H116" t="n">
-        <v>605.5</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,36 +4512,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C117" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D117" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E117" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F117" t="n">
-        <v>184.4777</v>
+        <v>0.82</v>
       </c>
       <c r="G117" t="n">
-        <v>618.2</v>
+        <v>-63298.81602373003</v>
       </c>
       <c r="H117" t="n">
-        <v>606.15</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,36 +4547,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="C118" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="D118" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="E118" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="F118" t="n">
-        <v>237.644</v>
+        <v>82.193</v>
       </c>
       <c r="G118" t="n">
-        <v>618.5333333333333</v>
+        <v>-63381.00902373002</v>
       </c>
       <c r="H118" t="n">
-        <v>606.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,36 +4582,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C119" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D119" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E119" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>90.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>619.4</v>
+        <v>-63290.00912373002</v>
       </c>
       <c r="H119" t="n">
-        <v>607.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,36 +4617,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="C120" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D120" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E120" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F120" t="n">
-        <v>829.6878</v>
+        <v>409</v>
       </c>
       <c r="G120" t="n">
-        <v>619.8</v>
+        <v>-63290.00912373002</v>
       </c>
       <c r="H120" t="n">
-        <v>607.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,36 +4652,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C121" t="n">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D121" t="n">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E121" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="G121" t="n">
-        <v>620.5333333333333</v>
+        <v>-63289.18912373002</v>
       </c>
       <c r="H121" t="n">
-        <v>608.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,36 +4687,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C122" t="n">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="D122" t="n">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="E122" t="n">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="F122" t="n">
-        <v>1063.76993656</v>
+        <v>302.8777</v>
       </c>
       <c r="G122" t="n">
-        <v>621.4666666666667</v>
+        <v>-63592.06682373002</v>
       </c>
       <c r="H122" t="n">
-        <v>609.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,36 +4722,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C123" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D123" t="n">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E123" t="n">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F123" t="n">
-        <v>1343.6104</v>
+        <v>753</v>
       </c>
       <c r="G123" t="n">
-        <v>622.3333333333334</v>
+        <v>-62839.06682373002</v>
       </c>
       <c r="H123" t="n">
-        <v>609.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,36 +4757,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C124" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D124" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="E124" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="F124" t="n">
-        <v>33.1038</v>
+        <v>66.14879999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>623.2666666666667</v>
+        <v>-62839.06682373002</v>
       </c>
       <c r="H124" t="n">
-        <v>610.45</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,36 +4792,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C125" t="n">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="D125" t="n">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="E125" t="n">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F125" t="n">
-        <v>212.153</v>
+        <v>499.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>624.1333333333333</v>
+        <v>-62339.06692373002</v>
       </c>
       <c r="H125" t="n">
-        <v>611.05</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,36 +4827,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C126" t="n">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D126" t="n">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E126" t="n">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F126" t="n">
-        <v>427</v>
+        <v>770.3203999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>624.4</v>
+        <v>-61568.74652373002</v>
       </c>
       <c r="H126" t="n">
-        <v>611.5</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,36 +4862,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C127" t="n">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D127" t="n">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E127" t="n">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>1.921</v>
       </c>
       <c r="G127" t="n">
-        <v>624.8666666666667</v>
+        <v>-61568.74652373002</v>
       </c>
       <c r="H127" t="n">
-        <v>612.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,36 +4897,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="C128" t="n">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="D128" t="n">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="E128" t="n">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8</v>
+        <v>105</v>
       </c>
       <c r="G128" t="n">
-        <v>625.4</v>
+        <v>-61673.74652373002</v>
       </c>
       <c r="H128" t="n">
-        <v>612.55</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +4932,1150 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>606</v>
+      </c>
+      <c r="C129" t="n">
+        <v>606</v>
+      </c>
+      <c r="D129" t="n">
+        <v>606</v>
+      </c>
+      <c r="E129" t="n">
+        <v>606</v>
+      </c>
+      <c r="F129" t="n">
+        <v>317.1447</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>604</v>
+      </c>
+      <c r="K129" t="n">
+        <v>604</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>606</v>
+      </c>
+      <c r="C130" t="n">
+        <v>606</v>
+      </c>
+      <c r="D130" t="n">
+        <v>606</v>
+      </c>
+      <c r="E130" t="n">
+        <v>606</v>
+      </c>
+      <c r="F130" t="n">
+        <v>521</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>604</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>606</v>
+      </c>
+      <c r="C131" t="n">
+        <v>606</v>
+      </c>
+      <c r="D131" t="n">
+        <v>606</v>
+      </c>
+      <c r="E131" t="n">
+        <v>606</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1076.4411</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>606</v>
+      </c>
+      <c r="K131" t="n">
+        <v>604</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>613</v>
+      </c>
+      <c r="C132" t="n">
+        <v>613</v>
+      </c>
+      <c r="D132" t="n">
+        <v>613</v>
+      </c>
+      <c r="E132" t="n">
+        <v>613</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-61351.60182373002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>612</v>
+      </c>
+      <c r="C133" t="n">
+        <v>613</v>
+      </c>
+      <c r="D133" t="n">
+        <v>613</v>
+      </c>
+      <c r="E133" t="n">
+        <v>612</v>
+      </c>
+      <c r="F133" t="n">
+        <v>118.93539151</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-61351.60182373002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>613</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>614</v>
+      </c>
+      <c r="C134" t="n">
+        <v>614</v>
+      </c>
+      <c r="D134" t="n">
+        <v>614</v>
+      </c>
+      <c r="E134" t="n">
+        <v>614</v>
+      </c>
+      <c r="F134" t="n">
+        <v>540.46</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-60811.14182373002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>613</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>615</v>
+      </c>
+      <c r="C135" t="n">
+        <v>615</v>
+      </c>
+      <c r="D135" t="n">
+        <v>615</v>
+      </c>
+      <c r="E135" t="n">
+        <v>615</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1537.3314</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-59273.81042373002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>614</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>615</v>
+      </c>
+      <c r="C136" t="n">
+        <v>615</v>
+      </c>
+      <c r="D136" t="n">
+        <v>615</v>
+      </c>
+      <c r="E136" t="n">
+        <v>615</v>
+      </c>
+      <c r="F136" t="n">
+        <v>528.2252</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-59273.81042373002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>615</v>
+      </c>
+      <c r="C137" t="n">
+        <v>616</v>
+      </c>
+      <c r="D137" t="n">
+        <v>616</v>
+      </c>
+      <c r="E137" t="n">
+        <v>615</v>
+      </c>
+      <c r="F137" t="n">
+        <v>241.9999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-59031.81052373002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>615</v>
+      </c>
+      <c r="C138" t="n">
+        <v>615</v>
+      </c>
+      <c r="D138" t="n">
+        <v>615</v>
+      </c>
+      <c r="E138" t="n">
+        <v>615</v>
+      </c>
+      <c r="F138" t="n">
+        <v>153.6043</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-59185.41482373002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>615</v>
+      </c>
+      <c r="C139" t="n">
+        <v>616</v>
+      </c>
+      <c r="D139" t="n">
+        <v>616</v>
+      </c>
+      <c r="E139" t="n">
+        <v>615</v>
+      </c>
+      <c r="F139" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-58854.91482373002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>617</v>
+      </c>
+      <c r="C140" t="n">
+        <v>617</v>
+      </c>
+      <c r="D140" t="n">
+        <v>617</v>
+      </c>
+      <c r="E140" t="n">
+        <v>617</v>
+      </c>
+      <c r="F140" t="n">
+        <v>66.17700000000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-58788.73782373001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>617</v>
+      </c>
+      <c r="C141" t="n">
+        <v>618</v>
+      </c>
+      <c r="D141" t="n">
+        <v>618</v>
+      </c>
+      <c r="E141" t="n">
+        <v>617</v>
+      </c>
+      <c r="F141" t="n">
+        <v>85.0814</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-58703.65642373001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>618</v>
+      </c>
+      <c r="C142" t="n">
+        <v>618</v>
+      </c>
+      <c r="D142" t="n">
+        <v>618</v>
+      </c>
+      <c r="E142" t="n">
+        <v>618</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17.7713</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-58703.65642373001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>618</v>
+      </c>
+      <c r="C143" t="n">
+        <v>625</v>
+      </c>
+      <c r="D143" t="n">
+        <v>625</v>
+      </c>
+      <c r="E143" t="n">
+        <v>618</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1084.7241</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-57618.93232373001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>626</v>
+      </c>
+      <c r="C144" t="n">
+        <v>626</v>
+      </c>
+      <c r="D144" t="n">
+        <v>626</v>
+      </c>
+      <c r="E144" t="n">
+        <v>626</v>
+      </c>
+      <c r="F144" t="n">
+        <v>384.6125</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>626</v>
+      </c>
+      <c r="C145" t="n">
+        <v>626</v>
+      </c>
+      <c r="D145" t="n">
+        <v>626</v>
+      </c>
+      <c r="E145" t="n">
+        <v>626</v>
+      </c>
+      <c r="F145" t="n">
+        <v>40</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>626</v>
+      </c>
+      <c r="C146" t="n">
+        <v>626</v>
+      </c>
+      <c r="D146" t="n">
+        <v>626</v>
+      </c>
+      <c r="E146" t="n">
+        <v>626</v>
+      </c>
+      <c r="F146" t="n">
+        <v>184.4777</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>618</v>
+      </c>
+      <c r="C147" t="n">
+        <v>618</v>
+      </c>
+      <c r="D147" t="n">
+        <v>618</v>
+      </c>
+      <c r="E147" t="n">
+        <v>618</v>
+      </c>
+      <c r="F147" t="n">
+        <v>237.644</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-57471.96382373001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>626</v>
+      </c>
+      <c r="C148" t="n">
+        <v>626</v>
+      </c>
+      <c r="D148" t="n">
+        <v>626</v>
+      </c>
+      <c r="E148" t="n">
+        <v>626</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-57470.96382373001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>624</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C149" t="n">
+        <v>620</v>
+      </c>
+      <c r="D149" t="n">
+        <v>624</v>
+      </c>
+      <c r="E149" t="n">
+        <v>620</v>
+      </c>
+      <c r="F149" t="n">
+        <v>829.6878</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-58300.65162373001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>626</v>
+      </c>
+      <c r="C150" t="n">
+        <v>626</v>
+      </c>
+      <c r="D150" t="n">
+        <v>626</v>
+      </c>
+      <c r="E150" t="n">
+        <v>626</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-58299.85162373001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>626</v>
+      </c>
+      <c r="C151" t="n">
+        <v>629</v>
+      </c>
+      <c r="D151" t="n">
+        <v>629</v>
+      </c>
+      <c r="E151" t="n">
+        <v>626</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1063.76993656</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>629</v>
+      </c>
+      <c r="C152" t="n">
+        <v>629</v>
+      </c>
+      <c r="D152" t="n">
+        <v>629</v>
+      </c>
+      <c r="E152" t="n">
+        <v>622</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1343.6104</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>629</v>
+      </c>
+      <c r="C153" t="n">
+        <v>629</v>
+      </c>
+      <c r="D153" t="n">
+        <v>629</v>
+      </c>
+      <c r="E153" t="n">
+        <v>629</v>
+      </c>
+      <c r="F153" t="n">
+        <v>33.1038</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>622</v>
+      </c>
+      <c r="C154" t="n">
+        <v>629</v>
+      </c>
+      <c r="D154" t="n">
+        <v>629</v>
+      </c>
+      <c r="E154" t="n">
+        <v>622</v>
+      </c>
+      <c r="F154" t="n">
+        <v>212.153</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>621</v>
+      </c>
+      <c r="C155" t="n">
+        <v>621</v>
+      </c>
+      <c r="D155" t="n">
+        <v>621</v>
+      </c>
+      <c r="E155" t="n">
+        <v>621</v>
+      </c>
+      <c r="F155" t="n">
+        <v>427</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-57663.08168717001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>625</v>
+      </c>
+      <c r="C156" t="n">
+        <v>625</v>
+      </c>
+      <c r="D156" t="n">
+        <v>625</v>
+      </c>
+      <c r="E156" t="n">
+        <v>625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-57662.08168717001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>626</v>
+      </c>
+      <c r="C157" t="n">
+        <v>626</v>
+      </c>
+      <c r="D157" t="n">
+        <v>626</v>
+      </c>
+      <c r="E157" t="n">
+        <v>626</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-57661.28168717001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>624</v>
+      </c>
+      <c r="C158" t="n">
         <v>618</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D158" t="n">
         <v>624</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E158" t="n">
         <v>618</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F158" t="n">
         <v>615</v>
       </c>
-      <c r="G129" t="n">
-        <v>624.9333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>612.8833333333333</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="G158" t="n">
+        <v>-58276.28168717001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="D2" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E2" t="n">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.778</v>
+        <v>1234.9289</v>
       </c>
       <c r="G2" t="n">
-        <v>-22285.74152373</v>
+        <v>583.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C3" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="D3" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="E3" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="F3" t="n">
-        <v>542</v>
+        <v>14543.1128</v>
       </c>
       <c r="G3" t="n">
-        <v>-21743.74152373</v>
+        <v>580</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="C4" t="n">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D4" t="n">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="E4" t="n">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2591</v>
       </c>
       <c r="G4" t="n">
-        <v>-21742.74152373</v>
+        <v>579.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C5" t="n">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D5" t="n">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="E5" t="n">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="F5" t="n">
-        <v>1638.6827</v>
+        <v>334</v>
       </c>
       <c r="G5" t="n">
-        <v>-21742.74152373</v>
+        <v>582.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,98 +575,113 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="C6" t="n">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="D6" t="n">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="E6" t="n">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F6" t="n">
-        <v>439.0272</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>-22181.76872373001</v>
+        <v>584</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>583</v>
+      </c>
+      <c r="K6" t="n">
+        <v>583</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C7" t="n">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D7" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="E7" t="n">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F7" t="n">
-        <v>243.1182</v>
+        <v>666</v>
       </c>
       <c r="G7" t="n">
-        <v>-21938.65052373</v>
+        <v>585.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>585</v>
+      </c>
+      <c r="K7" t="n">
+        <v>583</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="C8" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D8" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="E8" t="n">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>10.85</v>
       </c>
       <c r="G8" t="n">
-        <v>-21938.65052373</v>
+        <v>587.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,33 +690,40 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>583</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C9" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="D9" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="E9" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="F9" t="n">
-        <v>141.6236</v>
+        <v>1609.457</v>
       </c>
       <c r="G9" t="n">
-        <v>-22080.27412373</v>
+        <v>589</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,98 +737,113 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C10" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D10" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="E10" t="n">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>553.0598</v>
       </c>
       <c r="G10" t="n">
-        <v>-22079.27412373</v>
+        <v>591</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>589</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C11" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D11" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E11" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F11" t="n">
-        <v>833.7769</v>
+        <v>277.3425</v>
       </c>
       <c r="G11" t="n">
-        <v>-22913.05102373</v>
+        <v>593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>593</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C12" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D12" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E12" t="n">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F12" t="n">
-        <v>656</v>
+        <v>12678.998</v>
       </c>
       <c r="G12" t="n">
-        <v>-22257.05102373</v>
+        <v>592.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,32 +853,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="C13" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="D13" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E13" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="F13" t="n">
-        <v>146.4539</v>
+        <v>274.9392</v>
       </c>
       <c r="G13" t="n">
-        <v>-22110.59712373</v>
+        <v>588</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,32 +893,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="C14" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D14" t="n">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E14" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F14" t="n">
-        <v>135.9978</v>
+        <v>115.4125</v>
       </c>
       <c r="G14" t="n">
-        <v>-22246.59492373</v>
+        <v>584</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +933,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C15" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D15" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E15" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F15" t="n">
-        <v>452.947</v>
+        <v>786.5211</v>
       </c>
       <c r="G15" t="n">
-        <v>-22246.59492373</v>
+        <v>584</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +973,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C16" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D16" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E16" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-22245.69492373</v>
+        <v>587</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,10 +1013,15 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,10 +1040,10 @@
         <v>595</v>
       </c>
       <c r="F17" t="n">
-        <v>60.2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-22305.89492373</v>
+        <v>592.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1053,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C18" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D18" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E18" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F18" t="n">
-        <v>5318.7347</v>
+        <v>1057.081</v>
       </c>
       <c r="G18" t="n">
-        <v>-27624.62962373</v>
+        <v>591.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1093,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C19" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D19" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="E19" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F19" t="n">
-        <v>1463.145</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-27624.62962373</v>
+        <v>586.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1133,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C20" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E20" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F20" t="n">
-        <v>2770.8972</v>
+        <v>1463.4308</v>
       </c>
       <c r="G20" t="n">
-        <v>-24853.73242373001</v>
+        <v>585</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1173,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C21" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D21" t="n">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E21" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F21" t="n">
-        <v>3635.5308</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>-28489.26322373001</v>
+        <v>583.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1213,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C22" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D22" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E22" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F22" t="n">
-        <v>1157.8654</v>
+        <v>0.86</v>
       </c>
       <c r="G22" t="n">
-        <v>-27331.39782373001</v>
+        <v>583.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1253,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C23" t="n">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D23" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E23" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F23" t="n">
-        <v>186</v>
+        <v>439.8045</v>
       </c>
       <c r="G23" t="n">
-        <v>-27517.39782373001</v>
+        <v>581</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,246 +1293,289 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C24" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D24" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E24" t="n">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F24" t="n">
-        <v>1617.3564</v>
+        <v>89</v>
       </c>
       <c r="G24" t="n">
-        <v>-29134.75422373001</v>
+        <v>578</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>577</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C25" t="n">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D25" t="n">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="E25" t="n">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F25" t="n">
-        <v>2795.1342</v>
+        <v>1718.0419</v>
       </c>
       <c r="G25" t="n">
-        <v>-26339.62002373001</v>
+        <v>579.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>579</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C26" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E26" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
-        <v>1734.9279</v>
+        <v>7.3229</v>
       </c>
       <c r="G26" t="n">
-        <v>-28074.54792373001</v>
+        <v>580</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>580</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C27" t="n">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D27" t="n">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="E27" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F27" t="n">
-        <v>985.9982</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-27088.54972373001</v>
+        <v>580</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>580</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C28" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D28" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E28" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F28" t="n">
-        <v>2221.8066</v>
+        <v>0.86</v>
       </c>
       <c r="G28" t="n">
-        <v>-29310.35632373001</v>
+        <v>584</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>580</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>578</v>
+      </c>
+      <c r="C29" t="n">
+        <v>578</v>
+      </c>
+      <c r="D29" t="n">
+        <v>578</v>
+      </c>
+      <c r="E29" t="n">
+        <v>578</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.742000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>583</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>588</v>
       </c>
-      <c r="C29" t="n">
-        <v>588</v>
-      </c>
-      <c r="D29" t="n">
-        <v>588</v>
-      </c>
-      <c r="E29" t="n">
-        <v>588</v>
-      </c>
-      <c r="F29" t="n">
-        <v>265.4203</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-29044.93602373001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>582</v>
-      </c>
-      <c r="K29" t="n">
-        <v>582</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C30" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E30" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F30" t="n">
-        <v>1100.85</v>
+        <v>0.86</v>
       </c>
       <c r="G30" t="n">
-        <v>-27944.08602373001</v>
+        <v>583</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1441,41 +1584,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>588</v>
-      </c>
-      <c r="K30" t="n">
-        <v>582</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C31" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D31" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E31" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F31" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>-27872.08602373001</v>
+        <v>588</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1484,19 +1626,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>589</v>
-      </c>
-      <c r="K31" t="n">
-        <v>582</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1506,54 +1647,61 @@
         <v>589</v>
       </c>
       <c r="C32" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D32" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E32" t="n">
         <v>589</v>
       </c>
       <c r="F32" t="n">
-        <v>1588.6934</v>
+        <v>0.85</v>
       </c>
       <c r="G32" t="n">
-        <v>-27872.08602373001</v>
+        <v>588.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>588</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C33" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D33" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E33" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>1555.7063</v>
       </c>
       <c r="G33" t="n">
-        <v>-27848.08602373001</v>
+        <v>589.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1563,137 +1711,163 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C34" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D34" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E34" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F34" t="n">
-        <v>0.83</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>-27847.25602373001</v>
+        <v>589.5</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>590</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C35" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D35" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E35" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F35" t="n">
-        <v>63.6638</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>-27910.91982373</v>
+        <v>591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>589</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C36" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D36" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E36" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F36" t="n">
-        <v>0.84</v>
+        <v>203.6543</v>
       </c>
       <c r="G36" t="n">
-        <v>-27910.07982373</v>
+        <v>592</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>593</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C37" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D37" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E37" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F37" t="n">
-        <v>62.8239</v>
+        <v>1405.8731</v>
       </c>
       <c r="G37" t="n">
-        <v>-27972.90372373</v>
+        <v>590</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1703,17 +1877,22 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C38" t="n">
         <v>593</v>
@@ -1722,48 +1901,55 @@
         <v>593</v>
       </c>
       <c r="E38" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F38" t="n">
-        <v>0.85</v>
+        <v>10.85</v>
       </c>
       <c r="G38" t="n">
-        <v>-27972.05372373001</v>
+        <v>591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>589</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C39" t="n">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D39" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E39" t="n">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1974.0337</v>
       </c>
       <c r="G39" t="n">
-        <v>-27971.05372373001</v>
+        <v>590.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1773,67 +1959,79 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C40" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D40" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E40" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F40" t="n">
-        <v>81.355</v>
+        <v>819.5886</v>
       </c>
       <c r="G40" t="n">
-        <v>-28052.40872373</v>
+        <v>588</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>588</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C41" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D41" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E41" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>22.9707</v>
       </c>
       <c r="G41" t="n">
-        <v>-28067.40872373</v>
+        <v>588</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,32 +2041,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>586</v>
+      </c>
+      <c r="C42" t="n">
+        <v>586</v>
+      </c>
+      <c r="D42" t="n">
+        <v>586</v>
+      </c>
+      <c r="E42" t="n">
+        <v>586</v>
+      </c>
+      <c r="F42" t="n">
+        <v>206.0932</v>
+      </c>
+      <c r="G42" t="n">
         <v>587</v>
-      </c>
-      <c r="C42" t="n">
-        <v>587</v>
-      </c>
-      <c r="D42" t="n">
-        <v>587</v>
-      </c>
-      <c r="E42" t="n">
-        <v>587</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-28067.40872373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,32 +2081,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C43" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D43" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="E43" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="F43" t="n">
-        <v>79</v>
+        <v>0.85</v>
       </c>
       <c r="G43" t="n">
-        <v>-28146.40872373</v>
+        <v>589.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,32 +2121,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C44" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D44" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E44" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F44" t="n">
-        <v>1234.9289</v>
+        <v>1993.6399</v>
       </c>
       <c r="G44" t="n">
-        <v>-29381.33762373</v>
+        <v>590</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,32 +2161,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C45" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D45" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E45" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F45" t="n">
-        <v>14543.1128</v>
+        <v>137.5243</v>
       </c>
       <c r="G45" t="n">
-        <v>-43924.45042373001</v>
+        <v>586.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,32 +2201,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C46" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D46" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E46" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F46" t="n">
-        <v>2591</v>
+        <v>782.1546</v>
       </c>
       <c r="G46" t="n">
-        <v>-41333.45042373001</v>
+        <v>586.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,32 +2241,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C47" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D47" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E47" t="n">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F47" t="n">
-        <v>334</v>
+        <v>214.312</v>
       </c>
       <c r="G47" t="n">
-        <v>-40999.45042373001</v>
+        <v>587</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,32 +2281,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D48" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E48" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>0.85</v>
       </c>
       <c r="G48" t="n">
-        <v>-40959.45042373001</v>
+        <v>587.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,32 +2321,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C49" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D49" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E49" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F49" t="n">
-        <v>666</v>
+        <v>0.88</v>
       </c>
       <c r="G49" t="n">
-        <v>-40293.45042373001</v>
+        <v>589</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,32 +2361,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C50" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D50" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E50" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F50" t="n">
-        <v>10.85</v>
+        <v>2807.9735</v>
       </c>
       <c r="G50" t="n">
-        <v>-40282.60042373001</v>
+        <v>590</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,52 +2401,64 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C51" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D51" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E51" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F51" t="n">
-        <v>1609.457</v>
+        <v>275.2036</v>
       </c>
       <c r="G51" t="n">
-        <v>-40282.60042373001</v>
+        <v>590.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>590</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C52" t="n">
         <v>593</v>
@@ -2212,13 +2467,13 @@
         <v>593</v>
       </c>
       <c r="E52" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F52" t="n">
-        <v>553.0598</v>
+        <v>0.85</v>
       </c>
       <c r="G52" t="n">
-        <v>-39729.54062373</v>
+        <v>592</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,32 +2483,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C53" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D53" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E53" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F53" t="n">
-        <v>277.3425</v>
+        <v>0.85</v>
       </c>
       <c r="G53" t="n">
-        <v>-39729.54062373</v>
+        <v>593.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,32 +2523,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C54" t="n">
+        <v>590</v>
+      </c>
+      <c r="D54" t="n">
+        <v>598</v>
+      </c>
+      <c r="E54" t="n">
+        <v>590</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7555.5099</v>
+      </c>
+      <c r="G54" t="n">
         <v>592</v>
-      </c>
-      <c r="D54" t="n">
-        <v>594</v>
-      </c>
-      <c r="E54" t="n">
-        <v>591</v>
-      </c>
-      <c r="F54" t="n">
-        <v>12678.998</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-52408.53862373</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,32 +2563,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C55" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D55" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="E55" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="F55" t="n">
-        <v>274.9392</v>
+        <v>0.84</v>
       </c>
       <c r="G55" t="n">
-        <v>-52683.47782373001</v>
+        <v>594</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,32 +2603,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C56" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D56" t="n">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="E56" t="n">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="F56" t="n">
-        <v>115.4125</v>
+        <v>1705.8011</v>
       </c>
       <c r="G56" t="n">
-        <v>-52683.47782373001</v>
+        <v>598</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,32 +2643,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="C57" t="n">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="D57" t="n">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="E57" t="n">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="F57" t="n">
-        <v>786.5211</v>
+        <v>351.84</v>
       </c>
       <c r="G57" t="n">
-        <v>-52683.47782373001</v>
+        <v>599</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2403,32 +2683,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C58" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D58" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E58" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>1597.5051</v>
       </c>
       <c r="G58" t="n">
-        <v>-52682.47782373001</v>
+        <v>595.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,32 +2723,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C59" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E59" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G59" t="n">
-        <v>-52681.47782373001</v>
+        <v>597</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,32 +2763,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C60" t="n">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="D60" t="n">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="E60" t="n">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="F60" t="n">
-        <v>1057.081</v>
+        <v>1688.0793</v>
       </c>
       <c r="G60" t="n">
-        <v>-53738.55882373</v>
+        <v>602.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,32 +2803,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C61" t="n">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="D61" t="n">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="E61" t="n">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="F61" t="n">
-        <v>68.40000000000001</v>
+        <v>2856.3029</v>
       </c>
       <c r="G61" t="n">
-        <v>-53806.95882373</v>
+        <v>602.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,32 +2843,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="C62" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D62" t="n">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="E62" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="F62" t="n">
-        <v>1463.4308</v>
+        <v>645.3156</v>
       </c>
       <c r="G62" t="n">
-        <v>-53806.95882373</v>
+        <v>601.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,32 +2883,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="C63" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="D63" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="E63" t="n">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="F63" t="n">
-        <v>36</v>
+        <v>0.84</v>
       </c>
       <c r="G63" t="n">
-        <v>-53842.95882373</v>
+        <v>602</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,32 +2923,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C64" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="D64" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E64" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="F64" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G64" t="n">
-        <v>-53842.09882373</v>
+        <v>604.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,32 +2963,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="C65" t="n">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="D65" t="n">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="E65" t="n">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="F65" t="n">
-        <v>439.8045</v>
+        <v>870.1761</v>
       </c>
       <c r="G65" t="n">
-        <v>-54281.90332373</v>
+        <v>605</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,32 +3003,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C66" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="D66" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="E66" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="F66" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>-54192.90332373</v>
+        <v>605.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,32 +3043,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C67" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="D67" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="E67" t="n">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="F67" t="n">
-        <v>1718.0419</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>-52474.86142373001</v>
+        <v>606</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,32 +3083,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C68" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="D68" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="E68" t="n">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="F68" t="n">
-        <v>7.3229</v>
+        <v>487.9254</v>
       </c>
       <c r="G68" t="n">
-        <v>-52474.86142373001</v>
+        <v>606</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,32 +3123,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="C69" t="n">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="D69" t="n">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="E69" t="n">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>1.82</v>
       </c>
       <c r="G69" t="n">
-        <v>-52474.86142373001</v>
+        <v>610</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,71 +3163,77 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="C70" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D70" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="E70" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="F70" t="n">
-        <v>0.86</v>
+        <v>4.82</v>
       </c>
       <c r="G70" t="n">
-        <v>-52474.00142373001</v>
+        <v>606.5</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>580</v>
-      </c>
-      <c r="K70" t="n">
-        <v>580</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="C71" t="n">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="D71" t="n">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="E71" t="n">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="F71" t="n">
-        <v>9.742000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="G71" t="n">
-        <v>-52483.74342373</v>
+        <v>606.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2896,121 +3242,118 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>580</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C72" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="D72" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="E72" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="F72" t="n">
-        <v>0.86</v>
+        <v>77.63460000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-52482.88342373</v>
+        <v>614</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>578</v>
-      </c>
-      <c r="K72" t="n">
-        <v>580</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="C73" t="n">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="D73" t="n">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="E73" t="n">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>83.193</v>
       </c>
       <c r="G73" t="n">
-        <v>-52482.88342373</v>
+        <v>608.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>588</v>
-      </c>
-      <c r="K73" t="n">
-        <v>588</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C74" t="n">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="D74" t="n">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E74" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F74" t="n">
-        <v>0.85</v>
+        <v>831.5014</v>
       </c>
       <c r="G74" t="n">
-        <v>-52482.03342373</v>
+        <v>605.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3019,39 +3362,38 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>588</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C75" t="n">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="D75" t="n">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="E75" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="F75" t="n">
-        <v>1555.7063</v>
+        <v>0.82</v>
       </c>
       <c r="G75" t="n">
-        <v>-50926.32712373001</v>
+        <v>609</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3060,39 +3402,38 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>588</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C76" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="D76" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E76" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="F76" t="n">
-        <v>40</v>
+        <v>82.193</v>
       </c>
       <c r="G76" t="n">
-        <v>-50966.32712373001</v>
+        <v>607</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3102,32 +3443,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C77" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D77" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="E77" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>90.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>-50926.32712373001</v>
+        <v>607</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3137,32 +3483,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="C78" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="D78" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="E78" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="F78" t="n">
-        <v>203.6543</v>
+        <v>409</v>
       </c>
       <c r="G78" t="n">
-        <v>-51129.98142373001</v>
+        <v>610</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3172,32 +3523,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C79" t="n">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D79" t="n">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="E79" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="F79" t="n">
-        <v>1405.8731</v>
+        <v>0.82</v>
       </c>
       <c r="G79" t="n">
-        <v>-52535.85452373001</v>
+        <v>612</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3207,32 +3563,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C80" t="n">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D80" t="n">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="E80" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F80" t="n">
-        <v>10.85</v>
+        <v>302.8777</v>
       </c>
       <c r="G80" t="n">
-        <v>-52525.00452373001</v>
+        <v>607.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3242,32 +3603,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C81" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="D81" t="n">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="E81" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="F81" t="n">
-        <v>1974.0337</v>
+        <v>753</v>
       </c>
       <c r="G81" t="n">
-        <v>-54499.03822373001</v>
+        <v>604.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3277,32 +3643,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="C82" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="D82" t="n">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E82" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F82" t="n">
-        <v>819.5886</v>
+        <v>66.14879999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-54499.03822373001</v>
+        <v>608</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3312,32 +3683,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="C83" t="n">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="D83" t="n">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="E83" t="n">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="F83" t="n">
-        <v>22.9707</v>
+        <v>499.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>-54499.03822373001</v>
+        <v>609</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3347,32 +3723,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C84" t="n">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="D84" t="n">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="E84" t="n">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="F84" t="n">
-        <v>206.0932</v>
+        <v>770.3203999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-54705.13142373001</v>
+        <v>611</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3382,32 +3763,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="C85" t="n">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="D85" t="n">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="E85" t="n">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="F85" t="n">
-        <v>0.85</v>
+        <v>1.921</v>
       </c>
       <c r="G85" t="n">
-        <v>-54704.28142373001</v>
+        <v>612</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3417,32 +3803,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C86" t="n">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="D86" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E86" t="n">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="F86" t="n">
-        <v>1993.6399</v>
+        <v>105</v>
       </c>
       <c r="G86" t="n">
-        <v>-56697.92132373001</v>
+        <v>608</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3452,32 +3843,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C87" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D87" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E87" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F87" t="n">
-        <v>137.5243</v>
+        <v>317.1447</v>
       </c>
       <c r="G87" t="n">
-        <v>-56835.44562373001</v>
+        <v>605</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3487,32 +3883,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C88" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D88" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="E88" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F88" t="n">
-        <v>782.1546</v>
+        <v>521</v>
       </c>
       <c r="G88" t="n">
-        <v>-56053.29102373001</v>
+        <v>606</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3522,32 +3923,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="C89" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D89" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="E89" t="n">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="F89" t="n">
-        <v>214.312</v>
+        <v>1076.4411</v>
       </c>
       <c r="G89" t="n">
-        <v>-56053.29102373001</v>
+        <v>606</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3557,32 +3963,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C90" t="n">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="D90" t="n">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="E90" t="n">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="F90" t="n">
-        <v>0.85</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>-56052.44102373001</v>
+        <v>609.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3592,32 +4003,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="C91" t="n">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D91" t="n">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="E91" t="n">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="F91" t="n">
-        <v>0.88</v>
+        <v>118.93539151</v>
       </c>
       <c r="G91" t="n">
-        <v>-56051.56102373001</v>
+        <v>613</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3627,32 +4043,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C92" t="n">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="D92" t="n">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="E92" t="n">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="F92" t="n">
-        <v>2807.9735</v>
+        <v>540.46</v>
       </c>
       <c r="G92" t="n">
-        <v>-56051.56102373001</v>
+        <v>613.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3662,32 +4083,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="C93" t="n">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D93" t="n">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E93" t="n">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="F93" t="n">
-        <v>275.2036</v>
+        <v>1537.3314</v>
       </c>
       <c r="G93" t="n">
-        <v>-55776.35742373001</v>
+        <v>614.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3697,32 +4123,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="C94" t="n">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="D94" t="n">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="E94" t="n">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F94" t="n">
-        <v>0.85</v>
+        <v>528.2252</v>
       </c>
       <c r="G94" t="n">
-        <v>-55775.50742373001</v>
+        <v>615</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3732,32 +4163,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="C95" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="D95" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="E95" t="n">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="F95" t="n">
-        <v>0.85</v>
+        <v>241.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>-55774.65742373002</v>
+        <v>615.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3767,32 +4203,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="C96" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D96" t="n">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E96" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="F96" t="n">
-        <v>7555.5099</v>
+        <v>153.6043</v>
       </c>
       <c r="G96" t="n">
-        <v>-63330.16732373001</v>
+        <v>615.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3802,32 +4243,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="C97" t="n">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="D97" t="n">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="E97" t="n">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="F97" t="n">
-        <v>0.84</v>
+        <v>330.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-63329.32732373002</v>
+        <v>615.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3837,32 +4283,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="C98" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="D98" t="n">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="E98" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="F98" t="n">
-        <v>1705.8011</v>
+        <v>66.17700000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-63329.32732373002</v>
+        <v>616.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3872,32 +4323,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="C99" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D99" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="E99" t="n">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="F99" t="n">
-        <v>351.84</v>
+        <v>85.0814</v>
       </c>
       <c r="G99" t="n">
-        <v>-62977.48732373002</v>
+        <v>617.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3907,32 +4363,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C100" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D100" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="E100" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="F100" t="n">
-        <v>1597.5051</v>
+        <v>17.7713</v>
       </c>
       <c r="G100" t="n">
-        <v>-64574.99242373002</v>
+        <v>618</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3942,32 +4403,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="C101" t="n">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="D101" t="n">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="E101" t="n">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="F101" t="n">
-        <v>0.83</v>
+        <v>1084.7241</v>
       </c>
       <c r="G101" t="n">
-        <v>-64574.16242373002</v>
+        <v>621.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3977,32 +4443,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="C102" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D102" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="E102" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F102" t="n">
-        <v>1688.0793</v>
+        <v>384.6125</v>
       </c>
       <c r="G102" t="n">
-        <v>-66262.24172373003</v>
+        <v>625.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4012,32 +4483,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="C103" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="D103" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="E103" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F103" t="n">
-        <v>2856.3029</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>-63405.93882373002</v>
+        <v>626</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4047,73 +4523,81 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="C104" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="D104" t="n">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="E104" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F104" t="n">
-        <v>645.3156</v>
+        <v>184.4777</v>
       </c>
       <c r="G104" t="n">
-        <v>-64051.25442373002</v>
+        <v>626</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C105" t="n">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="D105" t="n">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="E105" t="n">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="F105" t="n">
-        <v>0.84</v>
+        <v>237.644</v>
       </c>
       <c r="G105" t="n">
-        <v>-64050.41442373003</v>
+        <v>622</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4121,28 +4605,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="C106" t="n">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="D106" t="n">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="E106" t="n">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="F106" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-64049.58442373003</v>
+        <v>622</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4156,34 +4641,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="C107" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D107" t="n">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="E107" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="F107" t="n">
-        <v>870.1761</v>
+        <v>829.6878</v>
       </c>
       <c r="G107" t="n">
-        <v>-64049.58442373003</v>
+        <v>623</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4191,34 +4677,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C108" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="D108" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E108" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G108" t="n">
-        <v>-64047.58442373003</v>
+        <v>623</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4226,34 +4713,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C109" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="D109" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="E109" t="n">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>1063.76993656</v>
       </c>
       <c r="G109" t="n">
-        <v>-64047.58442373003</v>
+        <v>627.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4261,34 +4749,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="C110" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="D110" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="E110" t="n">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F110" t="n">
-        <v>487.9254</v>
+        <v>1343.6104</v>
       </c>
       <c r="G110" t="n">
-        <v>-64047.58442373003</v>
+        <v>629</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4296,34 +4785,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C111" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D111" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="E111" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="F111" t="n">
-        <v>1.82</v>
+        <v>33.1038</v>
       </c>
       <c r="G111" t="n">
-        <v>-64045.76442373003</v>
+        <v>629</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4331,34 +4821,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C112" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="D112" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="E112" t="n">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="F112" t="n">
-        <v>4.82</v>
+        <v>212.153</v>
       </c>
       <c r="G112" t="n">
-        <v>-64050.58442373003</v>
+        <v>629</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4366,34 +4857,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C113" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D113" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E113" t="n">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="F113" t="n">
-        <v>2.64</v>
+        <v>427</v>
       </c>
       <c r="G113" t="n">
-        <v>-64047.94442373003</v>
+        <v>625</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4401,34 +4893,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="C114" t="n">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D114" t="n">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E114" t="n">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="F114" t="n">
-        <v>77.63460000000001</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>-64047.94442373003</v>
+        <v>623</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4436,34 +4929,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="C115" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="D115" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="E115" t="n">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="F115" t="n">
-        <v>83.193</v>
+        <v>0.8</v>
       </c>
       <c r="G115" t="n">
-        <v>-64131.13742373003</v>
+        <v>625.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4471,34 +4965,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C116" t="n">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D116" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="E116" t="n">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="F116" t="n">
-        <v>831.5014</v>
+        <v>615</v>
       </c>
       <c r="G116" t="n">
-        <v>-63299.63602373003</v>
+        <v>622</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4506,1578 +5001,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>610</v>
-      </c>
-      <c r="C117" t="n">
-        <v>610</v>
-      </c>
-      <c r="D117" t="n">
-        <v>610</v>
-      </c>
-      <c r="E117" t="n">
-        <v>610</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-63298.81602373003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>604</v>
-      </c>
-      <c r="C118" t="n">
-        <v>604</v>
-      </c>
-      <c r="D118" t="n">
-        <v>604</v>
-      </c>
-      <c r="E118" t="n">
-        <v>604</v>
-      </c>
-      <c r="F118" t="n">
-        <v>82.193</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-63381.00902373002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>610</v>
-      </c>
-      <c r="C119" t="n">
-        <v>610</v>
-      </c>
-      <c r="D119" t="n">
-        <v>610</v>
-      </c>
-      <c r="E119" t="n">
-        <v>610</v>
-      </c>
-      <c r="F119" t="n">
-        <v>90.9999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-63290.00912373002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>610</v>
-      </c>
-      <c r="C120" t="n">
-        <v>610</v>
-      </c>
-      <c r="D120" t="n">
-        <v>610</v>
-      </c>
-      <c r="E120" t="n">
-        <v>610</v>
-      </c>
-      <c r="F120" t="n">
-        <v>409</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-63290.00912373002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>610</v>
-      </c>
-      <c r="C121" t="n">
-        <v>614</v>
-      </c>
-      <c r="D121" t="n">
-        <v>614</v>
-      </c>
-      <c r="E121" t="n">
-        <v>610</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-63289.18912373002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>606</v>
-      </c>
-      <c r="C122" t="n">
-        <v>601</v>
-      </c>
-      <c r="D122" t="n">
-        <v>606</v>
-      </c>
-      <c r="E122" t="n">
-        <v>601</v>
-      </c>
-      <c r="F122" t="n">
-        <v>302.8777</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-63592.06682373002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>609</v>
-      </c>
-      <c r="C123" t="n">
-        <v>608</v>
-      </c>
-      <c r="D123" t="n">
-        <v>609</v>
-      </c>
-      <c r="E123" t="n">
-        <v>606</v>
-      </c>
-      <c r="F123" t="n">
-        <v>753</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-62839.06682373002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>608</v>
-      </c>
-      <c r="C124" t="n">
-        <v>608</v>
-      </c>
-      <c r="D124" t="n">
-        <v>608</v>
-      </c>
-      <c r="E124" t="n">
-        <v>608</v>
-      </c>
-      <c r="F124" t="n">
-        <v>66.14879999999999</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-62839.06682373002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>610</v>
-      </c>
-      <c r="C125" t="n">
-        <v>610</v>
-      </c>
-      <c r="D125" t="n">
-        <v>610</v>
-      </c>
-      <c r="E125" t="n">
-        <v>610</v>
-      </c>
-      <c r="F125" t="n">
-        <v>499.9999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-62339.06692373002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>612</v>
-      </c>
-      <c r="C126" t="n">
-        <v>612</v>
-      </c>
-      <c r="D126" t="n">
-        <v>612</v>
-      </c>
-      <c r="E126" t="n">
-        <v>612</v>
-      </c>
-      <c r="F126" t="n">
-        <v>770.3203999999999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-61568.74652373002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>612</v>
-      </c>
-      <c r="C127" t="n">
-        <v>612</v>
-      </c>
-      <c r="D127" t="n">
-        <v>612</v>
-      </c>
-      <c r="E127" t="n">
-        <v>612</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-61568.74652373002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>604</v>
-      </c>
-      <c r="C128" t="n">
-        <v>604</v>
-      </c>
-      <c r="D128" t="n">
-        <v>604</v>
-      </c>
-      <c r="E128" t="n">
-        <v>604</v>
-      </c>
-      <c r="F128" t="n">
-        <v>105</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-61673.74652373002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>606</v>
-      </c>
-      <c r="C129" t="n">
-        <v>606</v>
-      </c>
-      <c r="D129" t="n">
-        <v>606</v>
-      </c>
-      <c r="E129" t="n">
-        <v>606</v>
-      </c>
-      <c r="F129" t="n">
-        <v>317.1447</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>604</v>
-      </c>
-      <c r="K129" t="n">
-        <v>604</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>606</v>
-      </c>
-      <c r="C130" t="n">
-        <v>606</v>
-      </c>
-      <c r="D130" t="n">
-        <v>606</v>
-      </c>
-      <c r="E130" t="n">
-        <v>606</v>
-      </c>
-      <c r="F130" t="n">
-        <v>521</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>604</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>606</v>
-      </c>
-      <c r="C131" t="n">
-        <v>606</v>
-      </c>
-      <c r="D131" t="n">
-        <v>606</v>
-      </c>
-      <c r="E131" t="n">
-        <v>606</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1076.4411</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>606</v>
-      </c>
-      <c r="K131" t="n">
-        <v>604</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>613</v>
-      </c>
-      <c r="C132" t="n">
-        <v>613</v>
-      </c>
-      <c r="D132" t="n">
-        <v>613</v>
-      </c>
-      <c r="E132" t="n">
-        <v>613</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-61351.60182373002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>612</v>
-      </c>
-      <c r="C133" t="n">
-        <v>613</v>
-      </c>
-      <c r="D133" t="n">
-        <v>613</v>
-      </c>
-      <c r="E133" t="n">
-        <v>612</v>
-      </c>
-      <c r="F133" t="n">
-        <v>118.93539151</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-61351.60182373002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>613</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>614</v>
-      </c>
-      <c r="C134" t="n">
-        <v>614</v>
-      </c>
-      <c r="D134" t="n">
-        <v>614</v>
-      </c>
-      <c r="E134" t="n">
-        <v>614</v>
-      </c>
-      <c r="F134" t="n">
-        <v>540.46</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-60811.14182373002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>613</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>615</v>
-      </c>
-      <c r="C135" t="n">
-        <v>615</v>
-      </c>
-      <c r="D135" t="n">
-        <v>615</v>
-      </c>
-      <c r="E135" t="n">
-        <v>615</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1537.3314</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-59273.81042373002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>614</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>615</v>
-      </c>
-      <c r="C136" t="n">
-        <v>615</v>
-      </c>
-      <c r="D136" t="n">
-        <v>615</v>
-      </c>
-      <c r="E136" t="n">
-        <v>615</v>
-      </c>
-      <c r="F136" t="n">
-        <v>528.2252</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-59273.81042373002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>615</v>
-      </c>
-      <c r="C137" t="n">
-        <v>616</v>
-      </c>
-      <c r="D137" t="n">
-        <v>616</v>
-      </c>
-      <c r="E137" t="n">
-        <v>615</v>
-      </c>
-      <c r="F137" t="n">
-        <v>241.9999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-59031.81052373002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>615</v>
-      </c>
-      <c r="C138" t="n">
-        <v>615</v>
-      </c>
-      <c r="D138" t="n">
-        <v>615</v>
-      </c>
-      <c r="E138" t="n">
-        <v>615</v>
-      </c>
-      <c r="F138" t="n">
-        <v>153.6043</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-59185.41482373002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>615</v>
-      </c>
-      <c r="C139" t="n">
-        <v>616</v>
-      </c>
-      <c r="D139" t="n">
-        <v>616</v>
-      </c>
-      <c r="E139" t="n">
-        <v>615</v>
-      </c>
-      <c r="F139" t="n">
-        <v>330.5</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-58854.91482373002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>617</v>
-      </c>
-      <c r="C140" t="n">
-        <v>617</v>
-      </c>
-      <c r="D140" t="n">
-        <v>617</v>
-      </c>
-      <c r="E140" t="n">
-        <v>617</v>
-      </c>
-      <c r="F140" t="n">
-        <v>66.17700000000001</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-58788.73782373001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>617</v>
-      </c>
-      <c r="C141" t="n">
-        <v>618</v>
-      </c>
-      <c r="D141" t="n">
-        <v>618</v>
-      </c>
-      <c r="E141" t="n">
-        <v>617</v>
-      </c>
-      <c r="F141" t="n">
-        <v>85.0814</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-58703.65642373001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>618</v>
-      </c>
-      <c r="C142" t="n">
-        <v>618</v>
-      </c>
-      <c r="D142" t="n">
-        <v>618</v>
-      </c>
-      <c r="E142" t="n">
-        <v>618</v>
-      </c>
-      <c r="F142" t="n">
-        <v>17.7713</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-58703.65642373001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>618</v>
-      </c>
-      <c r="C143" t="n">
-        <v>625</v>
-      </c>
-      <c r="D143" t="n">
-        <v>625</v>
-      </c>
-      <c r="E143" t="n">
-        <v>618</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1084.7241</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-57618.93232373001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>626</v>
-      </c>
-      <c r="C144" t="n">
-        <v>626</v>
-      </c>
-      <c r="D144" t="n">
-        <v>626</v>
-      </c>
-      <c r="E144" t="n">
-        <v>626</v>
-      </c>
-      <c r="F144" t="n">
-        <v>384.6125</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>626</v>
-      </c>
-      <c r="C145" t="n">
-        <v>626</v>
-      </c>
-      <c r="D145" t="n">
-        <v>626</v>
-      </c>
-      <c r="E145" t="n">
-        <v>626</v>
-      </c>
-      <c r="F145" t="n">
-        <v>40</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>626</v>
-      </c>
-      <c r="C146" t="n">
-        <v>626</v>
-      </c>
-      <c r="D146" t="n">
-        <v>626</v>
-      </c>
-      <c r="E146" t="n">
-        <v>626</v>
-      </c>
-      <c r="F146" t="n">
-        <v>184.4777</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>618</v>
-      </c>
-      <c r="C147" t="n">
-        <v>618</v>
-      </c>
-      <c r="D147" t="n">
-        <v>618</v>
-      </c>
-      <c r="E147" t="n">
-        <v>618</v>
-      </c>
-      <c r="F147" t="n">
-        <v>237.644</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-57471.96382373001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>626</v>
-      </c>
-      <c r="C148" t="n">
-        <v>626</v>
-      </c>
-      <c r="D148" t="n">
-        <v>626</v>
-      </c>
-      <c r="E148" t="n">
-        <v>626</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-57470.96382373001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>624</v>
-      </c>
-      <c r="C149" t="n">
-        <v>620</v>
-      </c>
-      <c r="D149" t="n">
-        <v>624</v>
-      </c>
-      <c r="E149" t="n">
-        <v>620</v>
-      </c>
-      <c r="F149" t="n">
-        <v>829.6878</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-58300.65162373001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>626</v>
-      </c>
-      <c r="C150" t="n">
-        <v>626</v>
-      </c>
-      <c r="D150" t="n">
-        <v>626</v>
-      </c>
-      <c r="E150" t="n">
-        <v>626</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-58299.85162373001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>626</v>
-      </c>
-      <c r="C151" t="n">
-        <v>629</v>
-      </c>
-      <c r="D151" t="n">
-        <v>629</v>
-      </c>
-      <c r="E151" t="n">
-        <v>626</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1063.76993656</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>629</v>
-      </c>
-      <c r="C152" t="n">
-        <v>629</v>
-      </c>
-      <c r="D152" t="n">
-        <v>629</v>
-      </c>
-      <c r="E152" t="n">
-        <v>622</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1343.6104</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>629</v>
-      </c>
-      <c r="C153" t="n">
-        <v>629</v>
-      </c>
-      <c r="D153" t="n">
-        <v>629</v>
-      </c>
-      <c r="E153" t="n">
-        <v>629</v>
-      </c>
-      <c r="F153" t="n">
-        <v>33.1038</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>622</v>
-      </c>
-      <c r="C154" t="n">
-        <v>629</v>
-      </c>
-      <c r="D154" t="n">
-        <v>629</v>
-      </c>
-      <c r="E154" t="n">
-        <v>622</v>
-      </c>
-      <c r="F154" t="n">
-        <v>212.153</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>621</v>
-      </c>
-      <c r="C155" t="n">
-        <v>621</v>
-      </c>
-      <c r="D155" t="n">
-        <v>621</v>
-      </c>
-      <c r="E155" t="n">
-        <v>621</v>
-      </c>
-      <c r="F155" t="n">
-        <v>427</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-57663.08168717001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>625</v>
-      </c>
-      <c r="C156" t="n">
-        <v>625</v>
-      </c>
-      <c r="D156" t="n">
-        <v>625</v>
-      </c>
-      <c r="E156" t="n">
-        <v>625</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-57662.08168717001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>626</v>
-      </c>
-      <c r="C157" t="n">
-        <v>626</v>
-      </c>
-      <c r="D157" t="n">
-        <v>626</v>
-      </c>
-      <c r="E157" t="n">
-        <v>626</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-57661.28168717001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>624</v>
-      </c>
-      <c r="C158" t="n">
-        <v>618</v>
-      </c>
-      <c r="D158" t="n">
-        <v>624</v>
-      </c>
-      <c r="E158" t="n">
-        <v>618</v>
-      </c>
-      <c r="F158" t="n">
-        <v>615</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-58276.28168717001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C2" t="n">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D2" t="n">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E2" t="n">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F2" t="n">
-        <v>1234.9289</v>
+        <v>1137.6855</v>
       </c>
       <c r="G2" t="n">
-        <v>583.5</v>
+        <v>-16981.4543</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="C3" t="n">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="D3" t="n">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="E3" t="n">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="F3" t="n">
-        <v>14543.1128</v>
+        <v>423.5209</v>
       </c>
       <c r="G3" t="n">
-        <v>580</v>
+        <v>-17404.9752</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="C4" t="n">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="D4" t="n">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="E4" t="n">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="F4" t="n">
-        <v>2591</v>
+        <v>0.86</v>
       </c>
       <c r="G4" t="n">
-        <v>579.5</v>
+        <v>-17404.1152</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C5" t="n">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E5" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F5" t="n">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>582.5</v>
+        <v>-17414.1152</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C6" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D6" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E6" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>535.35</v>
       </c>
       <c r="G6" t="n">
-        <v>584</v>
+        <v>-16878.7652</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>583</v>
-      </c>
-      <c r="K6" t="n">
-        <v>583</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -622,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D7" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F7" t="n">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="G7" t="n">
-        <v>585.5</v>
+        <v>-17561.7652</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>585</v>
-      </c>
-      <c r="K7" t="n">
-        <v>583</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -666,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C8" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D8" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E8" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F8" t="n">
-        <v>10.85</v>
+        <v>57</v>
       </c>
       <c r="G8" t="n">
-        <v>587.5</v>
+        <v>-17504.7652</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,14 +678,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>583</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C9" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D9" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E9" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F9" t="n">
-        <v>1609.457</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>589</v>
+        <v>-17503.7652</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -744,38 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C10" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D10" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E10" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F10" t="n">
-        <v>553.0598</v>
+        <v>278.4995</v>
       </c>
       <c r="G10" t="n">
-        <v>591</v>
+        <v>-17782.2647</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>589</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -786,38 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C11" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D11" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E11" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F11" t="n">
-        <v>277.3425</v>
+        <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>593</v>
+        <v>-17781.4147</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>593</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -828,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C12" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D12" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E12" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F12" t="n">
-        <v>12678.998</v>
+        <v>0.85</v>
       </c>
       <c r="G12" t="n">
-        <v>592.5</v>
+        <v>-17780.56470000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -853,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -868,36 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D13" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E13" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F13" t="n">
-        <v>274.9392</v>
+        <v>314.6515</v>
       </c>
       <c r="G13" t="n">
-        <v>588</v>
+        <v>-18095.21620000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -908,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C14" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D14" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E14" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F14" t="n">
-        <v>115.4125</v>
+        <v>1288.0108</v>
       </c>
       <c r="G14" t="n">
-        <v>584</v>
+        <v>-19383.22700000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -933,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -948,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C15" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D15" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E15" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F15" t="n">
-        <v>786.5211</v>
+        <v>220</v>
       </c>
       <c r="G15" t="n">
-        <v>584</v>
+        <v>-19603.22700000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -973,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -988,36 +942,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C16" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D16" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E16" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="G16" t="n">
-        <v>587</v>
+        <v>-19793.22700000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="n">
+        <v>585</v>
+      </c>
+      <c r="K16" t="n">
+        <v>585</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1028,34 +982,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C17" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D17" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E17" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>53.8231</v>
       </c>
       <c r="G17" t="n">
-        <v>592.5</v>
+        <v>-19739.4039</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>583</v>
+      </c>
+      <c r="K17" t="n">
+        <v>585</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1068,34 +1026,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C18" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D18" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E18" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F18" t="n">
-        <v>1057.081</v>
+        <v>8.47457627</v>
       </c>
       <c r="G18" t="n">
-        <v>591.5</v>
+        <v>-19730.92932373</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>584</v>
+      </c>
+      <c r="K18" t="n">
+        <v>585</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1108,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C19" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D19" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E19" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F19" t="n">
-        <v>68.40000000000001</v>
+        <v>33.3528</v>
       </c>
       <c r="G19" t="n">
-        <v>586.5</v>
+        <v>-19730.92932373</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1133,11 +1095,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1148,22 +1106,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D20" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E20" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F20" t="n">
-        <v>1463.4308</v>
+        <v>43.3586</v>
       </c>
       <c r="G20" t="n">
-        <v>585</v>
+        <v>-19687.57072373</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1173,11 +1131,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1188,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C21" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D21" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E21" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>115.5154</v>
       </c>
       <c r="G21" t="n">
-        <v>583.5</v>
+        <v>-19687.57072373</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1213,11 +1167,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1228,22 +1178,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C22" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D22" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E22" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F22" t="n">
-        <v>0.86</v>
+        <v>3017.5284</v>
       </c>
       <c r="G22" t="n">
-        <v>583.5</v>
+        <v>-16670.04232373001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1253,11 +1203,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1268,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C23" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="D23" t="n">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E23" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F23" t="n">
-        <v>439.8045</v>
+        <v>1374.7707</v>
       </c>
       <c r="G23" t="n">
-        <v>581</v>
+        <v>-18044.81302373001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1293,11 +1239,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1308,38 +1250,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="C24" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="D24" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E24" t="n">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F24" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>578</v>
+        <v>-18004.81302373001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>577</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1350,38 +1286,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="C25" t="n">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D25" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E25" t="n">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F25" t="n">
-        <v>1718.0419</v>
+        <v>4933.0287</v>
       </c>
       <c r="G25" t="n">
-        <v>579.5</v>
+        <v>-22937.84172373001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>579</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1392,38 +1322,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="C26" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D26" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="E26" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="F26" t="n">
-        <v>7.3229</v>
+        <v>221.9804</v>
       </c>
       <c r="G26" t="n">
-        <v>580</v>
+        <v>-22715.86132373001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>580</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1434,38 +1358,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C27" t="n">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="D27" t="n">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="E27" t="n">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>376.3598</v>
       </c>
       <c r="G27" t="n">
-        <v>580</v>
+        <v>-22339.50152373001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>580</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1476,38 +1394,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C28" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D28" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="E28" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.86</v>
+        <v>466.8259</v>
       </c>
       <c r="G28" t="n">
-        <v>584</v>
+        <v>-22339.50152373001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>580</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1518,38 +1430,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="C29" t="n">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="D29" t="n">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="E29" t="n">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="F29" t="n">
-        <v>9.742000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G29" t="n">
-        <v>583</v>
+        <v>-22338.64152373001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>588</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1560,38 +1466,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D30" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E30" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F30" t="n">
-        <v>0.86</v>
+        <v>52.9</v>
       </c>
       <c r="G30" t="n">
-        <v>583</v>
+        <v>-22285.74152373</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>578</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1602,38 +1502,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="C31" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D31" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E31" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>0.778</v>
       </c>
       <c r="G31" t="n">
-        <v>588</v>
+        <v>-22285.74152373</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>588</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1644,38 +1538,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C32" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D32" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E32" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="F32" t="n">
-        <v>0.85</v>
+        <v>542</v>
       </c>
       <c r="G32" t="n">
-        <v>588.5</v>
+        <v>-21743.74152373</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>588</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="C33" t="n">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D33" t="n">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E33" t="n">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F33" t="n">
-        <v>1555.7063</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>589.5</v>
+        <v>-21742.74152373</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1711,11 +1599,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1726,38 +1610,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="C34" t="n">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D34" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E34" t="n">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>1638.6827</v>
       </c>
       <c r="G34" t="n">
-        <v>589.5</v>
+        <v>-21742.74152373</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>590</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1768,38 +1646,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C35" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D35" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E35" t="n">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>439.0272</v>
       </c>
       <c r="G35" t="n">
-        <v>591</v>
+        <v>-22181.76872373001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>589</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1810,38 +1682,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C36" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D36" t="n">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="E36" t="n">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="F36" t="n">
-        <v>203.6543</v>
+        <v>243.1182</v>
       </c>
       <c r="G36" t="n">
-        <v>592</v>
+        <v>-21938.65052373</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>593</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1852,36 +1718,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C37" t="n">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D37" t="n">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="E37" t="n">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="F37" t="n">
-        <v>1405.8731</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>590</v>
+        <v>-21938.65052373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1892,38 +1754,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C38" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D38" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E38" t="n">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="F38" t="n">
-        <v>10.85</v>
+        <v>141.6236</v>
       </c>
       <c r="G38" t="n">
-        <v>591</v>
+        <v>-22080.27412373</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>589</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1934,36 +1790,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="C39" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="D39" t="n">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E39" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F39" t="n">
-        <v>1974.0337</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>590.5</v>
+        <v>-22079.27412373</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1974,38 +1826,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C40" t="n">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D40" t="n">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="E40" t="n">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F40" t="n">
-        <v>819.5886</v>
+        <v>833.7769</v>
       </c>
       <c r="G40" t="n">
-        <v>588</v>
+        <v>-22913.05102373</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>588</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2016,36 +1862,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C41" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D41" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E41" t="n">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F41" t="n">
-        <v>22.9707</v>
+        <v>656</v>
       </c>
       <c r="G41" t="n">
-        <v>588</v>
+        <v>-22257.05102373</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2056,36 +1898,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="C42" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="D42" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E42" t="n">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F42" t="n">
-        <v>206.0932</v>
+        <v>146.4539</v>
       </c>
       <c r="G42" t="n">
-        <v>587</v>
+        <v>-22110.59712373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2096,36 +1934,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C43" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D43" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E43" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.85</v>
+        <v>135.9978</v>
       </c>
       <c r="G43" t="n">
-        <v>589.5</v>
+        <v>-22246.59492373</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2136,22 +1970,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C44" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D44" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E44" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F44" t="n">
-        <v>1993.6399</v>
+        <v>452.947</v>
       </c>
       <c r="G44" t="n">
-        <v>590</v>
+        <v>-22246.59492373</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2161,11 +1995,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2176,22 +2006,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="C45" t="n">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="D45" t="n">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E45" t="n">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="F45" t="n">
-        <v>137.5243</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="n">
-        <v>586.5</v>
+        <v>-22245.69492373</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2201,11 +2031,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2216,36 +2042,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="C46" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D46" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E46" t="n">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F46" t="n">
-        <v>782.1546</v>
+        <v>60.2</v>
       </c>
       <c r="G46" t="n">
-        <v>586.5</v>
+        <v>-22305.89492373</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2256,22 +2078,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C47" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D47" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E47" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F47" t="n">
-        <v>214.312</v>
+        <v>5318.7347</v>
       </c>
       <c r="G47" t="n">
-        <v>587</v>
+        <v>-27624.62962373</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2281,11 +2103,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C48" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D48" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E48" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F48" t="n">
-        <v>0.85</v>
+        <v>1463.145</v>
       </c>
       <c r="G48" t="n">
-        <v>587.5</v>
+        <v>-27624.62962373</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2321,11 +2139,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2339,19 +2153,19 @@
         <v>590</v>
       </c>
       <c r="C49" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D49" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E49" t="n">
         <v>590</v>
       </c>
       <c r="F49" t="n">
-        <v>0.88</v>
+        <v>2770.8972</v>
       </c>
       <c r="G49" t="n">
-        <v>589</v>
+        <v>-24853.73242373001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2361,11 +2175,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2382,16 +2192,16 @@
         <v>590</v>
       </c>
       <c r="D50" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E50" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F50" t="n">
-        <v>2807.9735</v>
+        <v>3635.5308</v>
       </c>
       <c r="G50" t="n">
-        <v>590</v>
+        <v>-28489.26322373001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2401,11 +2211,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2416,38 +2222,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C51" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D51" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E51" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F51" t="n">
-        <v>275.2036</v>
+        <v>1157.8654</v>
       </c>
       <c r="G51" t="n">
-        <v>590.5</v>
+        <v>-27331.39782373001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>590</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2458,22 +2258,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C52" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D52" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E52" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.85</v>
+        <v>186</v>
       </c>
       <c r="G52" t="n">
-        <v>592</v>
+        <v>-27517.39782373001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2483,11 +2283,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C53" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D53" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E53" t="n">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F53" t="n">
-        <v>0.85</v>
+        <v>1617.3564</v>
       </c>
       <c r="G53" t="n">
-        <v>593.5</v>
+        <v>-29134.75422373001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2523,11 +2319,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2330,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C54" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D54" t="n">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F54" t="n">
-        <v>7555.5099</v>
+        <v>2795.1342</v>
       </c>
       <c r="G54" t="n">
-        <v>592</v>
+        <v>-26339.62002373001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2563,11 +2355,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2366,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C55" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D55" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E55" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F55" t="n">
-        <v>0.84</v>
+        <v>1734.9279</v>
       </c>
       <c r="G55" t="n">
-        <v>594</v>
+        <v>-28074.54792373001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2603,11 +2391,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2402,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C56" t="n">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D56" t="n">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E56" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F56" t="n">
-        <v>1705.8011</v>
+        <v>985.9982</v>
       </c>
       <c r="G56" t="n">
-        <v>598</v>
+        <v>-27088.54972373001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2643,11 +2427,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2438,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C57" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="D57" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E57" t="n">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F57" t="n">
-        <v>351.84</v>
+        <v>2221.8066</v>
       </c>
       <c r="G57" t="n">
-        <v>599</v>
+        <v>-29310.35632373001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2683,11 +2463,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2474,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C58" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D58" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E58" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F58" t="n">
-        <v>1597.5051</v>
+        <v>265.4203</v>
       </c>
       <c r="G58" t="n">
-        <v>595.5</v>
+        <v>-29044.93602373001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2723,11 +2499,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2738,22 +2510,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C59" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D59" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E59" t="n">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F59" t="n">
-        <v>0.83</v>
+        <v>1100.85</v>
       </c>
       <c r="G59" t="n">
-        <v>597</v>
+        <v>-27944.08602373001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2763,11 +2535,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2546,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C60" t="n">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D60" t="n">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E60" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F60" t="n">
-        <v>1688.0793</v>
+        <v>72</v>
       </c>
       <c r="G60" t="n">
-        <v>602.5</v>
+        <v>-27872.08602373001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2803,11 +2571,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C61" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D61" t="n">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E61" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F61" t="n">
-        <v>2856.3029</v>
+        <v>1588.6934</v>
       </c>
       <c r="G61" t="n">
-        <v>602.5</v>
+        <v>-27872.08602373001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2843,11 +2607,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2858,22 +2618,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C62" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D62" t="n">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E62" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F62" t="n">
-        <v>645.3156</v>
+        <v>24</v>
       </c>
       <c r="G62" t="n">
-        <v>601.5</v>
+        <v>-27848.08602373001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2883,11 +2643,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2654,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C63" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D63" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E63" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="G63" t="n">
-        <v>602</v>
+        <v>-27847.25602373001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2923,11 +2679,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +2690,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C64" t="n">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D64" t="n">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E64" t="n">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F64" t="n">
-        <v>0.83</v>
+        <v>63.6638</v>
       </c>
       <c r="G64" t="n">
-        <v>604.5</v>
+        <v>-27910.91982373</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2963,11 +2715,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2726,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C65" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D65" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E65" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F65" t="n">
-        <v>870.1761</v>
+        <v>0.84</v>
       </c>
       <c r="G65" t="n">
-        <v>605</v>
+        <v>-27910.07982373</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3003,11 +2751,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3018,22 +2762,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C66" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="D66" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="E66" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>62.8239</v>
       </c>
       <c r="G66" t="n">
-        <v>605.5</v>
+        <v>-27972.90372373</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3043,11 +2787,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C67" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D67" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E67" t="n">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>0.85</v>
       </c>
       <c r="G67" t="n">
-        <v>606</v>
+        <v>-27972.05372373001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3083,11 +2823,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C68" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D68" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E68" t="n">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F68" t="n">
-        <v>487.9254</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>606</v>
+        <v>-27971.05372373001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3123,11 +2859,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +2870,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C69" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="D69" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="E69" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F69" t="n">
-        <v>1.82</v>
+        <v>81.355</v>
       </c>
       <c r="G69" t="n">
-        <v>610</v>
+        <v>-28052.40872373</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3163,11 +2895,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3178,22 +2906,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C70" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D70" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="E70" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F70" t="n">
-        <v>4.82</v>
+        <v>15</v>
       </c>
       <c r="G70" t="n">
-        <v>606.5</v>
+        <v>-28067.40872373</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3203,11 +2931,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3218,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="C71" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="D71" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="E71" t="n">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="F71" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>606.5</v>
+        <v>-28067.40872373</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3243,11 +2967,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3258,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="C72" t="n">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="D72" t="n">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E72" t="n">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="F72" t="n">
-        <v>77.63460000000001</v>
+        <v>79</v>
       </c>
       <c r="G72" t="n">
-        <v>614</v>
+        <v>-28146.40872373</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3283,11 +3003,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="C73" t="n">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D73" t="n">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="E73" t="n">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F73" t="n">
-        <v>83.193</v>
+        <v>1234.9289</v>
       </c>
       <c r="G73" t="n">
-        <v>608.5</v>
+        <v>-29381.33762373</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3323,11 +3039,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3050,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C74" t="n">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="D74" t="n">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="E74" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="F74" t="n">
-        <v>831.5014</v>
+        <v>14543.1128</v>
       </c>
       <c r="G74" t="n">
-        <v>605.5</v>
+        <v>-43924.45042373001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3363,11 +3075,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3378,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C75" t="n">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="D75" t="n">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E75" t="n">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="F75" t="n">
-        <v>0.82</v>
+        <v>2591</v>
       </c>
       <c r="G75" t="n">
-        <v>609</v>
+        <v>-41333.45042373001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3403,11 +3111,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3418,22 +3122,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C76" t="n">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="D76" t="n">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="E76" t="n">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="F76" t="n">
-        <v>82.193</v>
+        <v>334</v>
       </c>
       <c r="G76" t="n">
-        <v>607</v>
+        <v>-40999.45042373001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3443,11 +3147,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="C77" t="n">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="D77" t="n">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="E77" t="n">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="F77" t="n">
-        <v>90.9999</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>607</v>
+        <v>-40959.45042373001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3483,11 +3183,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3194,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C78" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="D78" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="E78" t="n">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="F78" t="n">
-        <v>409</v>
+        <v>666</v>
       </c>
       <c r="G78" t="n">
-        <v>610</v>
+        <v>-40293.45042373001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3523,11 +3219,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="C79" t="n">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="D79" t="n">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="E79" t="n">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="F79" t="n">
-        <v>0.82</v>
+        <v>10.85</v>
       </c>
       <c r="G79" t="n">
-        <v>612</v>
+        <v>-40282.60042373001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3563,11 +3255,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3266,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C80" t="n">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D80" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="E80" t="n">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F80" t="n">
-        <v>302.8777</v>
+        <v>1609.457</v>
       </c>
       <c r="G80" t="n">
-        <v>607.5</v>
+        <v>-40282.60042373001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3603,11 +3291,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C81" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D81" t="n">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E81" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F81" t="n">
-        <v>753</v>
+        <v>553.0598</v>
       </c>
       <c r="G81" t="n">
-        <v>604.5</v>
+        <v>-39729.54062373</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3643,11 +3327,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3338,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="C82" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D82" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="E82" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="F82" t="n">
-        <v>66.14879999999999</v>
+        <v>277.3425</v>
       </c>
       <c r="G82" t="n">
-        <v>608</v>
+        <v>-39729.54062373</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3683,11 +3363,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +3374,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="C83" t="n">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="D83" t="n">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E83" t="n">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="F83" t="n">
-        <v>499.9999</v>
+        <v>12678.998</v>
       </c>
       <c r="G83" t="n">
-        <v>609</v>
+        <v>-52408.53862373</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3723,11 +3399,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3738,22 +3410,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="C84" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="D84" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="E84" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="F84" t="n">
-        <v>770.3203999999999</v>
+        <v>274.9392</v>
       </c>
       <c r="G84" t="n">
-        <v>611</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3763,11 +3435,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3446,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="C85" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="D85" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="E85" t="n">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="F85" t="n">
-        <v>1.921</v>
+        <v>115.4125</v>
       </c>
       <c r="G85" t="n">
-        <v>612</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3803,11 +3471,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3482,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C86" t="n">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D86" t="n">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E86" t="n">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="F86" t="n">
-        <v>105</v>
+        <v>786.5211</v>
       </c>
       <c r="G86" t="n">
-        <v>608</v>
+        <v>-52683.47782373001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3843,11 +3507,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +3518,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C87" t="n">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="D87" t="n">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E87" t="n">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="F87" t="n">
-        <v>317.1447</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>605</v>
+        <v>-52682.47782373001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3883,11 +3543,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +3554,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C88" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D88" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E88" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F88" t="n">
-        <v>521</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>606</v>
+        <v>-52681.47782373001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3923,11 +3579,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3938,22 +3590,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C89" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D89" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="E89" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F89" t="n">
-        <v>1076.4411</v>
+        <v>1057.081</v>
       </c>
       <c r="G89" t="n">
-        <v>606</v>
+        <v>-53738.55882373</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3963,11 +3615,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +3626,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C90" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="D90" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="E90" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>609.5</v>
+        <v>-53806.95882373</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4003,11 +3651,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4018,22 +3662,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="C91" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="D91" t="n">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="E91" t="n">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="F91" t="n">
-        <v>118.93539151</v>
+        <v>1463.4308</v>
       </c>
       <c r="G91" t="n">
-        <v>613</v>
+        <v>-53806.95882373</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4043,11 +3687,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +3698,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="C92" t="n">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="D92" t="n">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="E92" t="n">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="F92" t="n">
-        <v>540.46</v>
+        <v>36</v>
       </c>
       <c r="G92" t="n">
-        <v>613.5</v>
+        <v>-53842.95882373</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4083,11 +3723,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="C93" t="n">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="D93" t="n">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="E93" t="n">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="F93" t="n">
-        <v>1537.3314</v>
+        <v>0.86</v>
       </c>
       <c r="G93" t="n">
-        <v>614.5</v>
+        <v>-53842.09882373</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4123,11 +3759,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +3770,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="C94" t="n">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="D94" t="n">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="E94" t="n">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="F94" t="n">
-        <v>528.2252</v>
+        <v>439.8045</v>
       </c>
       <c r="G94" t="n">
-        <v>615</v>
+        <v>-54281.90332373</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4163,11 +3795,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +3806,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="C95" t="n">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="D95" t="n">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="E95" t="n">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="F95" t="n">
-        <v>241.9999</v>
+        <v>89</v>
       </c>
       <c r="G95" t="n">
-        <v>615.5</v>
+        <v>-54192.90332373</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4203,11 +3831,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4218,34 +3842,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="C96" t="n">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="D96" t="n">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="E96" t="n">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="F96" t="n">
-        <v>153.6043</v>
+        <v>1718.0419</v>
       </c>
       <c r="G96" t="n">
-        <v>615.5</v>
+        <v>-52474.86142373001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>579</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -4258,30 +3884,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="C97" t="n">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="E97" t="n">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="F97" t="n">
-        <v>330.5</v>
+        <v>7.3229</v>
       </c>
       <c r="G97" t="n">
-        <v>615.5</v>
+        <v>-52474.86142373001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>580</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4298,30 +3926,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="C98" t="n">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="D98" t="n">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="E98" t="n">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="F98" t="n">
-        <v>66.17700000000001</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>616.5</v>
+        <v>-52474.86142373001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>580</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4338,30 +3968,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="C99" t="n">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="D99" t="n">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="E99" t="n">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="F99" t="n">
-        <v>85.0814</v>
+        <v>0.86</v>
       </c>
       <c r="G99" t="n">
-        <v>617.5</v>
+        <v>-52474.00142373001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>580</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4378,30 +4010,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="C100" t="n">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="D100" t="n">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="E100" t="n">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="F100" t="n">
-        <v>17.7713</v>
+        <v>9.742000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>618</v>
+        <v>-52483.74342373</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>588</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4418,30 +4052,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="C101" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="D101" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="E101" t="n">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F101" t="n">
-        <v>1084.7241</v>
+        <v>0.86</v>
       </c>
       <c r="G101" t="n">
-        <v>621.5</v>
+        <v>-52482.88342373</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>578</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4458,30 +4094,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="C102" t="n">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="D102" t="n">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="E102" t="n">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="F102" t="n">
-        <v>384.6125</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>625.5</v>
+        <v>-52482.88342373</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>588</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4498,30 +4136,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C103" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="D103" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="E103" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>0.85</v>
       </c>
       <c r="G103" t="n">
-        <v>626</v>
+        <v>-52482.03342373</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>588</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4538,37 +4178,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C104" t="n">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D104" t="n">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="E104" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="F104" t="n">
-        <v>184.4777</v>
+        <v>1555.7063</v>
       </c>
       <c r="G104" t="n">
-        <v>626</v>
+        <v>-50926.32712373001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
       <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4576,32 +4218,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="C105" t="n">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="D105" t="n">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="E105" t="n">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="F105" t="n">
-        <v>237.644</v>
+        <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>622</v>
+        <v>-50966.32712373001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4258,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C106" t="n">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="D106" t="n">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="E106" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>622</v>
+        <v>-50926.32712373001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4637,7 +4283,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4648,32 +4298,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C107" t="n">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="D107" t="n">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="E107" t="n">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="F107" t="n">
-        <v>829.6878</v>
+        <v>203.6543</v>
       </c>
       <c r="G107" t="n">
-        <v>623</v>
+        <v>-51129.98142373001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4684,32 +4338,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C108" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="D108" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="E108" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8</v>
+        <v>1405.8731</v>
       </c>
       <c r="G108" t="n">
-        <v>623</v>
+        <v>-52535.85452373001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4720,32 +4378,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C109" t="n">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="D109" t="n">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="E109" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="F109" t="n">
-        <v>1063.76993656</v>
+        <v>10.85</v>
       </c>
       <c r="G109" t="n">
-        <v>627.5</v>
+        <v>-52525.00452373001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4756,32 +4418,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="C110" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="D110" t="n">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="E110" t="n">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="F110" t="n">
-        <v>1343.6104</v>
+        <v>1974.0337</v>
       </c>
       <c r="G110" t="n">
-        <v>629</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4792,32 +4458,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="C111" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="D111" t="n">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="E111" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="F111" t="n">
-        <v>33.1038</v>
+        <v>819.5886</v>
       </c>
       <c r="G111" t="n">
-        <v>629</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4828,32 +4498,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="C112" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="D112" t="n">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="E112" t="n">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="F112" t="n">
-        <v>212.153</v>
+        <v>22.9707</v>
       </c>
       <c r="G112" t="n">
-        <v>629</v>
+        <v>-54499.03822373001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>588</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4864,32 +4540,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="C113" t="n">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="D113" t="n">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="E113" t="n">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="F113" t="n">
-        <v>427</v>
+        <v>206.0932</v>
       </c>
       <c r="G113" t="n">
-        <v>625</v>
+        <v>-54705.13142373001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>588</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4900,32 +4582,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="C114" t="n">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="D114" t="n">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="E114" t="n">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G114" t="n">
-        <v>623</v>
+        <v>-54704.28142373001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>586</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4936,32 +4624,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C115" t="n">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="D115" t="n">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="E115" t="n">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8</v>
+        <v>1993.6399</v>
       </c>
       <c r="G115" t="n">
-        <v>625.5</v>
+        <v>-56697.92132373001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4972,36 +4664,2890 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="C116" t="n">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="D116" t="n">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="E116" t="n">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="F116" t="n">
-        <v>615</v>
+        <v>137.5243</v>
       </c>
       <c r="G116" t="n">
-        <v>622</v>
+        <v>-56835.44562373001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>586</v>
+      </c>
+      <c r="C117" t="n">
+        <v>587</v>
+      </c>
+      <c r="D117" t="n">
+        <v>587</v>
+      </c>
+      <c r="E117" t="n">
+        <v>586</v>
+      </c>
+      <c r="F117" t="n">
+        <v>782.1546</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-56053.29102373001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>587</v>
+      </c>
+      <c r="C118" t="n">
+        <v>587</v>
+      </c>
+      <c r="D118" t="n">
+        <v>587</v>
+      </c>
+      <c r="E118" t="n">
+        <v>587</v>
+      </c>
+      <c r="F118" t="n">
+        <v>214.312</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-56053.29102373001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>588</v>
+      </c>
+      <c r="C119" t="n">
+        <v>588</v>
+      </c>
+      <c r="D119" t="n">
+        <v>588</v>
+      </c>
+      <c r="E119" t="n">
+        <v>588</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-56052.44102373001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>590</v>
+      </c>
+      <c r="C120" t="n">
+        <v>590</v>
+      </c>
+      <c r="D120" t="n">
+        <v>590</v>
+      </c>
+      <c r="E120" t="n">
+        <v>590</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-56051.56102373001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>588</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>590</v>
+      </c>
+      <c r="C121" t="n">
+        <v>590</v>
+      </c>
+      <c r="D121" t="n">
+        <v>590</v>
+      </c>
+      <c r="E121" t="n">
+        <v>590</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2807.9735</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-56051.56102373001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>590</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>591</v>
+      </c>
+      <c r="C122" t="n">
+        <v>591</v>
+      </c>
+      <c r="D122" t="n">
+        <v>591</v>
+      </c>
+      <c r="E122" t="n">
+        <v>591</v>
+      </c>
+      <c r="F122" t="n">
+        <v>275.2036</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-55776.35742373001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>590</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>593</v>
+      </c>
+      <c r="C123" t="n">
+        <v>593</v>
+      </c>
+      <c r="D123" t="n">
+        <v>593</v>
+      </c>
+      <c r="E123" t="n">
+        <v>593</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-55775.50742373001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>591</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>594</v>
+      </c>
+      <c r="C124" t="n">
+        <v>594</v>
+      </c>
+      <c r="D124" t="n">
+        <v>594</v>
+      </c>
+      <c r="E124" t="n">
+        <v>594</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-55774.65742373002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>594</v>
+      </c>
+      <c r="C125" t="n">
+        <v>590</v>
+      </c>
+      <c r="D125" t="n">
+        <v>598</v>
+      </c>
+      <c r="E125" t="n">
+        <v>590</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7555.5099</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-63330.16732373001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>598</v>
+      </c>
+      <c r="C126" t="n">
+        <v>598</v>
+      </c>
+      <c r="D126" t="n">
+        <v>598</v>
+      </c>
+      <c r="E126" t="n">
+        <v>598</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-63329.32732373002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>598</v>
+      </c>
+      <c r="C127" t="n">
+        <v>598</v>
+      </c>
+      <c r="D127" t="n">
+        <v>599</v>
+      </c>
+      <c r="E127" t="n">
+        <v>598</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1705.8011</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-63329.32732373002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>598</v>
+      </c>
+      <c r="C128" t="n">
+        <v>600</v>
+      </c>
+      <c r="D128" t="n">
+        <v>600</v>
+      </c>
+      <c r="E128" t="n">
+        <v>591</v>
+      </c>
+      <c r="F128" t="n">
+        <v>351.84</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-62977.48732373002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>600</v>
+      </c>
+      <c r="C129" t="n">
+        <v>591</v>
+      </c>
+      <c r="D129" t="n">
+        <v>600</v>
+      </c>
+      <c r="E129" t="n">
+        <v>591</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1597.5051</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-64574.99242373002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>600</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>603</v>
+      </c>
+      <c r="C130" t="n">
+        <v>603</v>
+      </c>
+      <c r="D130" t="n">
+        <v>603</v>
+      </c>
+      <c r="E130" t="n">
+        <v>603</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-64574.16242373002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>602</v>
+      </c>
+      <c r="C131" t="n">
+        <v>602</v>
+      </c>
+      <c r="D131" t="n">
+        <v>602</v>
+      </c>
+      <c r="E131" t="n">
+        <v>602</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1688.0793</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-66262.24172373003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>602</v>
+      </c>
+      <c r="C132" t="n">
+        <v>603</v>
+      </c>
+      <c r="D132" t="n">
+        <v>603</v>
+      </c>
+      <c r="E132" t="n">
+        <v>602</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2856.3029</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-63405.93882373002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>604</v>
+      </c>
+      <c r="C133" t="n">
+        <v>600</v>
+      </c>
+      <c r="D133" t="n">
+        <v>604</v>
+      </c>
+      <c r="E133" t="n">
+        <v>600</v>
+      </c>
+      <c r="F133" t="n">
+        <v>645.3156</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-64051.25442373002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>604</v>
+      </c>
+      <c r="C134" t="n">
+        <v>604</v>
+      </c>
+      <c r="D134" t="n">
+        <v>604</v>
+      </c>
+      <c r="E134" t="n">
+        <v>604</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-64050.41442373003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>605</v>
+      </c>
+      <c r="C135" t="n">
+        <v>605</v>
+      </c>
+      <c r="D135" t="n">
+        <v>605</v>
+      </c>
+      <c r="E135" t="n">
+        <v>605</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-64049.58442373003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>605</v>
+      </c>
+      <c r="C136" t="n">
+        <v>605</v>
+      </c>
+      <c r="D136" t="n">
+        <v>605</v>
+      </c>
+      <c r="E136" t="n">
+        <v>605</v>
+      </c>
+      <c r="F136" t="n">
+        <v>870.1761</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-64049.58442373003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>606</v>
+      </c>
+      <c r="C137" t="n">
+        <v>606</v>
+      </c>
+      <c r="D137" t="n">
+        <v>606</v>
+      </c>
+      <c r="E137" t="n">
+        <v>606</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-64047.58442373003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>606</v>
+      </c>
+      <c r="C138" t="n">
+        <v>606</v>
+      </c>
+      <c r="D138" t="n">
+        <v>606</v>
+      </c>
+      <c r="E138" t="n">
+        <v>606</v>
+      </c>
+      <c r="F138" t="n">
+        <v>200</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-64047.58442373003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>606</v>
+      </c>
+      <c r="C139" t="n">
+        <v>606</v>
+      </c>
+      <c r="D139" t="n">
+        <v>606</v>
+      </c>
+      <c r="E139" t="n">
+        <v>606</v>
+      </c>
+      <c r="F139" t="n">
+        <v>487.9254</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-64047.58442373003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>614</v>
+      </c>
+      <c r="C140" t="n">
+        <v>614</v>
+      </c>
+      <c r="D140" t="n">
+        <v>614</v>
+      </c>
+      <c r="E140" t="n">
+        <v>614</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-64045.76442373003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>604</v>
+      </c>
+      <c r="C141" t="n">
+        <v>599</v>
+      </c>
+      <c r="D141" t="n">
+        <v>614</v>
+      </c>
+      <c r="E141" t="n">
+        <v>599</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-64050.58442373003</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>614</v>
+      </c>
+      <c r="C142" t="n">
+        <v>614</v>
+      </c>
+      <c r="D142" t="n">
+        <v>614</v>
+      </c>
+      <c r="E142" t="n">
+        <v>604</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-64047.94442373003</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>614</v>
+      </c>
+      <c r="C143" t="n">
+        <v>614</v>
+      </c>
+      <c r="D143" t="n">
+        <v>614</v>
+      </c>
+      <c r="E143" t="n">
+        <v>614</v>
+      </c>
+      <c r="F143" t="n">
+        <v>77.63460000000001</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-64047.94442373003</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>603</v>
+      </c>
+      <c r="C144" t="n">
+        <v>603</v>
+      </c>
+      <c r="D144" t="n">
+        <v>603</v>
+      </c>
+      <c r="E144" t="n">
+        <v>603</v>
+      </c>
+      <c r="F144" t="n">
+        <v>83.193</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-64131.13742373003</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>601</v>
+      </c>
+      <c r="C145" t="n">
+        <v>608</v>
+      </c>
+      <c r="D145" t="n">
+        <v>608</v>
+      </c>
+      <c r="E145" t="n">
+        <v>601</v>
+      </c>
+      <c r="F145" t="n">
+        <v>831.5014</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-63299.63602373003</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>610</v>
+      </c>
+      <c r="C146" t="n">
+        <v>610</v>
+      </c>
+      <c r="D146" t="n">
+        <v>610</v>
+      </c>
+      <c r="E146" t="n">
+        <v>610</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-63298.81602373003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>604</v>
+      </c>
+      <c r="C147" t="n">
+        <v>604</v>
+      </c>
+      <c r="D147" t="n">
+        <v>604</v>
+      </c>
+      <c r="E147" t="n">
+        <v>604</v>
+      </c>
+      <c r="F147" t="n">
+        <v>82.193</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-63381.00902373002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>610</v>
+      </c>
+      <c r="C148" t="n">
+        <v>610</v>
+      </c>
+      <c r="D148" t="n">
+        <v>610</v>
+      </c>
+      <c r="E148" t="n">
+        <v>610</v>
+      </c>
+      <c r="F148" t="n">
+        <v>90.9999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-63290.00912373002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>610</v>
+      </c>
+      <c r="C149" t="n">
+        <v>610</v>
+      </c>
+      <c r="D149" t="n">
+        <v>610</v>
+      </c>
+      <c r="E149" t="n">
+        <v>610</v>
+      </c>
+      <c r="F149" t="n">
+        <v>409</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-63290.00912373002</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>610</v>
+      </c>
+      <c r="C150" t="n">
+        <v>614</v>
+      </c>
+      <c r="D150" t="n">
+        <v>614</v>
+      </c>
+      <c r="E150" t="n">
+        <v>610</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-63289.18912373002</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>606</v>
+      </c>
+      <c r="C151" t="n">
+        <v>601</v>
+      </c>
+      <c r="D151" t="n">
+        <v>606</v>
+      </c>
+      <c r="E151" t="n">
+        <v>601</v>
+      </c>
+      <c r="F151" t="n">
+        <v>302.8777</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-63592.06682373002</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>609</v>
+      </c>
+      <c r="C152" t="n">
+        <v>608</v>
+      </c>
+      <c r="D152" t="n">
+        <v>609</v>
+      </c>
+      <c r="E152" t="n">
+        <v>606</v>
+      </c>
+      <c r="F152" t="n">
+        <v>753</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-62839.06682373002</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>608</v>
+      </c>
+      <c r="C153" t="n">
+        <v>608</v>
+      </c>
+      <c r="D153" t="n">
+        <v>608</v>
+      </c>
+      <c r="E153" t="n">
+        <v>608</v>
+      </c>
+      <c r="F153" t="n">
+        <v>66.14879999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-62839.06682373002</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>610</v>
+      </c>
+      <c r="C154" t="n">
+        <v>610</v>
+      </c>
+      <c r="D154" t="n">
+        <v>610</v>
+      </c>
+      <c r="E154" t="n">
+        <v>610</v>
+      </c>
+      <c r="F154" t="n">
+        <v>499.9999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-62339.06692373002</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>612</v>
+      </c>
+      <c r="C155" t="n">
+        <v>612</v>
+      </c>
+      <c r="D155" t="n">
+        <v>612</v>
+      </c>
+      <c r="E155" t="n">
+        <v>612</v>
+      </c>
+      <c r="F155" t="n">
+        <v>770.3203999999999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-61568.74652373002</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>612</v>
+      </c>
+      <c r="C156" t="n">
+        <v>612</v>
+      </c>
+      <c r="D156" t="n">
+        <v>612</v>
+      </c>
+      <c r="E156" t="n">
+        <v>612</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-61568.74652373002</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>604</v>
+      </c>
+      <c r="C157" t="n">
+        <v>604</v>
+      </c>
+      <c r="D157" t="n">
+        <v>604</v>
+      </c>
+      <c r="E157" t="n">
+        <v>604</v>
+      </c>
+      <c r="F157" t="n">
+        <v>105</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-61673.74652373002</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>606</v>
+      </c>
+      <c r="C158" t="n">
+        <v>606</v>
+      </c>
+      <c r="D158" t="n">
+        <v>606</v>
+      </c>
+      <c r="E158" t="n">
+        <v>606</v>
+      </c>
+      <c r="F158" t="n">
+        <v>317.1447</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>606</v>
+      </c>
+      <c r="C159" t="n">
+        <v>606</v>
+      </c>
+      <c r="D159" t="n">
+        <v>606</v>
+      </c>
+      <c r="E159" t="n">
+        <v>606</v>
+      </c>
+      <c r="F159" t="n">
+        <v>521</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>606</v>
+      </c>
+      <c r="C160" t="n">
+        <v>606</v>
+      </c>
+      <c r="D160" t="n">
+        <v>606</v>
+      </c>
+      <c r="E160" t="n">
+        <v>606</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1076.4411</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-61356.60182373002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>613</v>
+      </c>
+      <c r="C161" t="n">
+        <v>613</v>
+      </c>
+      <c r="D161" t="n">
+        <v>613</v>
+      </c>
+      <c r="E161" t="n">
+        <v>613</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-61351.60182373002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>612</v>
+      </c>
+      <c r="C162" t="n">
+        <v>613</v>
+      </c>
+      <c r="D162" t="n">
+        <v>613</v>
+      </c>
+      <c r="E162" t="n">
+        <v>612</v>
+      </c>
+      <c r="F162" t="n">
+        <v>118.93539151</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-61351.60182373002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>614</v>
+      </c>
+      <c r="C163" t="n">
+        <v>614</v>
+      </c>
+      <c r="D163" t="n">
+        <v>614</v>
+      </c>
+      <c r="E163" t="n">
+        <v>614</v>
+      </c>
+      <c r="F163" t="n">
+        <v>540.46</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-60811.14182373002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>615</v>
+      </c>
+      <c r="C164" t="n">
+        <v>615</v>
+      </c>
+      <c r="D164" t="n">
+        <v>615</v>
+      </c>
+      <c r="E164" t="n">
+        <v>615</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1537.3314</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-59273.81042373002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>615</v>
+      </c>
+      <c r="C165" t="n">
+        <v>615</v>
+      </c>
+      <c r="D165" t="n">
+        <v>615</v>
+      </c>
+      <c r="E165" t="n">
+        <v>615</v>
+      </c>
+      <c r="F165" t="n">
+        <v>528.2252</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-59273.81042373002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>615</v>
+      </c>
+      <c r="C166" t="n">
+        <v>616</v>
+      </c>
+      <c r="D166" t="n">
+        <v>616</v>
+      </c>
+      <c r="E166" t="n">
+        <v>615</v>
+      </c>
+      <c r="F166" t="n">
+        <v>241.9999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-59031.81052373002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>615</v>
+      </c>
+      <c r="C167" t="n">
+        <v>615</v>
+      </c>
+      <c r="D167" t="n">
+        <v>615</v>
+      </c>
+      <c r="E167" t="n">
+        <v>615</v>
+      </c>
+      <c r="F167" t="n">
+        <v>153.6043</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-59185.41482373002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>615</v>
+      </c>
+      <c r="C168" t="n">
+        <v>616</v>
+      </c>
+      <c r="D168" t="n">
+        <v>616</v>
+      </c>
+      <c r="E168" t="n">
+        <v>615</v>
+      </c>
+      <c r="F168" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-58854.91482373002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>617</v>
+      </c>
+      <c r="C169" t="n">
+        <v>617</v>
+      </c>
+      <c r="D169" t="n">
+        <v>617</v>
+      </c>
+      <c r="E169" t="n">
+        <v>617</v>
+      </c>
+      <c r="F169" t="n">
+        <v>66.17700000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-58788.73782373001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>617</v>
+      </c>
+      <c r="C170" t="n">
+        <v>618</v>
+      </c>
+      <c r="D170" t="n">
+        <v>618</v>
+      </c>
+      <c r="E170" t="n">
+        <v>617</v>
+      </c>
+      <c r="F170" t="n">
+        <v>85.0814</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-58703.65642373001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>618</v>
+      </c>
+      <c r="C171" t="n">
+        <v>618</v>
+      </c>
+      <c r="D171" t="n">
+        <v>618</v>
+      </c>
+      <c r="E171" t="n">
+        <v>618</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17.7713</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-58703.65642373001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>618</v>
+      </c>
+      <c r="C172" t="n">
+        <v>625</v>
+      </c>
+      <c r="D172" t="n">
+        <v>625</v>
+      </c>
+      <c r="E172" t="n">
+        <v>618</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1084.7241</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-57618.93232373001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>626</v>
+      </c>
+      <c r="C173" t="n">
+        <v>626</v>
+      </c>
+      <c r="D173" t="n">
+        <v>626</v>
+      </c>
+      <c r="E173" t="n">
+        <v>626</v>
+      </c>
+      <c r="F173" t="n">
+        <v>384.6125</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>626</v>
+      </c>
+      <c r="C174" t="n">
+        <v>626</v>
+      </c>
+      <c r="D174" t="n">
+        <v>626</v>
+      </c>
+      <c r="E174" t="n">
+        <v>626</v>
+      </c>
+      <c r="F174" t="n">
+        <v>40</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>626</v>
+      </c>
+      <c r="C175" t="n">
+        <v>626</v>
+      </c>
+      <c r="D175" t="n">
+        <v>626</v>
+      </c>
+      <c r="E175" t="n">
+        <v>626</v>
+      </c>
+      <c r="F175" t="n">
+        <v>184.4777</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-57234.31982373001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>618</v>
+      </c>
+      <c r="C176" t="n">
+        <v>618</v>
+      </c>
+      <c r="D176" t="n">
+        <v>618</v>
+      </c>
+      <c r="E176" t="n">
+        <v>618</v>
+      </c>
+      <c r="F176" t="n">
+        <v>237.644</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-57471.96382373001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>626</v>
+      </c>
+      <c r="C177" t="n">
+        <v>626</v>
+      </c>
+      <c r="D177" t="n">
+        <v>626</v>
+      </c>
+      <c r="E177" t="n">
+        <v>626</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-57470.96382373001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>624</v>
+      </c>
+      <c r="C178" t="n">
+        <v>620</v>
+      </c>
+      <c r="D178" t="n">
+        <v>624</v>
+      </c>
+      <c r="E178" t="n">
+        <v>620</v>
+      </c>
+      <c r="F178" t="n">
+        <v>829.6878</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-58300.65162373001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>626</v>
+      </c>
+      <c r="C179" t="n">
+        <v>626</v>
+      </c>
+      <c r="D179" t="n">
+        <v>626</v>
+      </c>
+      <c r="E179" t="n">
+        <v>626</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-58299.85162373001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>626</v>
+      </c>
+      <c r="C180" t="n">
+        <v>629</v>
+      </c>
+      <c r="D180" t="n">
+        <v>629</v>
+      </c>
+      <c r="E180" t="n">
+        <v>626</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1063.76993656</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>629</v>
+      </c>
+      <c r="C181" t="n">
+        <v>629</v>
+      </c>
+      <c r="D181" t="n">
+        <v>629</v>
+      </c>
+      <c r="E181" t="n">
+        <v>622</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1343.6104</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>629</v>
+      </c>
+      <c r="C182" t="n">
+        <v>629</v>
+      </c>
+      <c r="D182" t="n">
+        <v>629</v>
+      </c>
+      <c r="E182" t="n">
+        <v>629</v>
+      </c>
+      <c r="F182" t="n">
+        <v>33.1038</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>622</v>
+      </c>
+      <c r="C183" t="n">
+        <v>629</v>
+      </c>
+      <c r="D183" t="n">
+        <v>629</v>
+      </c>
+      <c r="E183" t="n">
+        <v>622</v>
+      </c>
+      <c r="F183" t="n">
+        <v>212.153</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-57236.08168717001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>621</v>
+      </c>
+      <c r="C184" t="n">
+        <v>621</v>
+      </c>
+      <c r="D184" t="n">
+        <v>621</v>
+      </c>
+      <c r="E184" t="n">
+        <v>621</v>
+      </c>
+      <c r="F184" t="n">
+        <v>427</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-57663.08168717001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>625</v>
+      </c>
+      <c r="C185" t="n">
+        <v>625</v>
+      </c>
+      <c r="D185" t="n">
+        <v>625</v>
+      </c>
+      <c r="E185" t="n">
+        <v>625</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-57662.08168717001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>626</v>
+      </c>
+      <c r="C186" t="n">
+        <v>626</v>
+      </c>
+      <c r="D186" t="n">
+        <v>626</v>
+      </c>
+      <c r="E186" t="n">
+        <v>626</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-57661.28168717001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>624</v>
+      </c>
+      <c r="C187" t="n">
+        <v>618</v>
+      </c>
+      <c r="D187" t="n">
+        <v>624</v>
+      </c>
+      <c r="E187" t="n">
+        <v>618</v>
+      </c>
+      <c r="F187" t="n">
+        <v>615</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-58276.28168717001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-16981.4543</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,19 @@
         <v>-17504.7652</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>590</v>
+      </c>
+      <c r="J8" t="n">
+        <v>590</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +686,23 @@
         <v>-17503.7652</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="J9" t="n">
+        <v>590</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +727,23 @@
         <v>-17782.2647</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J10" t="n">
+        <v>590</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +768,19 @@
         <v>-17781.4147</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="J11" t="n">
+        <v>591</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +805,23 @@
         <v>-17780.56470000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J12" t="n">
+        <v>591</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +846,23 @@
         <v>-18095.21620000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>591</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +887,23 @@
         <v>-19383.22700000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="J14" t="n">
+        <v>591</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +928,23 @@
         <v>-19603.22700000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>586</v>
+      </c>
+      <c r="J15" t="n">
+        <v>591</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,22 +969,23 @@
         <v>-19793.22700000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J16" t="n">
-        <v>585</v>
-      </c>
-      <c r="K16" t="n">
-        <v>585</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1000,26 +1010,23 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J17" t="n">
-        <v>583</v>
-      </c>
-      <c r="K17" t="n">
-        <v>585</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1044,26 +1051,23 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J18" t="n">
-        <v>584</v>
-      </c>
-      <c r="K18" t="n">
-        <v>585</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1088,18 +1092,23 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>590</v>
+      </c>
+      <c r="J19" t="n">
+        <v>591</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,18 +1133,23 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>590</v>
+      </c>
+      <c r="J20" t="n">
+        <v>591</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,18 +1174,23 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J21" t="n">
+        <v>591</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,18 +1215,23 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J22" t="n">
+        <v>591</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,18 +1256,23 @@
         <v>-18044.81302373001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="J23" t="n">
+        <v>591</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,18 +1297,23 @@
         <v>-18004.81302373001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="J24" t="n">
+        <v>591</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,18 +1338,23 @@
         <v>-22937.84172373001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="J25" t="n">
+        <v>591</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1381,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>591</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1420,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>591</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,18 +1457,21 @@
         <v>-22339.50152373001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>591</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,18 +1496,21 @@
         <v>-22338.64152373001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>591</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1537,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>591</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1576,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>591</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1615,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>591</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1654,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>591</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,18 +1691,21 @@
         <v>-21742.74152373</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>591</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1732,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>591</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1771,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>591</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,18 +1808,21 @@
         <v>-21938.65052373</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>591</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,18 +1847,21 @@
         <v>-22080.27412373</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>591</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.016996615905245</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1808,18 +1886,15 @@
         <v>-22079.27412373</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1844,18 +1919,15 @@
         <v>-22913.05102373</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,18 +1952,15 @@
         <v>-22257.05102373</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1916,18 +1985,15 @@
         <v>-22110.59712373</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,18 +2018,15 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,18 +2051,15 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +2086,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +2119,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +2152,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +2185,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,18 +2216,15 @@
         <v>-24853.73242373001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2251,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2284,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2317,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,18 +2348,15 @@
         <v>-29134.75422373001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2383,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2384,18 +2414,15 @@
         <v>-28074.54792373001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,18 +2447,15 @@
         <v>-27088.54972373001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,18 +2480,15 @@
         <v>-29310.35632373001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2492,18 +2513,15 @@
         <v>-29044.93602373001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2528,18 +2546,15 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2581,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,18 +2612,15 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2647,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2672,18 +2678,15 @@
         <v>-27847.25602373001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,18 +2711,15 @@
         <v>-27910.91982373</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,18 +2744,15 @@
         <v>-27910.07982373</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,18 +2777,15 @@
         <v>-27972.90372373</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2812,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,18 +2843,15 @@
         <v>-27971.05372373001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2878,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2911,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +2944,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,16 +2977,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +3010,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +3043,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +3076,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +3109,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,16 +3142,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +3175,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,18 +3206,19 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>586</v>
+      </c>
+      <c r="J79" t="n">
+        <v>586</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3245,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>586</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,18 +3282,23 @@
         <v>-39729.54062373</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>589</v>
+      </c>
+      <c r="J81" t="n">
+        <v>586</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3325,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3358,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,16 +3391,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3424,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3457,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3490,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3523,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3556,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3589,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3622,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3655,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +3688,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +3721,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +3754,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,24 +3785,15 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3902,24 +3818,15 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3944,24 +3851,15 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3986,24 +3884,15 @@
         <v>-52474.00142373001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4028,24 +3917,19 @@
         <v>-52483.74342373</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J100" t="n">
         <v>588</v>
       </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4070,24 +3954,21 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>578</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,24 +3993,23 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J102" t="n">
         <v>588</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4154,24 +4034,15 @@
         <v>-52482.03342373</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4198,20 +4069,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4238,20 +4102,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4278,20 +4135,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4316,22 +4166,19 @@
         <v>-51129.98142373001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="J107" t="n">
+        <v>593</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4356,22 +4203,23 @@
         <v>-52535.85452373001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="J108" t="n">
+        <v>593</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4398,20 +4246,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>593</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4438,20 +4285,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>593</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4478,20 +4324,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>593</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4516,24 +4361,21 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>588</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4558,24 +4400,21 @@
         <v>-54705.13142373001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>588</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4600,24 +4439,21 @@
         <v>-54704.28142373001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>586</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4644,20 +4480,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>593</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4684,20 +4519,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>593</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4724,20 +4558,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>593</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4764,20 +4597,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>593</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4802,22 +4634,23 @@
         <v>-56052.44102373001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="J119" t="n">
+        <v>593</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4842,24 +4675,21 @@
         <v>-56051.56102373001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>588</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4884,24 +4714,21 @@
         <v>-56051.56102373001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>590</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4926,24 +4753,21 @@
         <v>-55776.35742373001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>590</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4968,24 +4792,23 @@
         <v>-55775.50742373001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J123" t="n">
-        <v>591</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5010,22 +4833,23 @@
         <v>-55774.65742373002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="J124" t="n">
+        <v>593</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5050,22 +4874,23 @@
         <v>-63330.16732373001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>594</v>
+      </c>
+      <c r="J125" t="n">
+        <v>593</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5092,20 +4917,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>593</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5132,20 +4956,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>593</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5172,20 +4995,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>593</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5210,24 +5032,21 @@
         <v>-64574.99242373002</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>600</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5254,20 +5073,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>593</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5292,22 +5110,23 @@
         <v>-66262.24172373003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>603</v>
+      </c>
+      <c r="J131" t="n">
+        <v>593</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5334,20 +5153,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>593</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5372,22 +5190,23 @@
         <v>-64051.25442373002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>603</v>
+      </c>
+      <c r="J133" t="n">
+        <v>593</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5414,20 +5233,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>593</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5454,20 +5272,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>593</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5494,20 +5311,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>593</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5534,20 +5350,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>593</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5574,20 +5389,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>593</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5612,22 +5426,23 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>606</v>
+      </c>
+      <c r="J139" t="n">
+        <v>593</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5652,22 +5467,23 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>606</v>
+      </c>
+      <c r="J140" t="n">
+        <v>593</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5694,20 +5510,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>593</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5732,22 +5547,23 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>599</v>
+      </c>
+      <c r="J142" t="n">
+        <v>593</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5772,22 +5588,23 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>614</v>
+      </c>
+      <c r="J143" t="n">
+        <v>593</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5812,22 +5629,23 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>614</v>
+      </c>
+      <c r="J144" t="n">
+        <v>593</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5852,22 +5670,23 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>603</v>
+      </c>
+      <c r="J145" t="n">
+        <v>593</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5892,22 +5711,23 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>608</v>
+      </c>
+      <c r="J146" t="n">
+        <v>593</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5934,20 +5754,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>593</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5972,22 +5791,23 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>604</v>
+      </c>
+      <c r="J148" t="n">
+        <v>593</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6012,22 +5832,23 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="J149" t="n">
+        <v>593</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6054,20 +5875,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>593</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6094,20 +5914,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>593</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6134,20 +5953,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>593</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6174,20 +5992,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>593</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6214,20 +6031,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>593</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6254,20 +6070,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>593</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6294,20 +6109,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>593</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6334,20 +6148,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>593</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6374,20 +6187,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>593</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6414,20 +6226,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>593</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6454,20 +6265,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>593</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6494,20 +6304,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>593</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6534,20 +6343,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>593</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6574,20 +6382,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>593</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6614,20 +6421,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>593</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6654,20 +6460,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>593</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6694,20 +6499,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>593</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6734,20 +6538,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>593</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6774,20 +6577,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>593</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6814,20 +6616,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>593</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6854,20 +6655,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>593</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6894,20 +6694,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>593</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6934,20 +6733,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>593</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6972,22 +6770,23 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>593</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.050649241146712</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>1.053726169844021</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7012,22 +6811,15 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7052,22 +6844,15 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7092,22 +6877,15 @@
         <v>-57471.96382373001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7132,22 +6910,15 @@
         <v>-57470.96382373001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7172,22 +6943,15 @@
         <v>-58300.65162373001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7212,22 +6976,15 @@
         <v>-58299.85162373001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7252,22 +7009,15 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7292,22 +7042,15 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7332,22 +7075,15 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7372,22 +7108,15 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7412,22 +7141,15 @@
         <v>-57663.08168717001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7452,22 +7174,15 @@
         <v>-57662.08168717001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7492,22 +7207,15 @@
         <v>-57661.28168717001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7532,24 +7240,17 @@
         <v>-58276.28168717001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16981.4543</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17404.9752</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17404.1152</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-17414.1152</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16878.7652</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17561.7652</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -651,12 +651,8 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>590</v>
-      </c>
-      <c r="J8" t="n">
-        <v>590</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -688,17 +684,9 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>591</v>
-      </c>
-      <c r="J9" t="n">
-        <v>590</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -729,17 +717,9 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>592</v>
-      </c>
-      <c r="J10" t="n">
-        <v>590</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -770,12 +750,8 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>591</v>
-      </c>
-      <c r="J11" t="n">
-        <v>591</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -807,17 +783,9 @@
       <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>592</v>
-      </c>
-      <c r="J12" t="n">
-        <v>591</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,17 +816,9 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>595</v>
-      </c>
-      <c r="J13" t="n">
-        <v>591</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,19 +847,11 @@
         <v>-19383.22700000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>587</v>
-      </c>
-      <c r="J14" t="n">
-        <v>591</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -928,19 +880,11 @@
         <v>-19603.22700000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>586</v>
-      </c>
-      <c r="J15" t="n">
-        <v>591</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,19 +913,11 @@
         <v>-19793.22700000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>585</v>
-      </c>
-      <c r="J16" t="n">
-        <v>591</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,19 +946,11 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>583</v>
-      </c>
-      <c r="J17" t="n">
-        <v>591</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1051,19 +979,11 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>584</v>
-      </c>
-      <c r="J18" t="n">
-        <v>591</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,19 +1012,11 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>590</v>
-      </c>
-      <c r="J19" t="n">
-        <v>591</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,19 +1045,11 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>590</v>
-      </c>
-      <c r="J20" t="n">
-        <v>591</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,17 +1080,9 @@
       <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>592</v>
-      </c>
-      <c r="J21" t="n">
-        <v>591</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1215,19 +1111,11 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>592</v>
-      </c>
-      <c r="J22" t="n">
-        <v>591</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1258,17 +1146,9 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>593</v>
-      </c>
-      <c r="J23" t="n">
-        <v>591</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,19 +1177,11 @@
         <v>-18004.81302373001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>587</v>
-      </c>
-      <c r="J24" t="n">
-        <v>591</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1340,17 +1212,9 @@
       <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>593</v>
-      </c>
-      <c r="J25" t="n">
-        <v>591</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1379,17 +1243,11 @@
         <v>-22715.86132373001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>591</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1418,17 +1276,11 @@
         <v>-22339.50152373001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>591</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1457,17 +1309,11 @@
         <v>-22339.50152373001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>591</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1496,17 +1342,11 @@
         <v>-22338.64152373001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>591</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,17 +1375,11 @@
         <v>-22285.74152373</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>591</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1408,11 @@
         <v>-22285.74152373</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>591</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1441,11 @@
         <v>-21743.74152373</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>591</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,17 +1474,11 @@
         <v>-21742.74152373</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>591</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1691,17 +1507,11 @@
         <v>-21742.74152373</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>591</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,17 +1540,11 @@
         <v>-22181.76872373001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>591</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1769,17 +1573,11 @@
         <v>-21938.65052373</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>591</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1808,17 +1606,11 @@
         <v>-21938.65052373</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>591</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1847,19 +1639,13 @@
         <v>-22080.27412373</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>591</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.016996615905245</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1886,7 +1672,7 @@
         <v>-22079.27412373</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1919,7 +1705,7 @@
         <v>-22913.05102373</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1952,7 +1738,7 @@
         <v>-22257.05102373</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1985,7 +1771,7 @@
         <v>-22110.59712373</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2018,7 +1804,7 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2051,7 +1837,7 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2117,7 +1903,7 @@
         <v>-22305.89492373</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2183,7 +1969,7 @@
         <v>-27624.62962373</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2216,7 +2002,7 @@
         <v>-24853.73242373001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2348,7 +2134,7 @@
         <v>-29134.75422373001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2414,7 +2200,7 @@
         <v>-28074.54792373001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2447,7 +2233,7 @@
         <v>-27088.54972373001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2480,7 +2266,7 @@
         <v>-29310.35632373001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2513,7 +2299,7 @@
         <v>-29044.93602373001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2546,7 +2332,7 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2612,7 +2398,7 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2678,7 +2464,7 @@
         <v>-27847.25602373001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2711,7 +2497,7 @@
         <v>-27910.91982373</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2744,7 +2530,7 @@
         <v>-27910.07982373</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2777,7 +2563,7 @@
         <v>-27972.90372373</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2843,7 +2629,7 @@
         <v>-27971.05372373001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3206,14 +2992,10 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>586</v>
-      </c>
-      <c r="J79" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3246,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>586</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3282,19 +3058,11 @@
         <v>-39729.54062373</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>589</v>
-      </c>
-      <c r="J81" t="n">
-        <v>586</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3884,10 +3652,14 @@
         <v>-52474.00142373001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>580</v>
+      </c>
+      <c r="J99" t="n">
+        <v>580</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3917,15 +3689,19 @@
         <v>-52483.74342373</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>588</v>
       </c>
       <c r="J100" t="n">
-        <v>588</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +3730,13 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>578</v>
+      </c>
       <c r="J101" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3993,19 +3771,11 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>588</v>
-      </c>
-      <c r="J102" t="n">
-        <v>588</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3936,10 @@
         <v>-51129.98142373001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>593</v>
-      </c>
-      <c r="J107" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -4203,214 +3969,186 @@
         <v>-52535.85452373001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>591</v>
-      </c>
-      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>589</v>
+      </c>
+      <c r="C109" t="n">
         <v>593</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="D109" t="n">
+        <v>593</v>
+      </c>
+      <c r="E109" t="n">
+        <v>589</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-52525.00452373001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>588</v>
+      </c>
+      <c r="C110" t="n">
+        <v>588</v>
+      </c>
+      <c r="D110" t="n">
+        <v>589</v>
+      </c>
+      <c r="E110" t="n">
+        <v>588</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1974.0337</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-54499.03822373001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>589</v>
+      </c>
+      <c r="C111" t="n">
+        <v>588</v>
+      </c>
+      <c r="D111" t="n">
+        <v>589</v>
+      </c>
+      <c r="E111" t="n">
+        <v>588</v>
+      </c>
+      <c r="F111" t="n">
+        <v>819.5886</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-54499.03822373001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>588</v>
+      </c>
+      <c r="C112" t="n">
+        <v>588</v>
+      </c>
+      <c r="D112" t="n">
+        <v>588</v>
+      </c>
+      <c r="E112" t="n">
+        <v>588</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22.9707</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-54499.03822373001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>588</v>
+      </c>
+      <c r="J112" t="n">
+        <v>588</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>586</v>
+      </c>
+      <c r="C113" t="n">
+        <v>586</v>
+      </c>
+      <c r="D113" t="n">
+        <v>586</v>
+      </c>
+      <c r="E113" t="n">
+        <v>586</v>
+      </c>
+      <c r="F113" t="n">
+        <v>206.0932</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-54705.13142373001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>588</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>589</v>
-      </c>
-      <c r="C109" t="n">
-        <v>593</v>
-      </c>
-      <c r="D109" t="n">
-        <v>593</v>
-      </c>
-      <c r="E109" t="n">
-        <v>589</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-52525.00452373001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>593</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>588</v>
-      </c>
-      <c r="C110" t="n">
-        <v>588</v>
-      </c>
-      <c r="D110" t="n">
-        <v>589</v>
-      </c>
-      <c r="E110" t="n">
-        <v>588</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1974.0337</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>593</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>589</v>
-      </c>
-      <c r="C111" t="n">
-        <v>588</v>
-      </c>
-      <c r="D111" t="n">
-        <v>589</v>
-      </c>
-      <c r="E111" t="n">
-        <v>588</v>
-      </c>
-      <c r="F111" t="n">
-        <v>819.5886</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>593</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>588</v>
-      </c>
-      <c r="C112" t="n">
-        <v>588</v>
-      </c>
-      <c r="D112" t="n">
-        <v>588</v>
-      </c>
-      <c r="E112" t="n">
-        <v>588</v>
-      </c>
-      <c r="F112" t="n">
-        <v>22.9707</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>593</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>586</v>
-      </c>
-      <c r="C113" t="n">
-        <v>586</v>
-      </c>
-      <c r="D113" t="n">
-        <v>586</v>
-      </c>
-      <c r="E113" t="n">
-        <v>586</v>
-      </c>
-      <c r="F113" t="n">
-        <v>206.0932</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-54705.13142373001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>593</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4181,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4481,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>593</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4520,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>593</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4559,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>593</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4598,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>593</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4634,19 +4348,11 @@
         <v>-56052.44102373001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>587</v>
-      </c>
-      <c r="J119" t="n">
-        <v>593</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4675,17 +4381,15 @@
         <v>-56051.56102373001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>588</v>
+      </c>
       <c r="J120" t="n">
-        <v>593</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4422,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4757,11 +4461,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4792,19 +4496,11 @@
         <v>-55775.50742373001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>591</v>
-      </c>
-      <c r="J123" t="n">
-        <v>593</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4833,19 +4529,11 @@
         <v>-55774.65742373002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>593</v>
-      </c>
-      <c r="J124" t="n">
-        <v>593</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4874,19 +4562,11 @@
         <v>-63330.16732373001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>594</v>
-      </c>
-      <c r="J125" t="n">
-        <v>593</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4918,14 +4598,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>593</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4631,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>593</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>593</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>593</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5074,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>593</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5110,19 +4760,11 @@
         <v>-66262.24172373003</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>603</v>
-      </c>
-      <c r="J131" t="n">
-        <v>593</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>593</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5190,19 +4826,11 @@
         <v>-64051.25442373002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>603</v>
-      </c>
-      <c r="J133" t="n">
-        <v>593</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>593</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4895,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>593</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>593</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +4961,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>593</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4994,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>593</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5426,19 +5024,11 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>606</v>
-      </c>
-      <c r="J139" t="n">
-        <v>593</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5467,19 +5057,11 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>606</v>
-      </c>
-      <c r="J140" t="n">
-        <v>593</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>593</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5547,19 +5123,11 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>599</v>
-      </c>
-      <c r="J142" t="n">
-        <v>593</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5588,19 +5156,11 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>614</v>
-      </c>
-      <c r="J143" t="n">
-        <v>593</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5629,19 +5189,11 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>614</v>
-      </c>
-      <c r="J144" t="n">
-        <v>593</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5670,19 +5222,11 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>603</v>
-      </c>
-      <c r="J145" t="n">
-        <v>593</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5711,19 +5255,11 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>608</v>
-      </c>
-      <c r="J146" t="n">
-        <v>593</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5755,14 +5291,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>593</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5791,19 +5321,11 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>604</v>
-      </c>
-      <c r="J148" t="n">
-        <v>593</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5832,19 +5354,11 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>610</v>
-      </c>
-      <c r="J149" t="n">
-        <v>593</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5876,14 +5390,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>593</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5915,14 +5423,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>593</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5954,14 +5456,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>593</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5993,14 +5489,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>593</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6029,17 +5519,15 @@
         <v>-62339.06692373002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>608</v>
+      </c>
       <c r="J154" t="n">
-        <v>593</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +5560,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -6111,11 +5599,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -6149,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>593</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6188,14 +5670,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>593</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6227,14 +5703,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>593</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6266,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>593</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6305,14 +5769,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>593</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6344,14 +5802,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>593</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>593</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6422,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>593</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6461,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>593</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6500,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>593</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6539,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>593</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6578,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>593</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6617,14 +6033,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>593</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6656,14 +6066,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>593</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +6099,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>593</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6734,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>593</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6770,23 +6162,15 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>593</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>1.050649241146712</v>
-      </c>
-      <c r="M173" t="n">
-        <v>1.053726169844021</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6811,7 +6195,7 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6844,7 +6228,7 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6877,7 +6261,7 @@
         <v>-57471.96382373001</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6910,7 +6294,7 @@
         <v>-57470.96382373001</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6943,7 +6327,7 @@
         <v>-58300.65162373001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6976,7 +6360,7 @@
         <v>-58299.85162373001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7009,7 +6393,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7042,7 +6426,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7075,7 +6459,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7108,7 +6492,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7141,7 +6525,7 @@
         <v>-57663.08168717001</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7174,7 +6558,7 @@
         <v>-57662.08168717001</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7207,7 +6591,7 @@
         <v>-57661.28168717001</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7240,7 +6624,7 @@
         <v>-58276.28168717001</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7251,6 +6635,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16981.4543</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17404.9752</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17404.1152</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-17414.1152</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16878.7652</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17561.7652</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-17504.7652</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-17503.7652</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-17782.2647</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-17781.4147</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-17780.56470000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-18095.21620000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,10 +946,14 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>583</v>
+      </c>
+      <c r="J17" t="n">
+        <v>583</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +983,19 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>584</v>
+      </c>
+      <c r="J18" t="n">
+        <v>583</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1027,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>583</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1078,10 +1096,14 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>592</v>
+      </c>
+      <c r="J21" t="n">
+        <v>592</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1133,19 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>592</v>
+      </c>
+      <c r="J22" t="n">
+        <v>592</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1174,17 @@
         <v>-18044.81302373001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>592</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>-22937.84172373001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1279,7 @@
         <v>-22715.86132373001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1312,7 @@
         <v>-22339.50152373001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1411,7 @@
         <v>-22285.74152373</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1444,7 @@
         <v>-22285.74152373</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1477,7 @@
         <v>-21743.74152373</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1510,7 @@
         <v>-21742.74152373</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1543,7 @@
         <v>-21742.74152373</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1576,7 @@
         <v>-22181.76872373001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1609,7 @@
         <v>-21938.65052373</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1642,7 @@
         <v>-21938.65052373</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1675,7 @@
         <v>-22080.27412373</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1708,7 @@
         <v>-22079.27412373</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1741,7 @@
         <v>-22913.05102373</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1774,7 @@
         <v>-22257.05102373</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1807,7 @@
         <v>-22110.59712373</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1840,7 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1873,7 @@
         <v>-22246.59492373</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1939,7 @@
         <v>-22305.89492373</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +2005,7 @@
         <v>-27624.62962373</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2332,10 +2368,14 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>588</v>
+      </c>
+      <c r="J59" t="n">
+        <v>588</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2365,11 +2405,19 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>589</v>
+      </c>
+      <c r="J60" t="n">
+        <v>588</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2449,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>588</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +2980,14 @@
         <v>-40959.45042373001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>583</v>
+      </c>
+      <c r="J77" t="n">
+        <v>583</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2959,11 +3017,19 @@
         <v>-40293.45042373001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>585</v>
+      </c>
+      <c r="J78" t="n">
+        <v>583</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3058,19 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>586</v>
+      </c>
+      <c r="J79" t="n">
+        <v>583</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3297,17 @@
         <v>-52683.47782373001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>584</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3340,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3377,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3414,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3451,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3488,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3525,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3562,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3599,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3636,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3673,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3710,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3747,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,15 +3780,15 @@
         <v>-52474.00142373001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>580</v>
-      </c>
-      <c r="J99" t="n">
-        <v>580</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,17 +3817,13 @@
         <v>-52483.74342373</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>588</v>
-      </c>
-      <c r="J100" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3735,12 +3859,10 @@
       <c r="I101" t="n">
         <v>578</v>
       </c>
-      <c r="J101" t="n">
-        <v>580</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3771,11 +3893,17 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>588</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3808,7 +3936,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3841,7 +3973,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3874,7 +4010,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3907,7 +4047,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3940,7 +4084,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3973,7 +4121,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4006,7 +4158,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4039,7 +4195,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4072,7 +4232,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,15 +4265,15 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>588</v>
-      </c>
-      <c r="J112" t="n">
-        <v>588</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4141,12 +4305,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>588</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4180,12 +4342,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>588</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4220,7 +4380,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4253,7 +4417,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4450,17 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>586</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4489,17 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>587</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4528,17 @@
         <v>-56052.44102373001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>587</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4386,10 +4572,12 @@
       <c r="I120" t="n">
         <v>588</v>
       </c>
-      <c r="J120" t="n">
-        <v>588</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4418,15 +4606,15 @@
         <v>-56051.56102373001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>588</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>590</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4457,15 +4645,15 @@
         <v>-55776.35742373001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>588</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>590</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4496,11 +4684,17 @@
         <v>-55775.50742373001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>591</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +4723,17 @@
         <v>-55774.65742373002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>593</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4762,17 @@
         <v>-63330.16732373001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>594</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4599,7 +4805,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4632,7 +4842,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4875,17 @@
         <v>-62977.48732373002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>598</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4698,7 +4918,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4731,7 +4955,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4992,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4797,7 +5029,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4830,7 +5066,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,7 +5103,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4896,7 +5140,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +5173,16 @@
         <v>-64049.58442373003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -4958,7 +5208,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4991,7 +5241,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5024,7 +5274,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5057,7 +5307,7 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5090,7 +5340,7 @@
         <v>-64050.58442373003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5123,7 +5373,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5156,7 +5406,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5189,7 +5439,7 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5222,7 +5472,7 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5255,7 +5505,7 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5288,7 +5538,7 @@
         <v>-63381.00902373002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5321,7 +5571,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5354,7 +5604,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5519,14 +5769,10 @@
         <v>-62339.06692373002</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>608</v>
-      </c>
-      <c r="J154" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5559,14 +5805,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>608</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +5838,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>608</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6635,6 +6869,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -946,14 +946,10 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>583</v>
-      </c>
-      <c r="J17" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>584</v>
-      </c>
-      <c r="J18" t="n">
-        <v>583</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1027,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>583</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1096,14 +1078,10 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>592</v>
-      </c>
-      <c r="J21" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1133,19 +1111,11 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>592</v>
-      </c>
-      <c r="J22" t="n">
-        <v>592</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1177,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>592</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -2368,14 +2332,10 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>588</v>
-      </c>
-      <c r="J59" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2405,19 +2365,11 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>589</v>
-      </c>
-      <c r="J60" t="n">
-        <v>588</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>588</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2980,14 +2926,10 @@
         <v>-40959.45042373001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>583</v>
-      </c>
-      <c r="J77" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3017,19 +2959,11 @@
         <v>-40293.45042373001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>585</v>
-      </c>
-      <c r="J78" t="n">
-        <v>583</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3058,19 +2992,11 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>586</v>
-      </c>
-      <c r="J79" t="n">
-        <v>583</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3297,17 +3223,11 @@
         <v>-52683.47782373001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3414,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3451,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3488,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3525,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3562,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3599,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3636,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3710,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3854,17 +3718,11 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3898,12 +3756,10 @@
       <c r="I102" t="n">
         <v>588</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="n">
+        <v>588</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3932,13 +3788,17 @@
         <v>-52482.03342373</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>588</v>
+      </c>
+      <c r="J103" t="n">
+        <v>588</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3972,10 +3832,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>588</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4010,11 +3872,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +3905,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +3938,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +3971,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4158,11 +4004,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4195,11 +4037,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4228,13 +4066,15 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>588</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4302,9 +4142,11 @@
         <v>-54705.13142373001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>588</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4339,9 +4181,11 @@
         <v>-54704.28142373001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>586</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4450,11 +4294,9 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4489,11 +4331,9 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4875,11 +4715,9 @@
         <v>-62977.48732373002</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4914,9 +4752,11 @@
         <v>-64574.99242373002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>600</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4951,9 +4791,11 @@
         <v>-64574.16242373002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>591</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4988,9 +4830,11 @@
         <v>-66262.24172373003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>603</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5173,16 +5017,18 @@
         <v>-64049.58442373003</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5208,11 +5054,15 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5241,11 +5091,17 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>606</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5130,17 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>606</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5169,17 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>606</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5208,17 @@
         <v>-64050.58442373003</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>614</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +5247,17 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>599</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5286,17 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>614</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +5325,15 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +5362,17 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>603</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5401,17 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>608</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5440,17 @@
         <v>-63381.00902373002</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>610</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5479,17 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>604</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5518,17 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>610</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5641,7 +5561,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +5598,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +5631,17 @@
         <v>-62839.06682373002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>601</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +5674,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5773,7 +5711,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +5748,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5839,7 +5785,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +5822,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5905,7 +5859,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5892,17 @@
         <v>-61356.60182373002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>606</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +5931,17 @@
         <v>-61356.60182373002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>606</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6004,7 +5974,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6037,7 +6011,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6070,7 +6048,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6103,7 +6085,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6136,7 +6122,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +6159,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6202,7 +6196,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6235,7 +6233,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6270,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +6307,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +6344,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6367,7 +6381,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6400,7 +6418,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6429,14 +6451,16 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6561,7 +6585,7 @@
         <v>-58300.65162373001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6660,7 +6684,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6693,7 +6717,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6726,7 +6750,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6759,7 +6783,7 @@
         <v>-57663.08168717001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6792,7 +6816,7 @@
         <v>-57662.08168717001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6825,7 +6849,7 @@
         <v>-57661.28168717001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6858,7 +6882,7 @@
         <v>-58276.28168717001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest GXC.xlsx
+++ b/BackTest/2019-11-20 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1137.6855</v>
       </c>
       <c r="G2" t="n">
-        <v>-16981.4543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>423.5209</v>
       </c>
       <c r="G3" t="n">
-        <v>-17404.9752</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.86</v>
       </c>
       <c r="G4" t="n">
-        <v>-17404.1152</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-17414.1152</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>535.35</v>
       </c>
       <c r="G6" t="n">
-        <v>-16878.7652</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>683</v>
       </c>
       <c r="G7" t="n">
-        <v>-17561.7652</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>57</v>
       </c>
       <c r="G8" t="n">
-        <v>-17504.7652</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-17503.7652</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>278.4995</v>
       </c>
       <c r="G10" t="n">
-        <v>-17782.2647</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>-17781.4147</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.85</v>
       </c>
       <c r="G12" t="n">
-        <v>-17780.56470000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>314.6515</v>
       </c>
       <c r="G13" t="n">
-        <v>-18095.21620000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1288.0108</v>
       </c>
       <c r="G14" t="n">
-        <v>-19383.22700000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>220</v>
       </c>
       <c r="G15" t="n">
-        <v>-19603.22700000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>190</v>
       </c>
       <c r="G16" t="n">
-        <v>-19793.22700000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>53.8231</v>
       </c>
       <c r="G17" t="n">
-        <v>-19739.4039</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,19 @@
         <v>8.47457627</v>
       </c>
       <c r="G18" t="n">
-        <v>-19730.92932373</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>584</v>
+      </c>
+      <c r="I18" t="n">
+        <v>584</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +957,21 @@
         <v>33.3528</v>
       </c>
       <c r="G19" t="n">
-        <v>-19730.92932373</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>584</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +993,21 @@
         <v>43.3586</v>
       </c>
       <c r="G20" t="n">
-        <v>-19687.57072373</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>584</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>115.5154</v>
       </c>
       <c r="G21" t="n">
-        <v>-19687.57072373</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>3017.5284</v>
       </c>
       <c r="G22" t="n">
-        <v>-16670.04232373001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>1374.7707</v>
       </c>
       <c r="G23" t="n">
-        <v>-18044.81302373001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,19 @@
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>-18004.81302373001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>587</v>
+      </c>
+      <c r="I24" t="n">
+        <v>587</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1153,21 @@
         <v>4933.0287</v>
       </c>
       <c r="G25" t="n">
-        <v>-22937.84172373001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>587</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1189,21 @@
         <v>221.9804</v>
       </c>
       <c r="G26" t="n">
-        <v>-22715.86132373001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>587</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1225,15 @@
         <v>376.3598</v>
       </c>
       <c r="G27" t="n">
-        <v>-22339.50152373001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1255,15 @@
         <v>466.8259</v>
       </c>
       <c r="G28" t="n">
-        <v>-22339.50152373001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1285,15 @@
         <v>0.86</v>
       </c>
       <c r="G29" t="n">
-        <v>-22338.64152373001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1315,15 @@
         <v>52.9</v>
       </c>
       <c r="G30" t="n">
-        <v>-22285.74152373</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1345,15 @@
         <v>0.778</v>
       </c>
       <c r="G31" t="n">
-        <v>-22285.74152373</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1375,15 @@
         <v>542</v>
       </c>
       <c r="G32" t="n">
-        <v>-21743.74152373</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1405,15 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-21742.74152373</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1435,15 @@
         <v>1638.6827</v>
       </c>
       <c r="G34" t="n">
-        <v>-21742.74152373</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1465,15 @@
         <v>439.0272</v>
       </c>
       <c r="G35" t="n">
-        <v>-22181.76872373001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1495,15 @@
         <v>243.1182</v>
       </c>
       <c r="G36" t="n">
-        <v>-21938.65052373</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1525,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-21938.65052373</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1555,15 @@
         <v>141.6236</v>
       </c>
       <c r="G38" t="n">
-        <v>-22080.27412373</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1585,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-22079.27412373</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1615,15 @@
         <v>833.7769</v>
       </c>
       <c r="G40" t="n">
-        <v>-22913.05102373</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1645,15 @@
         <v>656</v>
       </c>
       <c r="G41" t="n">
-        <v>-22257.05102373</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1675,15 @@
         <v>146.4539</v>
       </c>
       <c r="G42" t="n">
-        <v>-22110.59712373</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1705,15 @@
         <v>135.9978</v>
       </c>
       <c r="G43" t="n">
-        <v>-22246.59492373</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1735,15 @@
         <v>452.947</v>
       </c>
       <c r="G44" t="n">
-        <v>-22246.59492373</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1765,15 @@
         <v>0.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-22245.69492373</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1795,15 @@
         <v>60.2</v>
       </c>
       <c r="G46" t="n">
-        <v>-22305.89492373</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1825,15 @@
         <v>5318.7347</v>
       </c>
       <c r="G47" t="n">
-        <v>-27624.62962373</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1855,15 @@
         <v>1463.145</v>
       </c>
       <c r="G48" t="n">
-        <v>-27624.62962373</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1885,15 @@
         <v>2770.8972</v>
       </c>
       <c r="G49" t="n">
-        <v>-24853.73242373001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1915,15 @@
         <v>3635.5308</v>
       </c>
       <c r="G50" t="n">
-        <v>-28489.26322373001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1945,15 @@
         <v>1157.8654</v>
       </c>
       <c r="G51" t="n">
-        <v>-27331.39782373001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1975,15 @@
         <v>186</v>
       </c>
       <c r="G52" t="n">
-        <v>-27517.39782373001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2005,15 @@
         <v>1617.3564</v>
       </c>
       <c r="G53" t="n">
-        <v>-29134.75422373001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2035,15 @@
         <v>2795.1342</v>
       </c>
       <c r="G54" t="n">
-        <v>-26339.62002373001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2065,15 @@
         <v>1734.9279</v>
       </c>
       <c r="G55" t="n">
-        <v>-28074.54792373001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2095,15 @@
         <v>985.9982</v>
       </c>
       <c r="G56" t="n">
-        <v>-27088.54972373001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2125,15 @@
         <v>2221.8066</v>
       </c>
       <c r="G57" t="n">
-        <v>-29310.35632373001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2155,15 @@
         <v>265.4203</v>
       </c>
       <c r="G58" t="n">
-        <v>-29044.93602373001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2185,15 @@
         <v>1100.85</v>
       </c>
       <c r="G59" t="n">
-        <v>-27944.08602373001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2215,15 @@
         <v>72</v>
       </c>
       <c r="G60" t="n">
-        <v>-27872.08602373001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2245,15 @@
         <v>1588.6934</v>
       </c>
       <c r="G61" t="n">
-        <v>-27872.08602373001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2275,15 @@
         <v>24</v>
       </c>
       <c r="G62" t="n">
-        <v>-27848.08602373001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2305,15 @@
         <v>0.83</v>
       </c>
       <c r="G63" t="n">
-        <v>-27847.25602373001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2335,15 @@
         <v>63.6638</v>
       </c>
       <c r="G64" t="n">
-        <v>-27910.91982373</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2365,15 @@
         <v>0.84</v>
       </c>
       <c r="G65" t="n">
-        <v>-27910.07982373</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2395,15 @@
         <v>62.8239</v>
       </c>
       <c r="G66" t="n">
-        <v>-27972.90372373</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2425,15 @@
         <v>0.85</v>
       </c>
       <c r="G67" t="n">
-        <v>-27972.05372373001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2455,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-27971.05372373001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2485,15 @@
         <v>81.355</v>
       </c>
       <c r="G69" t="n">
-        <v>-28052.40872373</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2515,15 @@
         <v>15</v>
       </c>
       <c r="G70" t="n">
-        <v>-28067.40872373</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2545,15 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>-28067.40872373</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2575,15 @@
         <v>79</v>
       </c>
       <c r="G72" t="n">
-        <v>-28146.40872373</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2605,15 @@
         <v>1234.9289</v>
       </c>
       <c r="G73" t="n">
-        <v>-29381.33762373</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2635,15 @@
         <v>14543.1128</v>
       </c>
       <c r="G74" t="n">
-        <v>-43924.45042373001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2665,15 @@
         <v>2591</v>
       </c>
       <c r="G75" t="n">
-        <v>-41333.45042373001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2695,15 @@
         <v>334</v>
       </c>
       <c r="G76" t="n">
-        <v>-40999.45042373001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2725,15 @@
         <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>-40959.45042373001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2755,15 @@
         <v>666</v>
       </c>
       <c r="G78" t="n">
-        <v>-40293.45042373001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2785,15 @@
         <v>10.85</v>
       </c>
       <c r="G79" t="n">
-        <v>-40282.60042373001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2815,15 @@
         <v>1609.457</v>
       </c>
       <c r="G80" t="n">
-        <v>-40282.60042373001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2845,15 @@
         <v>553.0598</v>
       </c>
       <c r="G81" t="n">
-        <v>-39729.54062373</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2875,15 @@
         <v>277.3425</v>
       </c>
       <c r="G82" t="n">
-        <v>-39729.54062373</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2905,15 @@
         <v>12678.998</v>
       </c>
       <c r="G83" t="n">
-        <v>-52408.53862373</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2935,15 @@
         <v>274.9392</v>
       </c>
       <c r="G84" t="n">
-        <v>-52683.47782373001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2965,15 @@
         <v>115.4125</v>
       </c>
       <c r="G85" t="n">
-        <v>-52683.47782373001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2995,15 @@
         <v>786.5211</v>
       </c>
       <c r="G86" t="n">
-        <v>-52683.47782373001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3025,15 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-52682.47782373001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3055,15 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-52681.47782373001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3085,15 @@
         <v>1057.081</v>
       </c>
       <c r="G89" t="n">
-        <v>-53738.55882373</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3115,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-53806.95882373</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3145,15 @@
         <v>1463.4308</v>
       </c>
       <c r="G91" t="n">
-        <v>-53806.95882373</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3175,15 @@
         <v>36</v>
       </c>
       <c r="G92" t="n">
-        <v>-53842.95882373</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3205,15 @@
         <v>0.86</v>
       </c>
       <c r="G93" t="n">
-        <v>-53842.09882373</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3235,15 @@
         <v>439.8045</v>
       </c>
       <c r="G94" t="n">
-        <v>-54281.90332373</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3265,15 @@
         <v>89</v>
       </c>
       <c r="G95" t="n">
-        <v>-54192.90332373</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3295,15 @@
         <v>1718.0419</v>
       </c>
       <c r="G96" t="n">
-        <v>-52474.86142373001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3325,15 @@
         <v>7.3229</v>
       </c>
       <c r="G97" t="n">
-        <v>-52474.86142373001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3355,15 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>-52474.86142373001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3385,19 @@
         <v>0.86</v>
       </c>
       <c r="G99" t="n">
-        <v>-52474.00142373001</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="I99" t="n">
+        <v>580</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3419,23 @@
         <v>9.742000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-52483.74342373</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="I100" t="n">
+        <v>580</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3457,23 @@
         <v>0.86</v>
       </c>
       <c r="G101" t="n">
-        <v>-52482.88342373</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>578</v>
+      </c>
+      <c r="I101" t="n">
+        <v>580</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,22 +3495,19 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>-52482.88342373</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="I102" t="n">
         <v>588</v>
       </c>
-      <c r="J102" t="n">
-        <v>588</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3785,26 +3529,23 @@
         <v>0.85</v>
       </c>
       <c r="G103" t="n">
-        <v>-52482.03342373</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="I103" t="n">
         <v>588</v>
       </c>
-      <c r="J103" t="n">
-        <v>588</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3826,24 +3567,23 @@
         <v>1555.7063</v>
       </c>
       <c r="G104" t="n">
-        <v>-50926.32712373001</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
+        <v>589</v>
+      </c>
+      <c r="I104" t="n">
         <v>588</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,18 +3605,15 @@
         <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>-50966.32712373001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3898,18 +3635,15 @@
         <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>-50926.32712373001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3931,18 +3665,15 @@
         <v>203.6543</v>
       </c>
       <c r="G107" t="n">
-        <v>-51129.98142373001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,18 +3695,15 @@
         <v>1405.8731</v>
       </c>
       <c r="G108" t="n">
-        <v>-52535.85452373001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3997,18 +3725,15 @@
         <v>10.85</v>
       </c>
       <c r="G109" t="n">
-        <v>-52525.00452373001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +3755,15 @@
         <v>1974.0337</v>
       </c>
       <c r="G110" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,24 +3785,15 @@
         <v>819.5886</v>
       </c>
       <c r="G111" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4102,22 +3815,15 @@
         <v>22.9707</v>
       </c>
       <c r="G112" t="n">
-        <v>-54499.03822373001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4139,24 +3845,15 @@
         <v>206.0932</v>
       </c>
       <c r="G113" t="n">
-        <v>-54705.13142373001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4178,24 +3875,15 @@
         <v>0.85</v>
       </c>
       <c r="G114" t="n">
-        <v>-54704.28142373001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,22 +3905,15 @@
         <v>1993.6399</v>
       </c>
       <c r="G115" t="n">
-        <v>-56697.92132373001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4254,22 +3935,15 @@
         <v>137.5243</v>
       </c>
       <c r="G116" t="n">
-        <v>-56835.44562373001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4291,22 +3965,15 @@
         <v>782.1546</v>
       </c>
       <c r="G117" t="n">
-        <v>-56053.29102373001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4328,22 +3995,15 @@
         <v>214.312</v>
       </c>
       <c r="G118" t="n">
-        <v>-56053.29102373001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4365,24 +4025,15 @@
         <v>0.85</v>
       </c>
       <c r="G119" t="n">
-        <v>-56052.44102373001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4404,24 +4055,15 @@
         <v>0.88</v>
       </c>
       <c r="G120" t="n">
-        <v>-56051.56102373001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4443,24 +4085,15 @@
         <v>2807.9735</v>
       </c>
       <c r="G121" t="n">
-        <v>-56051.56102373001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4482,24 +4115,15 @@
         <v>275.2036</v>
       </c>
       <c r="G122" t="n">
-        <v>-55776.35742373001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4521,24 +4145,15 @@
         <v>0.85</v>
       </c>
       <c r="G123" t="n">
-        <v>-55775.50742373001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4560,24 +4175,15 @@
         <v>0.85</v>
       </c>
       <c r="G124" t="n">
-        <v>-55774.65742373002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4599,24 +4205,15 @@
         <v>7555.5099</v>
       </c>
       <c r="G125" t="n">
-        <v>-63330.16732373001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4638,22 +4235,15 @@
         <v>0.84</v>
       </c>
       <c r="G126" t="n">
-        <v>-63329.32732373002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4675,22 +4265,15 @@
         <v>1705.8011</v>
       </c>
       <c r="G127" t="n">
-        <v>-63329.32732373002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4712,22 +4295,15 @@
         <v>351.84</v>
       </c>
       <c r="G128" t="n">
-        <v>-62977.48732373002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4749,24 +4325,15 @@
         <v>1597.5051</v>
       </c>
       <c r="G129" t="n">
-        <v>-64574.99242373002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4788,24 +4355,15 @@
         <v>0.83</v>
       </c>
       <c r="G130" t="n">
-        <v>-64574.16242373002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4827,24 +4385,15 @@
         <v>1688.0793</v>
       </c>
       <c r="G131" t="n">
-        <v>-66262.24172373003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4866,22 +4415,15 @@
         <v>2856.3029</v>
       </c>
       <c r="G132" t="n">
-        <v>-63405.93882373002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4903,22 +4445,15 @@
         <v>645.3156</v>
       </c>
       <c r="G133" t="n">
-        <v>-64051.25442373002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4940,22 +4475,15 @@
         <v>0.84</v>
       </c>
       <c r="G134" t="n">
-        <v>-64050.41442373003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4977,22 +4505,15 @@
         <v>0.83</v>
       </c>
       <c r="G135" t="n">
-        <v>-64049.58442373003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5014,22 +4535,15 @@
         <v>870.1761</v>
       </c>
       <c r="G136" t="n">
-        <v>-64049.58442373003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5051,22 +4565,15 @@
         <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>-64047.58442373003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5088,24 +4595,15 @@
         <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>-64047.58442373003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5127,24 +4625,15 @@
         <v>487.9254</v>
       </c>
       <c r="G139" t="n">
-        <v>-64047.58442373003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5166,24 +4655,15 @@
         <v>1.82</v>
       </c>
       <c r="G140" t="n">
-        <v>-64045.76442373003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5205,24 +4685,15 @@
         <v>4.82</v>
       </c>
       <c r="G141" t="n">
-        <v>-64050.58442373003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5244,24 +4715,15 @@
         <v>2.64</v>
       </c>
       <c r="G142" t="n">
-        <v>-64047.94442373003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5283,24 +4745,15 @@
         <v>77.63460000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-64047.94442373003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5322,22 +4775,15 @@
         <v>83.193</v>
       </c>
       <c r="G144" t="n">
-        <v>-64131.13742373003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5359,24 +4805,15 @@
         <v>831.5014</v>
       </c>
       <c r="G145" t="n">
-        <v>-63299.63602373003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5398,24 +4835,15 @@
         <v>0.82</v>
       </c>
       <c r="G146" t="n">
-        <v>-63298.81602373003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5437,24 +4865,15 @@
         <v>82.193</v>
       </c>
       <c r="G147" t="n">
-        <v>-63381.00902373002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5476,24 +4895,15 @@
         <v>90.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>-63290.00912373002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>604</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5515,24 +4925,15 @@
         <v>409</v>
       </c>
       <c r="G149" t="n">
-        <v>-63290.00912373002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5554,22 +4955,15 @@
         <v>0.82</v>
       </c>
       <c r="G150" t="n">
-        <v>-63289.18912373002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5591,22 +4985,15 @@
         <v>302.8777</v>
       </c>
       <c r="G151" t="n">
-        <v>-63592.06682373002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5628,24 +5015,15 @@
         <v>753</v>
       </c>
       <c r="G152" t="n">
-        <v>-62839.06682373002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5667,22 +5045,15 @@
         <v>66.14879999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>-62839.06682373002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5704,22 +5075,15 @@
         <v>499.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>-62339.06692373002</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5741,22 +5105,15 @@
         <v>770.3203999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>-61568.74652373002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5778,22 +5135,15 @@
         <v>1.921</v>
       </c>
       <c r="G156" t="n">
-        <v>-61568.74652373002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5815,22 +5165,15 @@
         <v>105</v>
       </c>
       <c r="G157" t="n">
-        <v>-61673.74652373002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5852,22 +5195,15 @@
         <v>317.1447</v>
       </c>
       <c r="G158" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5889,24 +5225,15 @@
         <v>521</v>
       </c>
       <c r="G159" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5928,24 +5255,15 @@
         <v>1076.4411</v>
       </c>
       <c r="G160" t="n">
-        <v>-61356.60182373002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5967,22 +5285,15 @@
         <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>-61351.60182373002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6004,22 +5315,15 @@
         <v>118.93539151</v>
       </c>
       <c r="G162" t="n">
-        <v>-61351.60182373002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6041,22 +5345,15 @@
         <v>540.46</v>
       </c>
       <c r="G163" t="n">
-        <v>-60811.14182373002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6078,22 +5375,15 @@
         <v>1537.3314</v>
       </c>
       <c r="G164" t="n">
-        <v>-59273.81042373002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6115,22 +5405,15 @@
         <v>528.2252</v>
       </c>
       <c r="G165" t="n">
-        <v>-59273.81042373002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6152,22 +5435,15 @@
         <v>241.9999</v>
       </c>
       <c r="G166" t="n">
-        <v>-59031.81052373002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6189,22 +5465,15 @@
         <v>153.6043</v>
       </c>
       <c r="G167" t="n">
-        <v>-59185.41482373002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6226,22 +5495,15 @@
         <v>330.5</v>
       </c>
       <c r="G168" t="n">
-        <v>-58854.91482373002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6263,22 +5525,15 @@
         <v>66.17700000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>-58788.73782373001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6300,22 +5555,15 @@
         <v>85.0814</v>
       </c>
       <c r="G170" t="n">
-        <v>-58703.65642373001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6337,22 +5585,15 @@
         <v>17.7713</v>
       </c>
       <c r="G171" t="n">
-        <v>-58703.65642373001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6374,22 +5615,15 @@
         <v>1084.7241</v>
       </c>
       <c r="G172" t="n">
-        <v>-57618.93232373001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6411,22 +5645,15 @@
         <v>384.6125</v>
       </c>
       <c r="G173" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6448,20 +5675,15 @@
         <v>40</v>
       </c>
       <c r="G174" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K174" t="n">
+        <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6483,18 +5705,15 @@
         <v>184.4777</v>
       </c>
       <c r="G175" t="n">
-        <v>-57234.31982373001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6516,18 +5735,15 @@
         <v>237.644</v>
       </c>
       <c r="G176" t="n">
-        <v>-57471.96382373001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6549,18 +5765,15 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>-57470.96382373001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6582,18 +5795,15 @@
         <v>829.6878</v>
       </c>
       <c r="G178" t="n">
-        <v>-58300.65162373001</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6615,18 +5825,15 @@
         <v>0.8</v>
       </c>
       <c r="G179" t="n">
-        <v>-58299.85162373001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6648,18 +5855,15 @@
         <v>1063.76993656</v>
       </c>
       <c r="G180" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6681,18 +5885,15 @@
         <v>1343.6104</v>
       </c>
       <c r="G181" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6714,18 +5915,15 @@
         <v>33.1038</v>
       </c>
       <c r="G182" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6747,18 +5945,15 @@
         <v>212.153</v>
       </c>
       <c r="G183" t="n">
-        <v>-57236.08168717001</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6780,18 +5975,15 @@
         <v>427</v>
       </c>
       <c r="G184" t="n">
-        <v>-57663.08168717001</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6813,18 +6005,15 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>-57662.08168717001</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6846,18 +6035,15 @@
         <v>0.8</v>
       </c>
       <c r="G186" t="n">
-        <v>-57661.28168717001</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6879,18 +6065,15 @@
         <v>615</v>
       </c>
       <c r="G187" t="n">
-        <v>-58276.28168717001</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
